--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q588"/>
+  <dimension ref="A1:Q595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30420,6 +30420,403 @@
         </is>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>398.19</v>
+      </c>
+      <c r="C589" t="n">
+        <v>382.93</v>
+      </c>
+      <c r="D589" t="n">
+        <v>391.2014285714286</v>
+      </c>
+      <c r="E589" t="n">
+        <v>392.0361538461539</v>
+      </c>
+      <c r="F589" t="n">
+        <v>383.32</v>
+      </c>
+      <c r="G589" t="n">
+        <v>383.15</v>
+      </c>
+      <c r="H589" t="n">
+        <v>387.6461538461539</v>
+      </c>
+      <c r="I589" t="n">
+        <v>400.0361538461539</v>
+      </c>
+      <c r="J589" t="n">
+        <v>397.84</v>
+      </c>
+      <c r="K589" t="n">
+        <v>398.7614285714286</v>
+      </c>
+      <c r="L589" t="n">
+        <v>389.3614285714286</v>
+      </c>
+      <c r="M589" t="n">
+        <v>382.7061538461539</v>
+      </c>
+      <c r="N589" t="n">
+        <v>374.59</v>
+      </c>
+      <c r="O589" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="P589" t="n">
+        <v>372.9533333333333</v>
+      </c>
+      <c r="Q589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>392.0966666666667</v>
+      </c>
+      <c r="C590" t="n">
+        <v>393.1933333333333</v>
+      </c>
+      <c r="D590" t="n">
+        <v>389.43</v>
+      </c>
+      <c r="E590" t="n">
+        <v>393.2053846153846</v>
+      </c>
+      <c r="F590" t="n">
+        <v>392.6433333333333</v>
+      </c>
+      <c r="G590" t="n">
+        <v>392.8818181818182</v>
+      </c>
+      <c r="H590" t="n">
+        <v>394.7553846153846</v>
+      </c>
+      <c r="I590" t="n">
+        <v>401.2053846153846</v>
+      </c>
+      <c r="J590" t="n">
+        <v>403.9766666666666</v>
+      </c>
+      <c r="K590" t="n">
+        <v>397.67</v>
+      </c>
+      <c r="L590" t="n">
+        <v>390.42</v>
+      </c>
+      <c r="M590" t="n">
+        <v>388.3553846153847</v>
+      </c>
+      <c r="N590" t="n">
+        <v>387.7833333333333</v>
+      </c>
+      <c r="O590" t="n">
+        <v>384.87</v>
+      </c>
+      <c r="P590" t="n">
+        <v>385.2844444444444</v>
+      </c>
+      <c r="Q590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>378.3533333333333</v>
+      </c>
+      <c r="C591" t="n">
+        <v>378.2966666666667</v>
+      </c>
+      <c r="D591" t="n">
+        <v>386.4614285714285</v>
+      </c>
+      <c r="E591" t="n">
+        <v>383.9538461538461</v>
+      </c>
+      <c r="F591" t="n">
+        <v>378.9066666666667</v>
+      </c>
+      <c r="G591" t="n">
+        <v>378.6409090909091</v>
+      </c>
+      <c r="H591" t="n">
+        <v>383.7638461538461</v>
+      </c>
+      <c r="I591" t="n">
+        <v>389.2938461538461</v>
+      </c>
+      <c r="J591" t="n">
+        <v>394.9733333333334</v>
+      </c>
+      <c r="K591" t="n">
+        <v>387.5914285714285</v>
+      </c>
+      <c r="L591" t="n">
+        <v>382.0114285714286</v>
+      </c>
+      <c r="M591" t="n">
+        <v>376.7138461538461</v>
+      </c>
+      <c r="N591" t="n">
+        <v>373.4566666666667</v>
+      </c>
+      <c r="O591" t="n">
+        <v>371.91</v>
+      </c>
+      <c r="P591" t="n">
+        <v>370.1455555555555</v>
+      </c>
+      <c r="Q591" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>392.62</v>
+      </c>
+      <c r="C592" t="n">
+        <v>392.08</v>
+      </c>
+      <c r="D592" t="n">
+        <v>401.7414285714286</v>
+      </c>
+      <c r="E592" t="n">
+        <v>393.97</v>
+      </c>
+      <c r="F592" t="n">
+        <v>393.92</v>
+      </c>
+      <c r="G592" t="n">
+        <v>393.180909090909</v>
+      </c>
+      <c r="H592" t="n">
+        <v>395.56</v>
+      </c>
+      <c r="I592" t="n">
+        <v>404.94</v>
+      </c>
+      <c r="J592" t="n">
+        <v>408.11</v>
+      </c>
+      <c r="K592" t="n">
+        <v>401.1214285714286</v>
+      </c>
+      <c r="L592" t="n">
+        <v>394.8614285714286</v>
+      </c>
+      <c r="M592" t="n">
+        <v>388.91</v>
+      </c>
+      <c r="N592" t="n">
+        <v>386.83</v>
+      </c>
+      <c r="O592" t="n">
+        <v>382.41</v>
+      </c>
+      <c r="P592" t="n">
+        <v>385.8466666666667</v>
+      </c>
+      <c r="Q592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>391.2733333333333</v>
+      </c>
+      <c r="C593" t="n">
+        <v>386.2866666666667</v>
+      </c>
+      <c r="D593" t="n">
+        <v>386.0157142857143</v>
+      </c>
+      <c r="E593" t="n">
+        <v>385.5915384615385</v>
+      </c>
+      <c r="F593" t="n">
+        <v>384.9966666666666</v>
+      </c>
+      <c r="G593" t="n">
+        <v>386.3390909090909</v>
+      </c>
+      <c r="H593" t="n">
+        <v>389.1515384615385</v>
+      </c>
+      <c r="I593" t="n">
+        <v>394.7815384615385</v>
+      </c>
+      <c r="J593" t="n">
+        <v>399.2733333333333</v>
+      </c>
+      <c r="K593" t="n">
+        <v>392.8457142857143</v>
+      </c>
+      <c r="L593" t="n">
+        <v>384.9957142857143</v>
+      </c>
+      <c r="M593" t="n">
+        <v>384.9415384615385</v>
+      </c>
+      <c r="N593" t="n">
+        <v>380.9066666666667</v>
+      </c>
+      <c r="O593" t="n">
+        <v>379.57</v>
+      </c>
+      <c r="P593" t="n">
+        <v>380.4055555555556</v>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>401.16</v>
+      </c>
+      <c r="C594" t="n">
+        <v>395.12</v>
+      </c>
+      <c r="D594" t="n">
+        <v>387.73</v>
+      </c>
+      <c r="E594" t="n">
+        <v>394.9230769230769</v>
+      </c>
+      <c r="F594" t="n">
+        <v>396.43</v>
+      </c>
+      <c r="G594" t="n">
+        <v>397.0127272727273</v>
+      </c>
+      <c r="H594" t="n">
+        <v>395.9030769230769</v>
+      </c>
+      <c r="I594" t="n">
+        <v>403.1030769230769</v>
+      </c>
+      <c r="J594" t="n">
+        <v>405.59</v>
+      </c>
+      <c r="K594" t="n">
+        <v>397.88</v>
+      </c>
+      <c r="L594" t="n">
+        <v>394.37</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+      <c r="N594" t="n">
+        <v>389.2</v>
+      </c>
+      <c r="O594" t="n">
+        <v>385.47</v>
+      </c>
+      <c r="P594" t="n">
+        <v>388.2566666666667</v>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>386.03</v>
+      </c>
+      <c r="C595" t="n">
+        <v>383.42</v>
+      </c>
+      <c r="D595" t="n">
+        <v>388.5185714285714</v>
+      </c>
+      <c r="E595" t="n">
+        <v>388.92</v>
+      </c>
+      <c r="F595" t="n">
+        <v>386.6</v>
+      </c>
+      <c r="G595" t="n">
+        <v>382.1590909090909</v>
+      </c>
+      <c r="H595" t="n">
+        <v>387.13</v>
+      </c>
+      <c r="I595" t="n">
+        <v>394.92</v>
+      </c>
+      <c r="J595" t="n">
+        <v>399.49</v>
+      </c>
+      <c r="K595" t="n">
+        <v>396.0385714285715</v>
+      </c>
+      <c r="L595" t="n">
+        <v>388.2485714285714</v>
+      </c>
+      <c r="M595" t="n">
+        <v>381.61</v>
+      </c>
+      <c r="N595" t="n">
+        <v>377.17</v>
+      </c>
+      <c r="O595" t="n">
+        <v>375.57</v>
+      </c>
+      <c r="P595" t="n">
+        <v>376.8833333333333</v>
+      </c>
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30431,7 +30828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B604"/>
+  <dimension ref="A1:B611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36479,6 +36876,76 @@
       </c>
       <c r="B604" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -36647,28 +37114,28 @@
         <v>0.0352</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0716780074878004</v>
+        <v>-0.07731427432131088</v>
       </c>
       <c r="J2" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002871940095520498</v>
+        <v>0.003409060851331747</v>
       </c>
       <c r="M2" t="n">
-        <v>7.534894102445531</v>
+        <v>7.508948746840398</v>
       </c>
       <c r="N2" t="n">
-        <v>91.58074024266182</v>
+        <v>91.0119489606606</v>
       </c>
       <c r="O2" t="n">
-        <v>9.569782664337881</v>
+        <v>9.540018289325268</v>
       </c>
       <c r="P2" t="n">
-        <v>395.2070006912129</v>
+        <v>395.2642155205984</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -36724,28 +37191,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09451566090857214</v>
+        <v>0.09915375968257484</v>
       </c>
       <c r="J3" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K3" t="n">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008729996224370429</v>
+        <v>0.009790506033704904</v>
       </c>
       <c r="M3" t="n">
-        <v>5.330178015371724</v>
+        <v>5.331476656962399</v>
       </c>
       <c r="N3" t="n">
-        <v>51.65116415745245</v>
+        <v>51.41565699528289</v>
       </c>
       <c r="O3" t="n">
-        <v>7.18687443590414</v>
+        <v>7.170471183631023</v>
       </c>
       <c r="P3" t="n">
-        <v>383.3543868116122</v>
+        <v>383.3071889427638</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -36801,28 +37268,28 @@
         <v>0.0738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05635033821380076</v>
+        <v>0.05953018809911912</v>
       </c>
       <c r="J4" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K4" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003594144651455466</v>
+        <v>0.004093297969830045</v>
       </c>
       <c r="M4" t="n">
-        <v>4.886057904760848</v>
+        <v>4.861915512487067</v>
       </c>
       <c r="N4" t="n">
-        <v>45.36911306447448</v>
+        <v>45.08866612422544</v>
       </c>
       <c r="O4" t="n">
-        <v>6.735659809140785</v>
+        <v>6.714809462987422</v>
       </c>
       <c r="P4" t="n">
-        <v>387.5965493203511</v>
+        <v>387.5644912472829</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -36872,28 +37339,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1020224619277863</v>
+        <v>0.1009273135654423</v>
       </c>
       <c r="J5" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K5" t="n">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01290452714743839</v>
+        <v>0.01291959284919542</v>
       </c>
       <c r="M5" t="n">
-        <v>4.707306525953862</v>
+        <v>4.69069747650219</v>
       </c>
       <c r="N5" t="n">
-        <v>41.16723452954326</v>
+        <v>40.79874302466821</v>
       </c>
       <c r="O5" t="n">
-        <v>6.416169770941481</v>
+        <v>6.387389374749923</v>
       </c>
       <c r="P5" t="n">
-        <v>388.1754922087583</v>
+        <v>388.1866267866327</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -36949,28 +37416,28 @@
         <v>0.0615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1003076913768219</v>
+        <v>0.1028058037216795</v>
       </c>
       <c r="J6" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K6" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01139891465403997</v>
+        <v>0.01216951203063266</v>
       </c>
       <c r="M6" t="n">
-        <v>5.122453374283877</v>
+        <v>5.124871710839265</v>
       </c>
       <c r="N6" t="n">
-        <v>45.58503933088931</v>
+        <v>45.43945380310903</v>
       </c>
       <c r="O6" t="n">
-        <v>6.751669373635628</v>
+        <v>6.740879304891093</v>
       </c>
       <c r="P6" t="n">
-        <v>384.6683974038713</v>
+        <v>384.6431536396014</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -37026,28 +37493,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02763559368931697</v>
+        <v>-0.01854423475620336</v>
       </c>
       <c r="J7" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K7" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001009919845386897</v>
+        <v>0.0004597314395959895</v>
       </c>
       <c r="M7" t="n">
-        <v>4.883916248764728</v>
+        <v>4.900059287134863</v>
       </c>
       <c r="N7" t="n">
-        <v>39.34334985329444</v>
+        <v>39.49914954795431</v>
       </c>
       <c r="O7" t="n">
-        <v>6.272427747953294</v>
+        <v>6.284834886292106</v>
       </c>
       <c r="P7" t="n">
-        <v>385.049563063651</v>
+        <v>384.9582720114021</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -37103,28 +37570,28 @@
         <v>0.068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01727581139325243</v>
+        <v>0.02113915884566983</v>
       </c>
       <c r="J8" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K8" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000432579058212812</v>
+        <v>0.0006601842617555143</v>
       </c>
       <c r="M8" t="n">
-        <v>4.69816294329824</v>
+        <v>4.687860068101553</v>
       </c>
       <c r="N8" t="n">
-        <v>35.88674778237071</v>
+        <v>35.68593311748555</v>
       </c>
       <c r="O8" t="n">
-        <v>5.990554881008162</v>
+        <v>5.973770427249907</v>
       </c>
       <c r="P8" t="n">
-        <v>388.7047724714624</v>
+        <v>388.6657968879229</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -37180,28 +37647,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02030649640320317</v>
+        <v>-0.01882425488878057</v>
       </c>
       <c r="J9" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K9" t="n">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006293786291593495</v>
+        <v>0.0005500347990473609</v>
       </c>
       <c r="M9" t="n">
-        <v>4.363673777608866</v>
+        <v>4.366416674764824</v>
       </c>
       <c r="N9" t="n">
-        <v>33.87404072548068</v>
+        <v>33.76782407789489</v>
       </c>
       <c r="O9" t="n">
-        <v>5.820140954090431</v>
+        <v>5.811008869197749</v>
       </c>
       <c r="P9" t="n">
-        <v>398.2980419993988</v>
+        <v>398.283038323479</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -37257,28 +37724,28 @@
         <v>0.0813</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02362897745114317</v>
+        <v>-0.01462837197823922</v>
       </c>
       <c r="J10" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K10" t="n">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007705448462708153</v>
+        <v>0.0003006265806162478</v>
       </c>
       <c r="M10" t="n">
-        <v>4.575003438878187</v>
+        <v>4.567022203289</v>
       </c>
       <c r="N10" t="n">
-        <v>38.05200145544077</v>
+        <v>37.91881702001147</v>
       </c>
       <c r="O10" t="n">
-        <v>6.168630435959085</v>
+        <v>6.157825673077427</v>
       </c>
       <c r="P10" t="n">
-        <v>398.6616412437396</v>
+        <v>398.5713886579524</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -37334,28 +37801,28 @@
         <v>0.0746</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0857582710519766</v>
+        <v>-0.08439331084973564</v>
       </c>
       <c r="J11" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K11" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01095132965472001</v>
+        <v>0.01083645302682346</v>
       </c>
       <c r="M11" t="n">
-        <v>4.392309623526364</v>
+        <v>4.378074078408494</v>
       </c>
       <c r="N11" t="n">
-        <v>34.78497943017135</v>
+        <v>34.53173238730087</v>
       </c>
       <c r="O11" t="n">
-        <v>5.897879231568865</v>
+        <v>5.876370681577267</v>
       </c>
       <c r="P11" t="n">
-        <v>397.6714364780668</v>
+        <v>397.6577660546165</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -37411,28 +37878,28 @@
         <v>0.0723</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1139883665631081</v>
+        <v>-0.1154974058494502</v>
       </c>
       <c r="J12" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K12" t="n">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01853495804609451</v>
+        <v>0.01940884524605413</v>
       </c>
       <c r="M12" t="n">
-        <v>4.487796739641666</v>
+        <v>4.475239938551244</v>
       </c>
       <c r="N12" t="n">
-        <v>36.12164109200101</v>
+        <v>35.86904550156841</v>
       </c>
       <c r="O12" t="n">
-        <v>6.01012820928148</v>
+        <v>5.98907718280274</v>
       </c>
       <c r="P12" t="n">
-        <v>392.6225425648859</v>
+        <v>392.6376680135679</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -37488,28 +37955,28 @@
         <v>0.0674</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1094813406253026</v>
+        <v>-0.1123470117951402</v>
       </c>
       <c r="J13" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K13" t="n">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01356808858961644</v>
+        <v>0.0145412888895996</v>
       </c>
       <c r="M13" t="n">
-        <v>4.828317188820535</v>
+        <v>4.813594792213996</v>
       </c>
       <c r="N13" t="n">
-        <v>45.80428259104747</v>
+        <v>45.4649052553243</v>
       </c>
       <c r="O13" t="n">
-        <v>6.767886124267124</v>
+        <v>6.74276688424895</v>
       </c>
       <c r="P13" t="n">
-        <v>387.8705958703787</v>
+        <v>387.899537732774</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -37565,28 +38032,28 @@
         <v>0.0606</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08780287871553182</v>
+        <v>-0.09456047142577732</v>
       </c>
       <c r="J14" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K14" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005606105379480475</v>
+        <v>0.0066251724414369</v>
       </c>
       <c r="M14" t="n">
-        <v>6.219357927890379</v>
+        <v>6.215727139409988</v>
       </c>
       <c r="N14" t="n">
-        <v>72.25311269541905</v>
+        <v>71.81342527558985</v>
       </c>
       <c r="O14" t="n">
-        <v>8.500183097758486</v>
+        <v>8.474280221681948</v>
       </c>
       <c r="P14" t="n">
-        <v>386.0877650204175</v>
+        <v>386.1553277593466</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -37642,28 +38109,28 @@
         <v>0.0512</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01331063382158703</v>
+        <v>-0.02911364714827311</v>
       </c>
       <c r="J15" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K15" t="n">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001048586623729753</v>
+        <v>0.0005119986907552443</v>
       </c>
       <c r="M15" t="n">
-        <v>6.645151608917938</v>
+        <v>6.631719874335325</v>
       </c>
       <c r="N15" t="n">
-        <v>89.74290145910832</v>
+        <v>89.20236750219848</v>
       </c>
       <c r="O15" t="n">
-        <v>9.473273006680865</v>
+        <v>9.444700498279365</v>
       </c>
       <c r="P15" t="n">
-        <v>384.7482868054975</v>
+        <v>384.9049964958215</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -37719,28 +38186,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01769757767223821</v>
+        <v>0.002137840968746107</v>
       </c>
       <c r="J16" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K16" t="n">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002140133013452949</v>
+        <v>3.182489066611005e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>6.713972936342728</v>
+        <v>6.710361678305274</v>
       </c>
       <c r="N16" t="n">
-        <v>76.66160833867708</v>
+        <v>76.50161843676108</v>
       </c>
       <c r="O16" t="n">
-        <v>8.755661502061228</v>
+        <v>8.746520361650173</v>
       </c>
       <c r="P16" t="n">
-        <v>384.6798402505038</v>
+        <v>384.8333974587734</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -37777,7 +38244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q588"/>
+  <dimension ref="A1:Q595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81817,6 +82284,611 @@
         </is>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-36.62709192052719,174.75362280614198</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-36.627386651829184,174.75446261661773</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-36.62747188695273,174.75534273561442</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-36.62755859032737,174.75620142084145</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-36.627677083396854,174.75707992215644</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-36.62771913726662,174.7579744489457</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>-36.62770645384018,174.75886857817244</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>-36.6276125909599,174.7597289546991</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>-36.62753839298777,174.76055560408858</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>-36.627363625702664,174.76135939271975</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>-36.62715510255897,174.76216862899108</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>-36.62684369162403,174.76295712136243</t>
+        </is>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>-36.62651296275495,174.7637553348899</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>-36.62612366311904,174.7645068387433</t>
+        </is>
+      </c>
+      <c r="P589" t="inlineStr">
+        <is>
+          <t>-36.6256995548558,174.76522986039882</t>
+        </is>
+      </c>
+      <c r="Q589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-36.627145598299634,174.75360842698035</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-36.6272962393481,174.7544868356286</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-36.62748762643736,174.75533942131315</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-36.627548089957145,174.75620251600628</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-36.62759314206198,174.75708455212987</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-36.62763148719483,174.75797832002408</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-36.627642394976355,174.7588700703204</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-36.627602080589426,174.75972801899275</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>-36.62748432364417,174.7605411800348</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>-36.62737283455909,174.76136368122874</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>-36.6271467418777,174.76216292833615</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>-36.626800927505634,174.7629228449043</t>
+        </is>
+      </c>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>-36.62641474112356,174.76367220118112</t>
+        </is>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>-36.62603701744086,174.76442919206883</t>
+        </is>
+      </c>
+      <c r="P590" t="inlineStr">
+        <is>
+          <t>-36.62561074345193,174.76514698219918</t>
+        </is>
+      </c>
+      <c r="Q590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-36.627266666923596,174.75357599513816</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-36.627427468114966,174.75445168304253</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-36.62751400276705,174.75533386718297</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-36.62763117413598,174.75619385050797</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-36.62771681822928,174.75707773049</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-36.62775974860261,174.75797265533845</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-36.627741435995915,174.75886776331942</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>-36.62770915498718,174.7597375515161</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>-36.62756365080078,174.76056234211134</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>-36.62745787183008,174.76140328262827</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>-36.62721315343445,174.76220821049625</t>
+        </is>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>-36.626889052788606,174.76299347946667</t>
+        </is>
+      </c>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>-36.6265214001836,174.76376247624927</t>
+        </is>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>-36.62613169939323,174.76451404038306</t>
+        </is>
+      </c>
+      <c r="P591" t="inlineStr">
+        <is>
+          <t>-36.62571977708668,174.76524873168273</t>
+        </is>
+      </c>
+      <c r="Q591" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-36.62714098811902,174.75360966195282</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-36.627306047002975,174.75448420843088</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-36.62737823701719,174.75536245568162</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-36.62754122326767,174.75620323218635</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-36.627581647771144,174.75708518612285</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>-36.62762879341868,174.757978438995</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>-36.62763514486039,174.75887023920012</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>-36.62756850963612,174.7597250302748</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>-36.62744790539923,174.76053146476906</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>-36.627343713357995,174.76135011966466</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>-36.627111663118356,174.76213901021734</t>
+        </is>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>-36.62679672912141,174.76291947980204</t>
+        </is>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>-36.62642183849476,174.76367820830905</t>
+        </is>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>-36.6260549894833,174.76444529751973</t>
+        </is>
+      </c>
+      <c r="P592" t="inlineStr">
+        <is>
+          <t>-36.625606694200954,174.76514320347167</t>
+        </is>
+      </c>
+      <c r="Q592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-36.62715285125891,174.75360648406158</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-36.62735708204456,174.75447053755366</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-36.62751796302441,174.7553330332613</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-36.62761646670971,174.75619538446148</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>-36.627661987761805,174.75708075479065</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>-36.627690414571575,174.75797571748828</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>-36.62769288933077,174.75886889413584</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>-36.6276598253942,174.75973315984132</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>-36.62752576408103,174.760552235079</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>-36.62741353914858,174.7613826371248</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>-36.62718958331408,174.7621921393977</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>-36.62682676998483,174.76294355826042</t>
+        </is>
+      </c>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>-36.626465936489346,174.76371553234222</t>
+        </is>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>-36.626075737691885,174.76446389081394</t>
+        </is>
+      </c>
+      <c r="P593" t="inlineStr">
+        <is>
+          <t>-36.62564588230213,174.7651797735057</t>
+        </is>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-36.62706575701715,174.75362981479665</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-36.62727926681946,174.75449138209507</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>-36.627502731265274,174.7553362406519</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>-36.62753266408428,174.75620412488945</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>-36.62755904933504,174.7570864325892</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>-36.627594281970204,174.75797996319685</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>-36.62763205351073,174.7588703112081</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>-36.62758502198148,174.75972650031736</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>-36.62747010878097,174.76053738794602</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>-36.62737106269799,174.7613628560836</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>-36.627115544460935,174.76214165667264</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr"/>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>-36.62640419433005,174.76366327450708</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>-36.62603263401551,174.76442526391122</t>
+        </is>
+      </c>
+      <c r="P594" t="inlineStr">
+        <is>
+          <t>-36.625589336837066,174.76512700572908</t>
+        </is>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-36.62719904115675,174.75359411072887</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-36.62738233528666,174.75446377290166</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>-36.627495724656036,174.75533771605123</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>-36.62758657519554,174.75619850208187</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>-36.62764755237319,174.75708155100727</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>-36.62772806193522,174.75797405478613</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>-36.62771110472716,174.75886846983752</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>-36.627658580745084,174.7597330490338</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>-36.62752385506023,174.7605517258102</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>-36.62738659962946,174.7613700915413</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>-36.627163891992815,174.76217462198866</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>-36.62685198939898,174.76296377223193</t>
+        </is>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>-36.626493755194964,174.76373907780118</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>-36.626104960515384,174.76449007856934</t>
+        </is>
+      </c>
+      <c r="P595" t="inlineStr">
+        <is>
+          <t>-36.62567125012898,174.7652034465924</t>
+        </is>
+      </c>
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -36959,7 +36959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37050,35 +37050,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -37137,27 +37142,28 @@
       <c r="P2" t="n">
         <v>395.2642155205984</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.75268311106774 -36.63059967723553, 174.75485412899542 -36.62249509905845)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7526831110677</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.63059967723553</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7548541289954</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.62249509905845</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7537686200316</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.62654738814699</v>
       </c>
     </row>
@@ -37214,27 +37220,28 @@
       <c r="P3" t="n">
         <v>383.3071889427638</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.75355895594575 -36.63075998246245, 174.75572991592708 -36.622655401704684)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7535589559457</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.63075998246245</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7557299159271</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.62265540170468</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7546444359364</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.62670769208357</v>
       </c>
     </row>
@@ -37291,27 +37298,28 @@
       <c r="P4" t="n">
         <v>387.5644912472829</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.75461077729702 -36.63094778479536, 174.756332015854 -36.62277357114005)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.754610777297</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.63094778479536</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.756332015854</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.62277357114005</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7554713965755</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.62686067796771</v>
       </c>
     </row>
@@ -37362,27 +37370,28 @@
       <c r="P5" t="n">
         <v>388.1866267866327</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.75583420507917 -36.63107930117304, 174.7566958697745 -36.62281761065693)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7558342050792</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.63107930117304</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7566958697745</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.62281761065693</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7562650374268</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.62694845591498</v>
       </c>
     </row>
@@ -37439,27 +37448,28 @@
       <c r="P6" t="n">
         <v>384.6431536396014</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.7568895597388 -36.631128250799215, 174.75734639915862 -36.622845672562654)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7568895597388</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.63112825079921</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7573463991586</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.62284567256265</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7571179794487</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.62698696168093</v>
       </c>
     </row>
@@ -37516,27 +37526,28 @@
       <c r="P7" t="n">
         <v>384.9582720114021</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.75782203756143 -36.63116999461818, 174.75818796448172 -36.62288449699958)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7578220375614</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.63116999461818</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7581879644817</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.62288449699958</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7580050010216</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.62702724580888</v>
       </c>
     </row>
@@ -37593,27 +37604,28 @@
       <c r="P8" t="n">
         <v>388.6657968879229</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7587872151566 -36.63119940074534, 174.75898029991365 -36.622910132884435)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7587872151566</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.63119940074534</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7589802999136</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.62291013288444</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7588837575351</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.62705476681489</v>
       </c>
     </row>
@@ -37670,27 +37682,28 @@
       <c r="P9" t="n">
         <v>398.283038323479</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.76004911207767 -36.631208567138955, 174.75931291530037 -36.62293905699023)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7600491120777</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.63120856713896</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7593129153004</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.62293905699023</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.759681013689</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.62707381206459</v>
       </c>
     </row>
@@ -37747,27 +37760,28 @@
       <c r="P10" t="n">
         <v>398.5713886579524</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.76149076146734 -36.63104370176894, 174.75932836566997 -36.62293772339099)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7614907614673</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.63104370176894</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.75932836567</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.62293772339099</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7604095635687</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.62699071257997</v>
       </c>
     </row>
@@ -37824,27 +37838,28 @@
       <c r="P11" t="n">
         <v>397.6577660546165</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.76292630147017 -36.63072813588724, 174.75931101350062 -36.622964791105815)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7629263014702</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.63072813588724</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.7593110135006</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.62296479110582</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7611186574854</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.62684646349653</v>
       </c>
     </row>
@@ -37901,27 +37916,28 @@
       <c r="P12" t="n">
         <v>392.6376680135679</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.76426551677915 -36.63023028855215, 174.75930979310422 -36.62296201191014)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.7642655167791</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.63023028855215</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7593097931042</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.62296201191014</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7617876549417</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.62659615023114</v>
       </c>
     </row>
@@ -37978,27 +37994,28 @@
       <c r="P13" t="n">
         <v>387.899537732774</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.76527926361823 -36.62974071334014, 174.75969519893584 -36.62277377508098)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.7652792636182</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.62974071334014</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.7596951989358</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.62277377508098</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.762487231277</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.62625724421056</v>
       </c>
     </row>
@@ -38055,27 +38072,28 @@
       <c r="P14" t="n">
         <v>386.1553277593466</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.7661157871393 -36.62930168041035, 174.76031640076715 -36.62244963161625)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.7661157871393</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.62930168041035</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.7603164007672</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.62244963161625</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.7632160939532</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.6258756560133</v>
       </c>
     </row>
@@ -38132,27 +38150,28 @@
       <c r="P15" t="n">
         <v>384.9049964958215</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.76694900150858 -36.62884873583019, 174.76092320002365 -36.6221244286625)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.7669490015086</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.62884873583019</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.7609232000237</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.6221244286625</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.7639361007661</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.62548658224635</v>
       </c>
     </row>
@@ -38209,27 +38228,28 @@
       <c r="P16" t="n">
         <v>384.8333974587734</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.76773659478522 -36.62838561740876, 174.76155034038175 -36.62175636000089)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.7677365947852</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.62838561740876</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.7615503403817</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.62175636000089</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.7646434675835</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.62507098870482</v>
       </c>
     </row>

--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q595"/>
+  <dimension ref="A1:Q600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30817,6 +30817,291 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>394.4466666666667</v>
+      </c>
+      <c r="C596" t="n">
+        <v>386.0833333333333</v>
+      </c>
+      <c r="D596" t="n">
+        <v>393.5228571428572</v>
+      </c>
+      <c r="E596" t="n">
+        <v>394.0484615384616</v>
+      </c>
+      <c r="F596" t="n">
+        <v>384.2733333333333</v>
+      </c>
+      <c r="G596" t="n">
+        <v>382.48</v>
+      </c>
+      <c r="H596" t="n">
+        <v>386.2784615384616</v>
+      </c>
+      <c r="I596" t="n">
+        <v>400.8484615384616</v>
+      </c>
+      <c r="J596" t="n">
+        <v>399.6366666666667</v>
+      </c>
+      <c r="K596" t="n">
+        <v>399.5928571428572</v>
+      </c>
+      <c r="L596" t="n">
+        <v>391.4428571428572</v>
+      </c>
+      <c r="M596" t="n">
+        <v>385.1384615384616</v>
+      </c>
+      <c r="N596" t="n">
+        <v>380.5033333333333</v>
+      </c>
+      <c r="O596" t="n">
+        <v>377.01</v>
+      </c>
+      <c r="P596" t="n">
+        <v>376.8877777777778</v>
+      </c>
+      <c r="Q596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>420.3333333333333</v>
+      </c>
+      <c r="C597" t="n">
+        <v>397.6966666666667</v>
+      </c>
+      <c r="D597" t="n">
+        <v>402.1271428571428</v>
+      </c>
+      <c r="E597" t="n">
+        <v>395.9623076923077</v>
+      </c>
+      <c r="F597" t="n">
+        <v>396.0066666666667</v>
+      </c>
+      <c r="G597" t="n">
+        <v>398.0181818181818</v>
+      </c>
+      <c r="H597" t="n">
+        <v>398.5823076923077</v>
+      </c>
+      <c r="I597" t="n">
+        <v>403.2723076923077</v>
+      </c>
+      <c r="J597" t="n">
+        <v>408.5433333333334</v>
+      </c>
+      <c r="K597" t="n">
+        <v>399.4471428571428</v>
+      </c>
+      <c r="L597" t="n">
+        <v>393.9771428571429</v>
+      </c>
+      <c r="M597" t="n">
+        <v>391.2423076923077</v>
+      </c>
+      <c r="N597" t="n">
+        <v>389.0366666666667</v>
+      </c>
+      <c r="O597" t="n">
+        <v>390.16</v>
+      </c>
+      <c r="P597" t="n">
+        <v>389.5388888888889</v>
+      </c>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>395.0366666666667</v>
+      </c>
+      <c r="C598" t="n">
+        <v>381.5533333333333</v>
+      </c>
+      <c r="D598" t="n">
+        <v>391.2857142857143</v>
+      </c>
+      <c r="E598" t="n">
+        <v>393.5946153846153</v>
+      </c>
+      <c r="F598" t="n">
+        <v>381.8333333333333</v>
+      </c>
+      <c r="G598" t="n">
+        <v>380.5809090909091</v>
+      </c>
+      <c r="H598" t="n">
+        <v>385.3446153846153</v>
+      </c>
+      <c r="I598" t="n">
+        <v>400.4846153846154</v>
+      </c>
+      <c r="J598" t="n">
+        <v>398.2566666666667</v>
+      </c>
+      <c r="K598" t="n">
+        <v>399.3657142857143</v>
+      </c>
+      <c r="L598" t="n">
+        <v>391.9357142857143</v>
+      </c>
+      <c r="M598" t="n">
+        <v>387.1846153846154</v>
+      </c>
+      <c r="N598" t="n">
+        <v>386.1133333333333</v>
+      </c>
+      <c r="O598" t="n">
+        <v>378.3</v>
+      </c>
+      <c r="P598" t="n">
+        <v>376.9777777777778</v>
+      </c>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>389.6266666666667</v>
+      </c>
+      <c r="C599" t="n">
+        <v>384.9833333333333</v>
+      </c>
+      <c r="D599" t="n">
+        <v>395.7657142857143</v>
+      </c>
+      <c r="E599" t="n">
+        <v>393.2669230769231</v>
+      </c>
+      <c r="F599" t="n">
+        <v>384.8533333333333</v>
+      </c>
+      <c r="G599" t="n">
+        <v>386.0054545454545</v>
+      </c>
+      <c r="H599" t="n">
+        <v>388.2569230769231</v>
+      </c>
+      <c r="I599" t="n">
+        <v>397.7969230769231</v>
+      </c>
+      <c r="J599" t="n">
+        <v>400.8866666666667</v>
+      </c>
+      <c r="K599" t="n">
+        <v>396.1557142857143</v>
+      </c>
+      <c r="L599" t="n">
+        <v>390.1757142857143</v>
+      </c>
+      <c r="M599" t="n">
+        <v>384.5969230769231</v>
+      </c>
+      <c r="N599" t="n">
+        <v>382.0033333333333</v>
+      </c>
+      <c r="O599" t="n">
+        <v>378.33</v>
+      </c>
+      <c r="P599" t="n">
+        <v>380.6777777777777</v>
+      </c>
+      <c r="Q599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>382.71</v>
+      </c>
+      <c r="C600" t="n">
+        <v>386.13</v>
+      </c>
+      <c r="D600" t="n">
+        <v>387.3242857142857</v>
+      </c>
+      <c r="E600" t="n">
+        <v>387.7361538461539</v>
+      </c>
+      <c r="F600" t="n">
+        <v>385.91</v>
+      </c>
+      <c r="G600" t="n">
+        <v>384.1018181818182</v>
+      </c>
+      <c r="H600" t="n">
+        <v>389.2361538461539</v>
+      </c>
+      <c r="I600" t="n">
+        <v>394.7261538461539</v>
+      </c>
+      <c r="J600" t="n">
+        <v>401.4</v>
+      </c>
+      <c r="K600" t="n">
+        <v>392.2942857142857</v>
+      </c>
+      <c r="L600" t="n">
+        <v>387.7442857142857</v>
+      </c>
+      <c r="M600" t="n">
+        <v>384.8861538461539</v>
+      </c>
+      <c r="N600" t="n">
+        <v>379.42</v>
+      </c>
+      <c r="O600" t="n">
+        <v>381.83</v>
+      </c>
+      <c r="P600" t="n">
+        <v>381.2566666666667</v>
+      </c>
+      <c r="Q600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30828,7 +31113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B611"/>
+  <dimension ref="A1:B616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36946,6 +37231,56 @@
       </c>
       <c r="B611" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -37119,28 +37454,28 @@
         <v>0.0352</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07731427432131088</v>
+        <v>-0.07109731264591254</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K2" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003409060851331747</v>
+        <v>0.002887358690973785</v>
       </c>
       <c r="M2" t="n">
-        <v>7.508948746840398</v>
+        <v>7.519785137385754</v>
       </c>
       <c r="N2" t="n">
-        <v>91.0119489606606</v>
+        <v>91.84932494412641</v>
       </c>
       <c r="O2" t="n">
-        <v>9.540018289325268</v>
+        <v>9.583805347779473</v>
       </c>
       <c r="P2" t="n">
-        <v>395.2642155205984</v>
+        <v>395.2007024197138</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37197,28 +37532,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09915375968257484</v>
+        <v>0.1021290010972621</v>
       </c>
       <c r="J3" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K3" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009790506033704904</v>
+        <v>0.01053460468661527</v>
       </c>
       <c r="M3" t="n">
-        <v>5.331476656962399</v>
+        <v>5.314455814455819</v>
       </c>
       <c r="N3" t="n">
-        <v>51.41565699528289</v>
+        <v>51.20893038780903</v>
       </c>
       <c r="O3" t="n">
-        <v>7.170471183631023</v>
+        <v>7.156041530609575</v>
       </c>
       <c r="P3" t="n">
-        <v>383.3071889427638</v>
+        <v>383.276714337873</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -37275,28 +37610,28 @@
         <v>0.0738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05953018809911912</v>
+        <v>0.06933992564844671</v>
       </c>
       <c r="J4" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K4" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004093297969830045</v>
+        <v>0.005599233691892969</v>
       </c>
       <c r="M4" t="n">
-        <v>4.861915512487067</v>
+        <v>4.868985608136455</v>
       </c>
       <c r="N4" t="n">
-        <v>45.08866612422544</v>
+        <v>45.1159467373598</v>
       </c>
       <c r="O4" t="n">
-        <v>6.714809462987422</v>
+        <v>6.716840532375307</v>
       </c>
       <c r="P4" t="n">
-        <v>387.5644912472829</v>
+        <v>387.4643807316039</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -37347,28 +37682,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1009273135654423</v>
+        <v>0.1051420788598176</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K5" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01291959284919542</v>
+        <v>0.01424368009971122</v>
       </c>
       <c r="M5" t="n">
-        <v>4.69069747650219</v>
+        <v>4.676069125337249</v>
       </c>
       <c r="N5" t="n">
-        <v>40.79874302466821</v>
+        <v>40.50235925869508</v>
       </c>
       <c r="O5" t="n">
-        <v>6.387389374749923</v>
+        <v>6.364146388848631</v>
       </c>
       <c r="P5" t="n">
-        <v>388.1866267866327</v>
+        <v>388.143483972805</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -37425,28 +37760,28 @@
         <v>0.0615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1028058037216795</v>
+        <v>0.1014511479705175</v>
       </c>
       <c r="J6" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K6" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01216951203063266</v>
+        <v>0.01202603417870207</v>
       </c>
       <c r="M6" t="n">
-        <v>5.124871710839265</v>
+        <v>5.11450982160734</v>
       </c>
       <c r="N6" t="n">
-        <v>45.43945380310903</v>
+        <v>45.22583250141754</v>
       </c>
       <c r="O6" t="n">
-        <v>6.740879304891093</v>
+        <v>6.725015427596991</v>
       </c>
       <c r="P6" t="n">
-        <v>384.6431536396014</v>
+        <v>384.6569339782952</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -37503,28 +37838,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01854423475620336</v>
+        <v>-0.01511087755735992</v>
       </c>
       <c r="J7" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K7" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004597314395959895</v>
+        <v>0.000308309772756088</v>
       </c>
       <c r="M7" t="n">
-        <v>4.900059287134863</v>
+        <v>4.894473480351558</v>
       </c>
       <c r="N7" t="n">
-        <v>39.49914954795431</v>
+        <v>39.51331197602436</v>
       </c>
       <c r="O7" t="n">
-        <v>6.284834886292106</v>
+        <v>6.285961499724952</v>
       </c>
       <c r="P7" t="n">
-        <v>384.9582720114021</v>
+        <v>384.9234726380416</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -37581,28 +37916,28 @@
         <v>0.068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02113915884566983</v>
+        <v>0.02178241764561193</v>
       </c>
       <c r="J8" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K8" t="n">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006601842617555143</v>
+        <v>0.0007104867328955322</v>
       </c>
       <c r="M8" t="n">
-        <v>4.687860068101553</v>
+        <v>4.675196120858121</v>
       </c>
       <c r="N8" t="n">
-        <v>35.68593311748555</v>
+        <v>35.55202266074781</v>
       </c>
       <c r="O8" t="n">
-        <v>5.973770427249907</v>
+        <v>5.962551690404688</v>
       </c>
       <c r="P8" t="n">
-        <v>388.6657968879229</v>
+        <v>388.6592390430582</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37659,28 +37994,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01882425488878057</v>
+        <v>-0.01569524284444634</v>
       </c>
       <c r="J9" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K9" t="n">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005500347990473609</v>
+        <v>0.0003888219361095624</v>
       </c>
       <c r="M9" t="n">
-        <v>4.366416674764824</v>
+        <v>4.348278975021357</v>
       </c>
       <c r="N9" t="n">
-        <v>33.76782407789489</v>
+        <v>33.53691582612512</v>
       </c>
       <c r="O9" t="n">
-        <v>5.811008869197749</v>
+        <v>5.791106614985181</v>
       </c>
       <c r="P9" t="n">
-        <v>398.283038323479</v>
+        <v>398.2510723789069</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -37737,28 +38072,28 @@
         <v>0.0813</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01462837197823922</v>
+        <v>-0.007713799999254762</v>
       </c>
       <c r="J10" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K10" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003006265806162478</v>
+        <v>8.473587689872275e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>4.567022203289</v>
+        <v>4.554458600355543</v>
       </c>
       <c r="N10" t="n">
-        <v>37.91881702001147</v>
+        <v>37.78476694455929</v>
       </c>
       <c r="O10" t="n">
-        <v>6.157825673077427</v>
+        <v>6.146931506415156</v>
       </c>
       <c r="P10" t="n">
-        <v>398.5713886579524</v>
+        <v>398.5013705646227</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37815,28 +38150,28 @@
         <v>0.0746</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08439331084973564</v>
+        <v>-0.08073445820632975</v>
       </c>
       <c r="J11" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K11" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01083645302682346</v>
+        <v>0.01009437930670243</v>
       </c>
       <c r="M11" t="n">
-        <v>4.378074078408494</v>
+        <v>4.361807973506791</v>
       </c>
       <c r="N11" t="n">
-        <v>34.53173238730087</v>
+        <v>34.293069865264</v>
       </c>
       <c r="O11" t="n">
-        <v>5.876370681577267</v>
+        <v>5.856028506186083</v>
       </c>
       <c r="P11" t="n">
-        <v>397.6577660546165</v>
+        <v>397.620815764134</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37893,28 +38228,28 @@
         <v>0.0723</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1154974058494502</v>
+        <v>-0.1128278286962051</v>
       </c>
       <c r="J12" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K12" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01940884524605413</v>
+        <v>0.01887572039157359</v>
       </c>
       <c r="M12" t="n">
-        <v>4.475239938551244</v>
+        <v>4.448317317102097</v>
       </c>
       <c r="N12" t="n">
-        <v>35.86904550156841</v>
+        <v>35.55910154814411</v>
       </c>
       <c r="O12" t="n">
-        <v>5.98907718280274</v>
+        <v>5.963145273104128</v>
       </c>
       <c r="P12" t="n">
-        <v>392.6376680135679</v>
+        <v>392.6106068079393</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37971,28 +38306,28 @@
         <v>0.0674</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1123470117951402</v>
+        <v>-0.1092844497598512</v>
       </c>
       <c r="J13" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K13" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0145412888895996</v>
+        <v>0.0140140660479009</v>
       </c>
       <c r="M13" t="n">
-        <v>4.813594792213996</v>
+        <v>4.78127078787047</v>
       </c>
       <c r="N13" t="n">
-        <v>45.4649052553243</v>
+        <v>45.08273905730066</v>
       </c>
       <c r="O13" t="n">
-        <v>6.74276688424895</v>
+        <v>6.714368105585264</v>
       </c>
       <c r="P13" t="n">
-        <v>387.899537732774</v>
+        <v>387.8683059057043</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38049,28 +38384,28 @@
         <v>0.0606</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.09456047142577732</v>
+        <v>-0.09519508419999084</v>
       </c>
       <c r="J14" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K14" t="n">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0066251724414369</v>
+        <v>0.006837028602544315</v>
       </c>
       <c r="M14" t="n">
-        <v>6.215727139409988</v>
+        <v>6.186110647998919</v>
       </c>
       <c r="N14" t="n">
-        <v>71.81342527558985</v>
+        <v>71.19730592142432</v>
       </c>
       <c r="O14" t="n">
-        <v>8.474280221681948</v>
+        <v>8.437849602915682</v>
       </c>
       <c r="P14" t="n">
-        <v>386.1553277593466</v>
+        <v>386.1617731242432</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38127,28 +38462,28 @@
         <v>0.0512</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.02911364714827311</v>
+        <v>-0.03533902607421638</v>
       </c>
       <c r="J15" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K15" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005119986907552443</v>
+        <v>0.0007674900834883092</v>
       </c>
       <c r="M15" t="n">
-        <v>6.631719874335325</v>
+        <v>6.617987686905039</v>
       </c>
       <c r="N15" t="n">
-        <v>89.20236750219848</v>
+        <v>88.57526249433876</v>
       </c>
       <c r="O15" t="n">
-        <v>9.444700498279365</v>
+        <v>9.41144316746049</v>
       </c>
       <c r="P15" t="n">
-        <v>384.9049964958215</v>
+        <v>384.9674103303125</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -38205,28 +38540,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002137840968746107</v>
+        <v>-0.005983184626803231</v>
       </c>
       <c r="J16" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K16" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L16" t="n">
-        <v>3.182489066611005e-06</v>
+        <v>2.536933796892793e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>6.710361678305274</v>
+        <v>6.700493161581651</v>
       </c>
       <c r="N16" t="n">
-        <v>76.50161843676108</v>
+        <v>76.04929666878706</v>
       </c>
       <c r="O16" t="n">
-        <v>8.746520361650173</v>
+        <v>8.720624786607154</v>
       </c>
       <c r="P16" t="n">
-        <v>384.8333974587734</v>
+        <v>384.9144042464615</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -38264,7 +38599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q595"/>
+  <dimension ref="A1:Q600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82909,6 +83244,441 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-36.627124896533104,174.75361397255637</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-36.62735887326289,174.75447005773546</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-36.62745126061185,174.7553470789509</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-36.62754051863756,174.75620330567764</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-36.627668500192826,174.75708039558265</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-36.62772517165263,174.757974182436</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>-36.62771877765096,174.7588682911091</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>-36.627605289018305,174.75972830462942</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>-36.6275225628,174.7605513810744</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>-36.627356610578914,174.76135612581962</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>-36.62713866327039,174.7621574200122</t>
+        </is>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>-36.62682527929664,174.76294236343824</t>
+        </is>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>-36.62646893922231,174.76371807382267</t>
+        </is>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>-36.62609444029966,174.7644806509751</t>
+        </is>
+      </c>
+      <c r="P596" t="inlineStr">
+        <is>
+          <t>-36.6256712181191,174.765203416721</t>
+        </is>
+      </c>
+      <c r="Q596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-36.62689685407864,174.75367506023719</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>-36.627256568264464,174.75449746240113</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>-36.62737480987121,174.75536317734228</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-36.627523331189394,174.75620509828875</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>-36.62756286075788,174.75708622236183</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>-36.62758522629709,174.75798036314154</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>-36.62760791187207,174.75887087354855</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>-36.62758350074363,174.75972636488626</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>-36.627444087357354,174.7605304462337</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>-36.6273578400336,174.7613566983691</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>-36.62711864727835,174.7621437722984</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>-36.626779073779055,174.76290532864093</t>
+        </is>
+      </c>
+      <c r="N597" t="inlineStr">
+        <is>
+          <t>-36.62640541031334,174.76366430369995</t>
+        </is>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>-36.625998370235656,174.7643945588281</t>
+        </is>
+      </c>
+      <c r="P597" t="inlineStr">
+        <is>
+          <t>-36.62558010198226,174.765118387846</t>
+        </is>
+      </c>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-36.627119699068274,174.75361536484948</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-36.62739877925808,174.7544593680098</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-36.6274711380579,174.75534289331097</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-36.62754459443918,174.75620288058084</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>-36.627690468393304,174.75707918387621</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>-36.62774227590283,174.75797342702364</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>-36.62772719222142,174.7588680951052</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>-36.627608559679636,174.75972859580645</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>-36.62753472179396,174.76055462472522</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>-36.627358527081796,174.76135701832322</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>-36.62713477064525,174.7621547658621</t>
+        </is>
+      </c>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>-36.62680979011389,174.76292994849175</t>
+        </is>
+      </c>
+      <c r="N598" t="inlineStr">
+        <is>
+          <t>-36.62642717393095,174.7636827241577</t>
+        </is>
+      </c>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>-36.62608501593904,174.7644722054241</t>
+        </is>
+      </c>
+      <c r="P598" t="inlineStr">
+        <is>
+          <t>-36.62567056991917,174.7652028118249</t>
+        </is>
+      </c>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-36.62716735717737,174.753602598223</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-36.6273685634605,174.75446746199728</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>-36.6274313323931,174.75535127528016</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-36.62754753730609,174.75620257364653</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>-36.62766327824352,174.7570806836112</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>-36.627693419482945,174.7579755847759</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>-36.62770095040612,174.7588687063661</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>-36.62763271970222,174.75973074670082</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>-36.62751154921838,174.76054844298585</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>-36.62738561124439,174.7613696312561</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>-36.627148671265715,174.76216424387178</t>
+        </is>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>-36.62682937868914,174.76294564919937</t>
+        </is>
+      </c>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>-36.62645777203326,174.7637086220368</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>-36.62608479676785,174.76447200901598</t>
+        </is>
+      </c>
+      <c r="P599" t="inlineStr">
+        <is>
+          <t>-36.62564392169699,174.76517794388295</t>
+        </is>
+      </c>
+      <c r="Q599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-36.62722828790644,174.7535862761131</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-36.62735846216361,174.75447016785768</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>-36.62750633611494,174.75533548156957</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>-36.627597206820305,174.7561973932266</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>-36.627653764692205,174.75708120835276</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>-36.627710564672064,174.7579748275558</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>-36.62769212689028,174.75886891189566</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>-36.62766032325385,174.75973320416435</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>-36.62750702630751,174.76054723641107</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>-36.627418191790184,174.76138480383497</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>-36.6271678748812,174.76217733768632</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>-36.62682718924089,174.76294389430416</t>
+        </is>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>-36.62647700441388,174.7637249001142</t>
+        </is>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>-36.62605922679377,174.76444909474097</t>
+        </is>
+      </c>
+      <c r="P600" t="inlineStr">
+        <is>
+          <t>-36.62563975241006,174.76517405313442</t>
+        </is>
+      </c>
+      <c r="Q600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q600"/>
+  <dimension ref="A1:Q605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31102,6 +31102,273 @@
         </is>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>397.61</v>
+      </c>
+      <c r="C601" t="n">
+        <v>388.29</v>
+      </c>
+      <c r="D601" t="n">
+        <v>394.1428571428572</v>
+      </c>
+      <c r="E601" t="n">
+        <v>400.2753846153847</v>
+      </c>
+      <c r="F601" t="n">
+        <v>393.96</v>
+      </c>
+      <c r="G601" t="n">
+        <v>386.6827272727273</v>
+      </c>
+      <c r="H601" t="n">
+        <v>391.5653846153846</v>
+      </c>
+      <c r="I601" t="n">
+        <v>400.9953846153846</v>
+      </c>
+      <c r="J601" t="n">
+        <v>398.7000000000001</v>
+      </c>
+      <c r="K601" t="n">
+        <v>390.9428571428572</v>
+      </c>
+      <c r="L601" t="n">
+        <v>384.8628571428572</v>
+      </c>
+      <c r="M601" t="n">
+        <v>382.1453846153846</v>
+      </c>
+      <c r="N601" t="n">
+        <v>381.14</v>
+      </c>
+      <c r="O601" t="n">
+        <v>379.1</v>
+      </c>
+      <c r="P601" t="n">
+        <v>381.1933333333333</v>
+      </c>
+      <c r="Q601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>384.04</v>
+      </c>
+      <c r="C602" t="n">
+        <v>374.03</v>
+      </c>
+      <c r="D602" t="n">
+        <v>379.7228571428572</v>
+      </c>
+      <c r="E602" t="n">
+        <v>384.6084615384616</v>
+      </c>
+      <c r="F602" t="n">
+        <v>376.76</v>
+      </c>
+      <c r="G602" t="n">
+        <v>377.5054545454545</v>
+      </c>
+      <c r="H602" t="n">
+        <v>381.0584615384615</v>
+      </c>
+      <c r="I602" t="n">
+        <v>391.0484615384616</v>
+      </c>
+      <c r="J602" t="n">
+        <v>387.45</v>
+      </c>
+      <c r="K602" t="n">
+        <v>388.1428571428572</v>
+      </c>
+      <c r="L602" t="n">
+        <v>385.0328571428572</v>
+      </c>
+      <c r="M602" t="n">
+        <v>378.2484615384615</v>
+      </c>
+      <c r="N602" t="n">
+        <v>378.56</v>
+      </c>
+      <c r="O602" t="n">
+        <v>380.82</v>
+      </c>
+      <c r="P602" t="n">
+        <v>383.81</v>
+      </c>
+      <c r="Q602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>407.9933333333333</v>
+      </c>
+      <c r="C603" t="n">
+        <v>390.1566666666667</v>
+      </c>
+      <c r="D603" t="n">
+        <v>394.9785714285715</v>
+      </c>
+      <c r="E603" t="n">
+        <v>399.6861538461538</v>
+      </c>
+      <c r="F603" t="n">
+        <v>396.3766666666667</v>
+      </c>
+      <c r="G603" t="n">
+        <v>391.0936363636364</v>
+      </c>
+      <c r="H603" t="n">
+        <v>395.3461538461539</v>
+      </c>
+      <c r="I603" t="n">
+        <v>404.5361538461539</v>
+      </c>
+      <c r="J603" t="n">
+        <v>401.3633333333333</v>
+      </c>
+      <c r="K603" t="n">
+        <v>402.0485714285714</v>
+      </c>
+      <c r="L603" t="n">
+        <v>391.3585714285715</v>
+      </c>
+      <c r="M603" t="n">
+        <v>385.0561538461538</v>
+      </c>
+      <c r="N603" t="n">
+        <v>380.8166666666667</v>
+      </c>
+      <c r="O603" t="n">
+        <v>378.89</v>
+      </c>
+      <c r="P603" t="n">
+        <v>378.7322222222222</v>
+      </c>
+      <c r="Q603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>397.3866666666667</v>
+      </c>
+      <c r="C604" t="n">
+        <v>387.0733333333333</v>
+      </c>
+      <c r="D604" t="n">
+        <v>389.81</v>
+      </c>
+      <c r="E604" t="n">
+        <v>391.86</v>
+      </c>
+      <c r="F604" t="n">
+        <v>387.0233333333333</v>
+      </c>
+      <c r="G604" t="n">
+        <v>397.8645454545455</v>
+      </c>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr"/>
+      <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr"/>
+      <c r="P604" t="inlineStr"/>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>388.6233333333333</v>
+      </c>
+      <c r="C605" t="n">
+        <v>375.6766666666667</v>
+      </c>
+      <c r="D605" t="n">
+        <v>381.5057142857143</v>
+      </c>
+      <c r="E605" t="n">
+        <v>375.9146153846153</v>
+      </c>
+      <c r="F605" t="n">
+        <v>379.2366666666667</v>
+      </c>
+      <c r="G605" t="n">
+        <v>374.6518181818182</v>
+      </c>
+      <c r="H605" t="n">
+        <v>375.9446153846154</v>
+      </c>
+      <c r="I605" t="n">
+        <v>394.4546153846154</v>
+      </c>
+      <c r="J605" t="n">
+        <v>388.3633333333333</v>
+      </c>
+      <c r="K605" t="n">
+        <v>390.4357142857143</v>
+      </c>
+      <c r="L605" t="n">
+        <v>385.0957142857143</v>
+      </c>
+      <c r="M605" t="n">
+        <v>383.4246153846154</v>
+      </c>
+      <c r="N605" t="n">
+        <v>383.3066666666667</v>
+      </c>
+      <c r="O605" t="n">
+        <v>382.69</v>
+      </c>
+      <c r="P605" t="n">
+        <v>385.0622222222222</v>
+      </c>
+      <c r="Q605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31113,7 +31380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B616"/>
+  <dimension ref="A1:B621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37281,6 +37548,56 @@
       </c>
       <c r="B616" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -37454,28 +37771,28 @@
         <v>0.0352</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07109731264591254</v>
+        <v>-0.06764824064277013</v>
       </c>
       <c r="J2" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K2" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002887358690973785</v>
+        <v>0.002647101436303756</v>
       </c>
       <c r="M2" t="n">
-        <v>7.519785137385754</v>
+        <v>7.516958769207353</v>
       </c>
       <c r="N2" t="n">
-        <v>91.84932494412641</v>
+        <v>91.63988180261158</v>
       </c>
       <c r="O2" t="n">
-        <v>9.583805347779473</v>
+        <v>9.572872181462133</v>
       </c>
       <c r="P2" t="n">
-        <v>395.2007024197138</v>
+        <v>395.1650699666376</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37532,28 +37849,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1021290010972621</v>
+        <v>0.09631974535295323</v>
       </c>
       <c r="J3" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K3" t="n">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01053460468661527</v>
+        <v>0.009475617799233671</v>
       </c>
       <c r="M3" t="n">
-        <v>5.314455814455819</v>
+        <v>5.317392963704208</v>
       </c>
       <c r="N3" t="n">
-        <v>51.20893038780903</v>
+        <v>51.23714135668415</v>
       </c>
       <c r="O3" t="n">
-        <v>7.156041530609575</v>
+        <v>7.158012388693117</v>
       </c>
       <c r="P3" t="n">
-        <v>383.276714337873</v>
+        <v>383.3367835245527</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -37610,28 +37927,28 @@
         <v>0.0738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06933992564844671</v>
+        <v>0.06694118183286706</v>
       </c>
       <c r="J4" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K4" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005599233691892969</v>
+        <v>0.005277909527566904</v>
       </c>
       <c r="M4" t="n">
-        <v>4.868985608136455</v>
+        <v>4.877671913841135</v>
       </c>
       <c r="N4" t="n">
-        <v>45.1159467373598</v>
+        <v>45.07901871822187</v>
       </c>
       <c r="O4" t="n">
-        <v>6.716840532375307</v>
+        <v>6.714091056741923</v>
       </c>
       <c r="P4" t="n">
-        <v>387.4643807316039</v>
+        <v>387.4891012926649</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -37682,28 +37999,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1051420788598176</v>
+        <v>0.104384434786666</v>
       </c>
       <c r="J5" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K5" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01424368009971122</v>
+        <v>0.01401775792399607</v>
       </c>
       <c r="M5" t="n">
-        <v>4.676069125337249</v>
+        <v>4.711158724666688</v>
       </c>
       <c r="N5" t="n">
-        <v>40.50235925869508</v>
+        <v>40.96769253303807</v>
       </c>
       <c r="O5" t="n">
-        <v>6.364146388848631</v>
+        <v>6.400600950929379</v>
       </c>
       <c r="P5" t="n">
-        <v>388.143483972805</v>
+        <v>388.1514357588929</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -37760,28 +38077,28 @@
         <v>0.0615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1014511479705175</v>
+        <v>0.1003052524926729</v>
       </c>
       <c r="J6" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K6" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01202603417870207</v>
+        <v>0.01183217334340658</v>
       </c>
       <c r="M6" t="n">
-        <v>5.11450982160734</v>
+        <v>5.131989911194021</v>
       </c>
       <c r="N6" t="n">
-        <v>45.22583250141754</v>
+        <v>45.38057296934772</v>
       </c>
       <c r="O6" t="n">
-        <v>6.725015427596991</v>
+        <v>6.736510444536379</v>
       </c>
       <c r="P6" t="n">
-        <v>384.6569339782952</v>
+        <v>384.668713898599</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -37838,28 +38155,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01511087755735992</v>
+        <v>-0.01313833361257464</v>
       </c>
       <c r="J7" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K7" t="n">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000308309772756088</v>
+        <v>0.0002333471118988184</v>
       </c>
       <c r="M7" t="n">
-        <v>4.894473480351558</v>
+        <v>4.924203787345283</v>
       </c>
       <c r="N7" t="n">
-        <v>39.51331197602436</v>
+        <v>39.86690374783866</v>
       </c>
       <c r="O7" t="n">
-        <v>6.285961499724952</v>
+        <v>6.314024370228442</v>
       </c>
       <c r="P7" t="n">
-        <v>384.9234726380416</v>
+        <v>384.9033462806484</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -37916,28 +38233,28 @@
         <v>0.068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02178241764561193</v>
+        <v>0.01682098918319718</v>
       </c>
       <c r="J8" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K8" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007104867328955322</v>
+        <v>0.0004237004872224004</v>
       </c>
       <c r="M8" t="n">
-        <v>4.675196120858121</v>
+        <v>4.697144053597649</v>
       </c>
       <c r="N8" t="n">
-        <v>35.55202266074781</v>
+        <v>35.83852524409648</v>
       </c>
       <c r="O8" t="n">
-        <v>5.962551690404688</v>
+        <v>5.98652864722925</v>
       </c>
       <c r="P8" t="n">
-        <v>388.6592390430582</v>
+        <v>388.7102065014188</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37994,28 +38311,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01569524284444634</v>
+        <v>-0.01583392533085313</v>
       </c>
       <c r="J9" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K9" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003888219361095624</v>
+        <v>0.0003993051355801747</v>
       </c>
       <c r="M9" t="n">
-        <v>4.348278975021357</v>
+        <v>4.353719440364844</v>
       </c>
       <c r="N9" t="n">
-        <v>33.53691582612512</v>
+        <v>33.49294651807156</v>
       </c>
       <c r="O9" t="n">
-        <v>5.791106614985181</v>
+        <v>5.787309091285134</v>
       </c>
       <c r="P9" t="n">
-        <v>398.2510723789069</v>
+        <v>398.252517215687</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38072,28 +38389,28 @@
         <v>0.0813</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.007713799999254762</v>
+        <v>-0.0144111201908234</v>
       </c>
       <c r="J10" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K10" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L10" t="n">
-        <v>8.473587689872275e-05</v>
+        <v>0.0002968245954017013</v>
       </c>
       <c r="M10" t="n">
-        <v>4.554458600355543</v>
+        <v>4.568689760947892</v>
       </c>
       <c r="N10" t="n">
-        <v>37.78476694455929</v>
+        <v>37.93468640201802</v>
       </c>
       <c r="O10" t="n">
-        <v>6.146931506415156</v>
+        <v>6.159114092304024</v>
       </c>
       <c r="P10" t="n">
-        <v>398.5013705646227</v>
+        <v>398.5697273579486</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38150,28 +38467,28 @@
         <v>0.0746</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08073445820632975</v>
+        <v>-0.08485469888626339</v>
       </c>
       <c r="J11" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K11" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01009437930670243</v>
+        <v>0.01122285038637838</v>
       </c>
       <c r="M11" t="n">
-        <v>4.361807973506791</v>
+        <v>4.378181770987286</v>
       </c>
       <c r="N11" t="n">
-        <v>34.293069865264</v>
+        <v>34.30646131862846</v>
       </c>
       <c r="O11" t="n">
-        <v>5.856028506186083</v>
+        <v>5.857171784968275</v>
       </c>
       <c r="P11" t="n">
-        <v>397.620815764134</v>
+        <v>397.6628215941741</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38228,28 +38545,28 @@
         <v>0.0723</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1128278286962051</v>
+        <v>-0.1176541242113908</v>
       </c>
       <c r="J12" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K12" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01887572039157359</v>
+        <v>0.02073337240538331</v>
       </c>
       <c r="M12" t="n">
-        <v>4.448317317102097</v>
+        <v>4.448671580421173</v>
       </c>
       <c r="N12" t="n">
-        <v>35.55910154814411</v>
+        <v>35.40689753467448</v>
       </c>
       <c r="O12" t="n">
-        <v>5.963145273104128</v>
+        <v>5.950369529254001</v>
       </c>
       <c r="P12" t="n">
-        <v>392.6106068079393</v>
+        <v>392.6599826643173</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38306,28 +38623,28 @@
         <v>0.0674</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1092844497598512</v>
+        <v>-0.1136355384614489</v>
       </c>
       <c r="J13" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K13" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0140140660479009</v>
+        <v>0.01533160879684003</v>
       </c>
       <c r="M13" t="n">
-        <v>4.78127078787047</v>
+        <v>4.766699784413386</v>
       </c>
       <c r="N13" t="n">
-        <v>45.08273905730066</v>
+        <v>44.8284796378009</v>
       </c>
       <c r="O13" t="n">
-        <v>6.714368105585264</v>
+        <v>6.695407354134691</v>
       </c>
       <c r="P13" t="n">
-        <v>387.8683059057043</v>
+        <v>387.9130255410143</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38384,28 +38701,28 @@
         <v>0.0606</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.09519508419999084</v>
+        <v>-0.09947727186594679</v>
       </c>
       <c r="J14" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K14" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006837028602544315</v>
+        <v>0.007572106568143999</v>
       </c>
       <c r="M14" t="n">
-        <v>6.186110647998919</v>
+        <v>6.157320884392065</v>
       </c>
       <c r="N14" t="n">
-        <v>71.19730592142432</v>
+        <v>70.68943343214168</v>
       </c>
       <c r="O14" t="n">
-        <v>8.437849602915682</v>
+        <v>8.407700841023168</v>
       </c>
       <c r="P14" t="n">
-        <v>386.1617731242432</v>
+        <v>386.2054187551373</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38462,28 +38779,28 @@
         <v>0.0512</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.03533902607421638</v>
+        <v>-0.04131449165995061</v>
       </c>
       <c r="J15" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K15" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007674900834883092</v>
+        <v>0.001064981516123109</v>
       </c>
       <c r="M15" t="n">
-        <v>6.617987686905039</v>
+        <v>6.592019850252546</v>
       </c>
       <c r="N15" t="n">
-        <v>88.57526249433876</v>
+        <v>87.94182701739652</v>
       </c>
       <c r="O15" t="n">
-        <v>9.41144316746049</v>
+        <v>9.377730376663456</v>
       </c>
       <c r="P15" t="n">
-        <v>384.9674103303125</v>
+        <v>385.0277617776488</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -38540,28 +38857,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.005983184626803231</v>
+        <v>-0.0102838638264807</v>
       </c>
       <c r="J16" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K16" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L16" t="n">
-        <v>2.536933796892793e-05</v>
+        <v>7.619151663695867e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>6.700493161581651</v>
+        <v>6.666784319422883</v>
       </c>
       <c r="N16" t="n">
-        <v>76.04929666878706</v>
+        <v>75.494116516144</v>
       </c>
       <c r="O16" t="n">
-        <v>8.720624786607154</v>
+        <v>8.688735035443537</v>
       </c>
       <c r="P16" t="n">
-        <v>384.9144042464615</v>
+        <v>384.9576135873529</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -38599,7 +38916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q600"/>
+  <dimension ref="A1:Q605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83679,6 +83996,405 @@
         </is>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-36.62709702989947,174.75362143744795</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-36.6273394341391,174.75447526494173</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>-36.62744575179216,174.75534823895546</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>-36.627484597257585,174.75620913814598</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>-36.62758128763671,174.75708520598687</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>-36.62768731959473,174.75797585417843</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>-36.62767113898296,174.75886940077513</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>-36.62760396830728,174.7597281870505</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>-36.627530815643745,174.76055358268266</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>-36.62742959437797,174.76139011396006</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>-36.62719063263016,174.76219285486528</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>-36.62684793659106,174.76296052380707</t>
+        </is>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>-36.626464199371064,174.76371406206434</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>-36.626079171373966,174.76446696787417</t>
+        </is>
+      </c>
+      <c r="P601" t="inlineStr">
+        <is>
+          <t>-36.625640208550855,174.76517447880173</t>
+        </is>
+      </c>
+      <c r="Q601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-36.62721657158811,174.7535894146797</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-36.62746505433412,174.75444161470483</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-36.62757387627283,174.75532125945517</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-36.62762529531035,174.75619446365712</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-36.62773614544377,174.75707666445237</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-36.6277699751265,174.75797220368196</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>-36.62776581329752,174.75886719548936</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>-36.62769338251717,174.75973614733675</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>-36.6276299378723,174.76058002552614</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>-36.6274532191889,174.76140111591576</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>-36.627189289956895,174.76219193937453</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>-36.62687743590619,174.76298416824073</t>
+        </is>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>-36.62648340693488,174.76373031914048</t>
+        </is>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>-36.62606660555823,174.7644557071445</t>
+        </is>
+      </c>
+      <c r="P602" t="inlineStr">
+        <is>
+          <t>-36.62562136273202,174.76515689202606</t>
+        </is>
+      </c>
+      <c r="Q602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-36.627005560387616,174.75364594019197</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-36.62732299016713,174.75447966982733</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-36.62743832630938,174.7553498025559</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-36.627489888891596,174.7562085862413</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.6275595295143,174.75708640610387</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-36.62764759253739,174.7579776087296</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-36.627637071755444,174.75887019431622</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-36.627572139862814,174.7597253534625</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-36.627507349372586,174.760547322595</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>-36.62733589065091,174.76134647668007</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>-36.6271393289657,174.76215787391035</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>-36.62682590235774,174.76294286283658</t>
+        </is>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>-36.62646660652067,174.76371609944943</t>
+        </is>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>-36.62608070557233,174.76446834273096</t>
+        </is>
+      </c>
+      <c r="P603" t="inlineStr">
+        <is>
+          <t>-36.62565793402115,174.7651910200869</t>
+        </is>
+      </c>
+      <c r="Q603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-36.627098997301445,174.75362091042206</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-36.62735015208503,174.7544723938993</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-36.62748425006406,174.75534013228432</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-36.62756017229103,174.7562012558462</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-36.627643740950404,174.75708176123493</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-36.62758661003016,174.75798030202884</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr"/>
+      <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr"/>
+      <c r="P604" t="inlineStr"/>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-36.627176195803756,174.7536002305353</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-36.62745054840274,174.754445500455</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-36.62755803524366,174.75532459514574</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-36.6277033710879,174.75618632051135</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-36.62771384712022,174.75707789436842</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-36.62779567653433,174.7579710685738</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-36.62781189242752,174.75886612214993</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-36.62766276414905,174.7597334214702</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-36.62762189061617,174.76057787875627</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>-36.62743387336168,174.7613921066607</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>-36.627188793506264,174.7621916008738</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>-36.62683825294182,174.76295276212667</t>
+        </is>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>-36.62644806898609,174.7637004094873</t>
+        </is>
+      </c>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>-36.6260529438851,174.7644434643786</t>
+        </is>
+      </c>
+      <c r="P605" t="inlineStr">
+        <is>
+          <t>-36.62561234394636,174.7651484757675</t>
+        </is>
+      </c>
+      <c r="Q605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q605"/>
+  <dimension ref="A1:Q606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31369,6 +31369,63 @@
         </is>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>399.7866666666667</v>
+      </c>
+      <c r="C606" t="n">
+        <v>391.0233333333333</v>
+      </c>
+      <c r="D606" t="n">
+        <v>393.7071428571429</v>
+      </c>
+      <c r="E606" t="n">
+        <v>395.3630769230769</v>
+      </c>
+      <c r="F606" t="n">
+        <v>388.7633333333333</v>
+      </c>
+      <c r="G606" t="n">
+        <v>389.0954545454546</v>
+      </c>
+      <c r="H606" t="n">
+        <v>393.8930769230769</v>
+      </c>
+      <c r="I606" t="n">
+        <v>398.6930769230769</v>
+      </c>
+      <c r="J606" t="n">
+        <v>397.3366666666667</v>
+      </c>
+      <c r="K606" t="n">
+        <v>395.0271428571429</v>
+      </c>
+      <c r="L606" t="n">
+        <v>388.0071428571428</v>
+      </c>
+      <c r="M606" t="n">
+        <v>382.6230769230769</v>
+      </c>
+      <c r="N606" t="n">
+        <v>376.8633333333333</v>
+      </c>
+      <c r="O606" t="n">
+        <v>371.77</v>
+      </c>
+      <c r="P606" t="n">
+        <v>372.4011111111111</v>
+      </c>
+      <c r="Q606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31380,7 +31437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B621"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37598,6 +37655,16 @@
       </c>
       <c r="B621" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -37771,28 +37838,28 @@
         <v>0.0352</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06764824064277013</v>
+        <v>-0.0651536958409933</v>
       </c>
       <c r="J2" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K2" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002647101436303756</v>
+        <v>0.002463589694936763</v>
       </c>
       <c r="M2" t="n">
-        <v>7.516958769207353</v>
+        <v>7.513443505957039</v>
       </c>
       <c r="N2" t="n">
-        <v>91.63988180261158</v>
+        <v>91.53484638366156</v>
       </c>
       <c r="O2" t="n">
-        <v>9.572872181462133</v>
+        <v>9.56738451112223</v>
       </c>
       <c r="P2" t="n">
-        <v>395.1650699666376</v>
+        <v>395.1392286839671</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37849,28 +37916,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09631974535295323</v>
+        <v>0.09842969221766995</v>
       </c>
       <c r="J3" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K3" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009475617799233671</v>
+        <v>0.009921347593988772</v>
       </c>
       <c r="M3" t="n">
-        <v>5.317392963704208</v>
+        <v>5.318503601054265</v>
       </c>
       <c r="N3" t="n">
-        <v>51.23714135668415</v>
+        <v>51.18623521217241</v>
       </c>
       <c r="O3" t="n">
-        <v>7.158012388693117</v>
+        <v>7.154455619554321</v>
       </c>
       <c r="P3" t="n">
-        <v>383.3367835245527</v>
+        <v>383.3149217225316</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -37927,28 +37994,28 @@
         <v>0.0738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06694118183286706</v>
+        <v>0.0687053049923088</v>
       </c>
       <c r="J4" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005277909527566904</v>
+        <v>0.005575507810144376</v>
       </c>
       <c r="M4" t="n">
-        <v>4.877671913841135</v>
+        <v>4.87664804040467</v>
       </c>
       <c r="N4" t="n">
-        <v>45.07901871822187</v>
+        <v>45.02774359054076</v>
       </c>
       <c r="O4" t="n">
-        <v>6.714091056741923</v>
+        <v>6.710271499018558</v>
       </c>
       <c r="P4" t="n">
-        <v>387.4891012926649</v>
+        <v>387.4709048598311</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -37999,28 +38066,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.104384434786666</v>
+        <v>0.1061316407805263</v>
       </c>
       <c r="J5" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K5" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01401775792399607</v>
+        <v>0.01452587580986242</v>
       </c>
       <c r="M5" t="n">
-        <v>4.711158724666688</v>
+        <v>4.710285899319775</v>
       </c>
       <c r="N5" t="n">
-        <v>40.96769253303807</v>
+        <v>40.92553785078424</v>
       </c>
       <c r="O5" t="n">
-        <v>6.400600950929379</v>
+        <v>6.397307078043404</v>
       </c>
       <c r="P5" t="n">
-        <v>388.1514357588929</v>
+        <v>388.1333359231484</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38077,28 +38144,28 @@
         <v>0.0615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1003052524926729</v>
+        <v>0.1008802782179036</v>
       </c>
       <c r="J6" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K6" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01183217334340658</v>
+        <v>0.01201178155374327</v>
       </c>
       <c r="M6" t="n">
-        <v>5.131989911194021</v>
+        <v>5.125035191710805</v>
       </c>
       <c r="N6" t="n">
-        <v>45.38057296934772</v>
+        <v>45.29364067685467</v>
       </c>
       <c r="O6" t="n">
-        <v>6.736510444536379</v>
+        <v>6.730055027773151</v>
       </c>
       <c r="P6" t="n">
-        <v>384.668713898599</v>
+        <v>384.6628125884986</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38155,28 +38222,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01313833361257464</v>
+        <v>-0.01139296119881641</v>
       </c>
       <c r="J7" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K7" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002333471118988184</v>
+        <v>0.0001759949579561715</v>
       </c>
       <c r="M7" t="n">
-        <v>4.924203787345283</v>
+        <v>4.923729201962993</v>
       </c>
       <c r="N7" t="n">
-        <v>39.86690374783866</v>
+        <v>39.82758806573819</v>
       </c>
       <c r="O7" t="n">
-        <v>6.314024370228442</v>
+        <v>6.31091024066562</v>
       </c>
       <c r="P7" t="n">
-        <v>384.9033462806484</v>
+        <v>384.8854755745359</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38233,28 +38300,28 @@
         <v>0.068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01682098918319718</v>
+        <v>0.01863312464585827</v>
       </c>
       <c r="J8" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K8" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004237004872224004</v>
+        <v>0.0005212471111938344</v>
       </c>
       <c r="M8" t="n">
-        <v>4.697144053597649</v>
+        <v>4.697360463813619</v>
       </c>
       <c r="N8" t="n">
-        <v>35.83852524409648</v>
+        <v>35.81163725917634</v>
       </c>
       <c r="O8" t="n">
-        <v>5.98652864722925</v>
+        <v>5.984282518328855</v>
       </c>
       <c r="P8" t="n">
-        <v>388.7102065014188</v>
+        <v>388.6915631392434</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38311,28 +38378,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01583392533085313</v>
+        <v>-0.01550818249200706</v>
       </c>
       <c r="J9" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K9" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003993051355801747</v>
+        <v>0.0003845388176300091</v>
       </c>
       <c r="M9" t="n">
-        <v>4.353719440364844</v>
+        <v>4.346364177078649</v>
       </c>
       <c r="N9" t="n">
-        <v>33.49294651807156</v>
+        <v>33.42686434187316</v>
       </c>
       <c r="O9" t="n">
-        <v>5.787309091285134</v>
+        <v>5.781597040772832</v>
       </c>
       <c r="P9" t="n">
-        <v>398.252517215687</v>
+        <v>398.2491452818633</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38389,28 +38456,28 @@
         <v>0.0813</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0144111201908234</v>
+        <v>-0.01474347372178038</v>
       </c>
       <c r="J10" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K10" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002968245954017013</v>
+        <v>0.0003118922354451437</v>
       </c>
       <c r="M10" t="n">
-        <v>4.568689760947892</v>
+        <v>4.561235411136273</v>
       </c>
       <c r="N10" t="n">
-        <v>37.93468640201802</v>
+        <v>37.85861903449917</v>
       </c>
       <c r="O10" t="n">
-        <v>6.159114092304024</v>
+        <v>6.152935806141583</v>
       </c>
       <c r="P10" t="n">
-        <v>398.5697273579486</v>
+        <v>398.5731275674739</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38467,28 +38534,28 @@
         <v>0.0746</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08485469888626339</v>
+        <v>-0.08502885069291939</v>
       </c>
       <c r="J11" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K11" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01122285038637838</v>
+        <v>0.01131311337538232</v>
       </c>
       <c r="M11" t="n">
-        <v>4.378181770987286</v>
+        <v>4.370283144368544</v>
       </c>
       <c r="N11" t="n">
-        <v>34.30646131862846</v>
+        <v>34.23656984986332</v>
       </c>
       <c r="O11" t="n">
-        <v>5.857171784968275</v>
+        <v>5.851202427694954</v>
       </c>
       <c r="P11" t="n">
-        <v>397.6628215941741</v>
+        <v>397.6646033523747</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38545,28 +38612,28 @@
         <v>0.0723</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1176541242113908</v>
+        <v>-0.1182804170954871</v>
       </c>
       <c r="J12" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K12" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02073337240538331</v>
+        <v>0.02102830877426443</v>
       </c>
       <c r="M12" t="n">
-        <v>4.448671580421173</v>
+        <v>4.443410458711968</v>
       </c>
       <c r="N12" t="n">
-        <v>35.40689753467448</v>
+        <v>35.33940772455538</v>
       </c>
       <c r="O12" t="n">
-        <v>5.950369529254001</v>
+        <v>5.944695763834797</v>
       </c>
       <c r="P12" t="n">
-        <v>392.6599826643173</v>
+        <v>392.6664108226335</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38623,28 +38690,28 @@
         <v>0.0674</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1136355384614489</v>
+        <v>-0.1145407432031759</v>
       </c>
       <c r="J13" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K13" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01533160879684003</v>
+        <v>0.01562893557460043</v>
       </c>
       <c r="M13" t="n">
-        <v>4.766699784413386</v>
+        <v>4.762076964957644</v>
       </c>
       <c r="N13" t="n">
-        <v>44.8284796378009</v>
+        <v>44.74779959794486</v>
       </c>
       <c r="O13" t="n">
-        <v>6.695407354134691</v>
+        <v>6.689379612336622</v>
       </c>
       <c r="P13" t="n">
-        <v>387.9130255410143</v>
+        <v>387.9223615609903</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38701,28 +38768,28 @@
         <v>0.0606</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.09947727186594679</v>
+        <v>-0.1021100068205889</v>
       </c>
       <c r="J14" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K14" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007572106568143999</v>
+        <v>0.007995848588565502</v>
       </c>
       <c r="M14" t="n">
-        <v>6.157320884392065</v>
+        <v>6.158540398998759</v>
       </c>
       <c r="N14" t="n">
-        <v>70.68943343214168</v>
+        <v>70.63738602568226</v>
       </c>
       <c r="O14" t="n">
-        <v>8.407700841023168</v>
+        <v>8.40460504876239</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2054187551373</v>
+        <v>386.2323440303494</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38779,28 +38846,28 @@
         <v>0.0512</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04131449165995061</v>
+        <v>-0.04625878353356394</v>
       </c>
       <c r="J15" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K15" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001064981516123109</v>
+        <v>0.001335525834437523</v>
       </c>
       <c r="M15" t="n">
-        <v>6.592019850252546</v>
+        <v>6.603981695618919</v>
       </c>
       <c r="N15" t="n">
-        <v>87.94182701739652</v>
+        <v>88.07120736558225</v>
       </c>
       <c r="O15" t="n">
-        <v>9.377730376663456</v>
+        <v>9.384626117517003</v>
       </c>
       <c r="P15" t="n">
-        <v>385.0277617776488</v>
+        <v>385.0778624562088</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -38857,28 +38924,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0102838638264807</v>
+        <v>-0.01544151844071484</v>
       </c>
       <c r="J16" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K16" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L16" t="n">
-        <v>7.619151663695867e-05</v>
+        <v>0.0001717835713080929</v>
       </c>
       <c r="M16" t="n">
-        <v>6.666784319422883</v>
+        <v>6.680106081183156</v>
       </c>
       <c r="N16" t="n">
-        <v>75.494116516144</v>
+        <v>75.65626413757465</v>
       </c>
       <c r="O16" t="n">
-        <v>8.688735035443537</v>
+        <v>8.698060941242861</v>
       </c>
       <c r="P16" t="n">
-        <v>384.9576135873529</v>
+        <v>385.0095966874399</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -38916,7 +38983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q605"/>
+  <dimension ref="A1:Q606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41279,7 +41346,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-36.627198880480094,174.76219847859483</t>
+          <t>-36.62719888048009,174.76219847859483</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -41299,7 +41366,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-36.62566315963334,174.76519589659367</t>
+          <t>-36.62566315963335,174.76519589659367</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -41608,7 +41675,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-36.627688618276984,174.75973572318978</t>
+          <t>-36.62768861827699,174.75973572318978</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -42955,7 +43022,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-36.62701501315297,174.762073110491</t>
+          <t>-36.62701501315298,174.762073110491</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -45514,7 +45581,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-36.62761081607723,174.75887080589982</t>
+          <t>-36.62761081607724,174.75887080589982</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -46896,7 +46963,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-36.62773620981298,174.75886788505494</t>
+          <t>-36.62773620981297,174.75886788505494</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -53487,7 +53554,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-36.62685368389191,174.76296513040967</t>
+          <t>-36.6268536838919,174.76296513040967</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -59509,7 +59576,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>-36.62759289614205,174.75619784282097</t>
+          <t>-36.62759289614204,174.75619784282097</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -68392,7 +68459,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>-36.62766216297899,174.75886960985667</t>
+          <t>-36.627662162978986,174.75886960985665</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -71850,7 +71917,7 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>-36.62681396520578,174.76293329492606</t>
+          <t>-36.62681396520577,174.76293329492606</t>
         </is>
       </c>
       <c r="N446" t="inlineStr">
@@ -74301,7 +74368,7 @@
       </c>
       <c r="P478" t="inlineStr">
         <is>
-          <t>-36.625577965321646,174.765116393934</t>
+          <t>-36.62557796532164,174.765116393934</t>
         </is>
       </c>
       <c r="Q478" t="inlineStr">
@@ -75559,7 +75626,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>-36.62766060344161,174.75886964618357</t>
+          <t>-36.62766060344162,174.75886964618357</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -80785,7 +80852,7 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>-36.62758103218949,174.75972614511855</t>
+          <t>-36.6275810321895,174.75972614511855</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
@@ -84395,6 +84462,93 @@
         </is>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-36.62707785507122,174.7536265739827</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-36.627315355465804,174.75448171495222</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-36.627449623197684,174.75534742374492</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-36.627528712629164,174.75620453701708</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-36.627628075102436,174.7570826253201</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-36.627665589254654,174.7579768139021</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-36.62765016493813,174.75886988933166</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-36.627624664056476,174.75973002953066</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>-36.62754282778986,174.7605567871597</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>-36.62739513349074,174.76137406571172</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>-36.62716579881474,174.76217592213848</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>-36.62684432050805,174.76295762542827</t>
+        </is>
+      </c>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>-36.62649603826425,174.76374101016788</t>
+        </is>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>-36.62613272219173,174.7645149569555</t>
+        </is>
+      </c>
+      <c r="P606" t="inlineStr">
+        <is>
+          <t>-36.62570353208152,174.7652335719248</t>
+        </is>
+      </c>
+      <c r="Q606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q606"/>
+  <dimension ref="A1:Q607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31426,6 +31426,63 @@
         </is>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="C607" t="n">
+        <v>382.76</v>
+      </c>
+      <c r="D607" t="n">
+        <v>383.3528571428572</v>
+      </c>
+      <c r="E607" t="n">
+        <v>389.34</v>
+      </c>
+      <c r="F607" t="n">
+        <v>382.7</v>
+      </c>
+      <c r="G607" t="n">
+        <v>381.7118181818182</v>
+      </c>
+      <c r="H607" t="n">
+        <v>384.26</v>
+      </c>
+      <c r="I607" t="n">
+        <v>397.76</v>
+      </c>
+      <c r="J607" t="n">
+        <v>395.12</v>
+      </c>
+      <c r="K607" t="n">
+        <v>396.9228571428571</v>
+      </c>
+      <c r="L607" t="n">
+        <v>391.1828571428572</v>
+      </c>
+      <c r="M607" t="n">
+        <v>385.28</v>
+      </c>
+      <c r="N607" t="n">
+        <v>388.77</v>
+      </c>
+      <c r="O607" t="n">
+        <v>384.55</v>
+      </c>
+      <c r="P607" t="n">
+        <v>387.7533333333333</v>
+      </c>
+      <c r="Q607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31437,7 +31494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B622"/>
+  <dimension ref="A1:B623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37665,6 +37722,16 @@
       </c>
       <c r="B622" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -37838,28 +37905,28 @@
         <v>0.0352</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0651536958409933</v>
+        <v>-0.06502019225689723</v>
       </c>
       <c r="J2" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K2" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002463589694936763</v>
+        <v>0.002463331645933931</v>
       </c>
       <c r="M2" t="n">
-        <v>7.513443505957039</v>
+        <v>7.498741766290107</v>
       </c>
       <c r="N2" t="n">
-        <v>91.53484638366156</v>
+        <v>91.34827785693443</v>
       </c>
       <c r="O2" t="n">
-        <v>9.56738451112223</v>
+        <v>9.557629301083738</v>
       </c>
       <c r="P2" t="n">
-        <v>395.1392286839671</v>
+        <v>395.1378442125161</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37916,28 +37983,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09842969221766995</v>
+        <v>0.09717987073315205</v>
       </c>
       <c r="J3" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K3" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009921347593988772</v>
+        <v>0.009709623657631949</v>
       </c>
       <c r="M3" t="n">
-        <v>5.318503601054265</v>
+        <v>5.313024367836584</v>
       </c>
       <c r="N3" t="n">
-        <v>51.18623521217241</v>
+        <v>51.09924569045986</v>
       </c>
       <c r="O3" t="n">
-        <v>7.154455619554321</v>
+        <v>7.148373639539266</v>
       </c>
       <c r="P3" t="n">
-        <v>383.3149217225316</v>
+        <v>383.3278852364508</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -37994,28 +38061,28 @@
         <v>0.0738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0687053049923088</v>
+        <v>0.06640095000712053</v>
       </c>
       <c r="J4" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K4" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005575507810144376</v>
+        <v>0.005222445361505068</v>
       </c>
       <c r="M4" t="n">
-        <v>4.87664804040467</v>
+        <v>4.878953414731334</v>
       </c>
       <c r="N4" t="n">
-        <v>45.02774359054076</v>
+        <v>45.00620017299142</v>
       </c>
       <c r="O4" t="n">
-        <v>6.710271499018558</v>
+        <v>6.708666050191455</v>
       </c>
       <c r="P4" t="n">
-        <v>387.4709048598311</v>
+        <v>387.4946992716474</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38066,28 +38133,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1061316407805263</v>
+        <v>0.1055417487066853</v>
       </c>
       <c r="J5" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K5" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01452587580986242</v>
+        <v>0.0144211516319559</v>
       </c>
       <c r="M5" t="n">
-        <v>4.710285899319775</v>
+        <v>4.703956414755995</v>
       </c>
       <c r="N5" t="n">
-        <v>40.92553785078424</v>
+        <v>40.84693802509611</v>
       </c>
       <c r="O5" t="n">
-        <v>6.397307078043404</v>
+        <v>6.391160929369257</v>
       </c>
       <c r="P5" t="n">
-        <v>388.1333359231484</v>
+        <v>388.1394535048998</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38144,28 +38211,28 @@
         <v>0.0615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1008802782179036</v>
+        <v>0.09914635916485243</v>
       </c>
       <c r="J6" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K6" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01201178155374327</v>
+        <v>0.01164139211987758</v>
       </c>
       <c r="M6" t="n">
-        <v>5.125035191710805</v>
+        <v>5.122801441177017</v>
       </c>
       <c r="N6" t="n">
-        <v>45.29364067685467</v>
+        <v>45.24420671890913</v>
       </c>
       <c r="O6" t="n">
-        <v>6.730055027773151</v>
+        <v>6.726381398561126</v>
       </c>
       <c r="P6" t="n">
-        <v>384.6628125884986</v>
+        <v>384.6806268523333</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38222,28 +38289,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01139296119881641</v>
+        <v>-0.01249799197732874</v>
       </c>
       <c r="J7" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K7" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001759949579561715</v>
+        <v>0.0002125364944656205</v>
       </c>
       <c r="M7" t="n">
-        <v>4.923729201962993</v>
+        <v>4.919371545989135</v>
       </c>
       <c r="N7" t="n">
-        <v>39.82758806573819</v>
+        <v>39.76390947609176</v>
       </c>
       <c r="O7" t="n">
-        <v>6.31091024066562</v>
+        <v>6.305863103183557</v>
       </c>
       <c r="P7" t="n">
-        <v>384.8854755745359</v>
+        <v>384.8968021801322</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38300,28 +38367,28 @@
         <v>0.068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01863312464585827</v>
+        <v>0.01676578363834225</v>
       </c>
       <c r="J8" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K8" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005212471111938344</v>
+        <v>0.0004231338922807693</v>
       </c>
       <c r="M8" t="n">
-        <v>4.697360463813619</v>
+        <v>4.697618800359418</v>
       </c>
       <c r="N8" t="n">
-        <v>35.81163725917634</v>
+        <v>35.78799242003649</v>
       </c>
       <c r="O8" t="n">
-        <v>5.984282518328855</v>
+        <v>5.982306613676408</v>
       </c>
       <c r="P8" t="n">
-        <v>388.6915631392434</v>
+        <v>388.7107953875397</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38378,28 +38445,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01550818249200706</v>
+        <v>-0.01554219742264634</v>
       </c>
       <c r="J9" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K9" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003845388176300091</v>
+        <v>0.0003877380688506182</v>
       </c>
       <c r="M9" t="n">
-        <v>4.346364177078649</v>
+        <v>4.337826995148673</v>
       </c>
       <c r="N9" t="n">
-        <v>33.42686434187316</v>
+        <v>33.35962290182861</v>
       </c>
       <c r="O9" t="n">
-        <v>5.781597040772832</v>
+        <v>5.775778986580824</v>
       </c>
       <c r="P9" t="n">
-        <v>398.2491452818633</v>
+        <v>398.24949777188</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38456,28 +38523,28 @@
         <v>0.0813</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01474347372178038</v>
+        <v>-0.01592428513802006</v>
       </c>
       <c r="J10" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K10" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003118922354451437</v>
+        <v>0.0003650895952439503</v>
       </c>
       <c r="M10" t="n">
-        <v>4.561235411136273</v>
+        <v>4.558608401874645</v>
       </c>
       <c r="N10" t="n">
-        <v>37.85861903449917</v>
+        <v>37.80050944320199</v>
       </c>
       <c r="O10" t="n">
-        <v>6.152935806141583</v>
+        <v>6.148211889907666</v>
       </c>
       <c r="P10" t="n">
-        <v>398.5731275674739</v>
+        <v>398.5852214416674</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38534,28 +38601,28 @@
         <v>0.0746</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08502885069291939</v>
+        <v>-0.08446638677081054</v>
       </c>
       <c r="J11" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K11" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01131311337538232</v>
+        <v>0.01120843856203291</v>
       </c>
       <c r="M11" t="n">
-        <v>4.370283144368544</v>
+        <v>4.363800187894285</v>
       </c>
       <c r="N11" t="n">
-        <v>34.23656984986332</v>
+        <v>34.17084400971086</v>
       </c>
       <c r="O11" t="n">
-        <v>5.851202427694954</v>
+        <v>5.845583290802626</v>
       </c>
       <c r="P11" t="n">
-        <v>397.6646033523747</v>
+        <v>397.6588424458442</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38612,28 +38679,28 @@
         <v>0.0723</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1182804170954871</v>
+        <v>-0.1176761267903483</v>
       </c>
       <c r="J12" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K12" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02102830877426443</v>
+        <v>0.02089611062592422</v>
       </c>
       <c r="M12" t="n">
-        <v>4.443410458711968</v>
+        <v>4.436949159573381</v>
       </c>
       <c r="N12" t="n">
-        <v>35.33940772455538</v>
+        <v>35.27186424475992</v>
       </c>
       <c r="O12" t="n">
-        <v>5.944695763834797</v>
+        <v>5.939012059657727</v>
       </c>
       <c r="P12" t="n">
-        <v>392.6664108226335</v>
+        <v>392.6602016043914</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38690,28 +38757,28 @@
         <v>0.0674</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1145407432031759</v>
+        <v>-0.1144210428171574</v>
       </c>
       <c r="J13" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K13" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01562893557460043</v>
+        <v>0.01565642120307409</v>
       </c>
       <c r="M13" t="n">
-        <v>4.762076964957644</v>
+        <v>4.752914757382642</v>
       </c>
       <c r="N13" t="n">
-        <v>44.74779959794486</v>
+        <v>44.6563032077989</v>
       </c>
       <c r="O13" t="n">
-        <v>6.689379612336622</v>
+        <v>6.682537183420598</v>
       </c>
       <c r="P13" t="n">
-        <v>387.9223615609903</v>
+        <v>387.9211256210912</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38768,28 +38835,28 @@
         <v>0.0606</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1021100068205889</v>
+        <v>-0.1001084913680615</v>
       </c>
       <c r="J14" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K14" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007995848588565502</v>
+        <v>0.0077121583822366</v>
       </c>
       <c r="M14" t="n">
-        <v>6.158540398998759</v>
+        <v>6.156482663342162</v>
       </c>
       <c r="N14" t="n">
-        <v>70.63738602568226</v>
+        <v>70.54600947934289</v>
       </c>
       <c r="O14" t="n">
-        <v>8.40460504876239</v>
+        <v>8.399167189629154</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2323440303494</v>
+        <v>386.2118513625184</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38846,28 +38913,28 @@
         <v>0.0512</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04625878353356394</v>
+        <v>-0.04598992385777795</v>
       </c>
       <c r="J15" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K15" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001335525834437523</v>
+        <v>0.001325576785346727</v>
       </c>
       <c r="M15" t="n">
-        <v>6.603981695618919</v>
+        <v>6.59115569394048</v>
       </c>
       <c r="N15" t="n">
-        <v>88.07120736558225</v>
+        <v>87.88194017970633</v>
       </c>
       <c r="O15" t="n">
-        <v>9.384626117517003</v>
+        <v>9.374536798141353</v>
       </c>
       <c r="P15" t="n">
-        <v>385.0778624562088</v>
+        <v>385.0751350501665</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -38924,28 +38991,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01544151844071484</v>
+        <v>-0.01412893197136186</v>
       </c>
       <c r="J16" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K16" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001717835713080929</v>
+        <v>0.0001444198892706083</v>
       </c>
       <c r="M16" t="n">
-        <v>6.680106081183156</v>
+        <v>6.672108803983053</v>
       </c>
       <c r="N16" t="n">
-        <v>75.65626413757465</v>
+        <v>75.51342748111823</v>
       </c>
       <c r="O16" t="n">
-        <v>8.698060941242861</v>
+        <v>8.689846228853433</v>
       </c>
       <c r="P16" t="n">
-        <v>385.0095966874399</v>
+        <v>384.9963532328237</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -38983,7 +39050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q606"/>
+  <dimension ref="A1:Q607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84549,6 +84616,93 @@
         </is>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-36.62713059318945,174.75361244654</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-36.62738814940515,174.75446221545798</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-36.62754162302343,174.7553280511123</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-36.62758280335204,174.75619889547687</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-36.62768266548057,174.7570796142638</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-36.62773209031776,174.7579738768719</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-36.62773696532217,174.75886786745656</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>-36.62763305160865,174.75973077624948</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>-36.627562358540594,174.76056199737522</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>-36.627379138527445,174.76136661694952</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>-36.62714071677116,174.76215882017263</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>-36.6268242078645,174.76294150465984</t>
+        </is>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>-36.626407395592175,174.76366598401492</t>
+        </is>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>-36.626039355267665,174.7644312870864</t>
+        </is>
+      </c>
+      <c r="P607" t="inlineStr">
+        <is>
+          <t>-36.62559296195754,174.76513038865951</t>
+        </is>
+      </c>
+      <c r="Q607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q607"/>
+  <dimension ref="A1:Q609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31483,6 +31483,88 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="n">
+        <v>405.21</v>
+      </c>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr"/>
+      <c r="N608" t="n">
+        <v>426.23</v>
+      </c>
+      <c r="O608" t="n">
+        <v>386.05</v>
+      </c>
+      <c r="P608" t="inlineStr"/>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="n">
+        <v>378.4092307692308</v>
+      </c>
+      <c r="F609" t="n">
+        <v>379.1466666666667</v>
+      </c>
+      <c r="G609" t="n">
+        <v>371.5063636363636</v>
+      </c>
+      <c r="H609" t="n">
+        <v>372.7592307692308</v>
+      </c>
+      <c r="I609" t="n">
+        <v>386.7592307692308</v>
+      </c>
+      <c r="J609" t="n">
+        <v>385.9233333333333</v>
+      </c>
+      <c r="K609" t="n">
+        <v>382.1985714285714</v>
+      </c>
+      <c r="L609" t="n">
+        <v>380.0485714285714</v>
+      </c>
+      <c r="M609" t="n">
+        <v>373.8592307692308</v>
+      </c>
+      <c r="N609" t="inlineStr"/>
+      <c r="O609" t="n">
+        <v>362.83</v>
+      </c>
+      <c r="P609" t="n">
+        <v>365.6688888888889</v>
+      </c>
+      <c r="Q609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31494,7 +31576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B623"/>
+  <dimension ref="A1:B625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37732,6 +37814,26 @@
       </c>
       <c r="B623" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -37908,7 +38010,7 @@
         <v>-0.06502019225689723</v>
       </c>
       <c r="J2" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K2" t="n">
         <v>490</v>
@@ -37986,7 +38088,7 @@
         <v>0.09717987073315205</v>
       </c>
       <c r="J3" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K3" t="n">
         <v>479</v>
@@ -38064,7 +38166,7 @@
         <v>0.06640095000712053</v>
       </c>
       <c r="J4" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K4" t="n">
         <v>489</v>
@@ -38133,28 +38235,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1055417487066853</v>
+        <v>0.100719254670658</v>
       </c>
       <c r="J5" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K5" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0144211516319559</v>
+        <v>0.01310242356781122</v>
       </c>
       <c r="M5" t="n">
-        <v>4.703956414755995</v>
+        <v>4.720723161747647</v>
       </c>
       <c r="N5" t="n">
-        <v>40.84693802509611</v>
+        <v>41.07783939197928</v>
       </c>
       <c r="O5" t="n">
-        <v>6.391160929369257</v>
+        <v>6.409199590586899</v>
       </c>
       <c r="P5" t="n">
-        <v>388.1394535048998</v>
+        <v>388.1897384779023</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38211,28 +38313,28 @@
         <v>0.0615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09914635916485243</v>
+        <v>0.1028576823332804</v>
       </c>
       <c r="J6" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K6" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01164139211987758</v>
+        <v>0.0124042095470297</v>
       </c>
       <c r="M6" t="n">
-        <v>5.122801441177017</v>
+        <v>5.156871298392738</v>
       </c>
       <c r="N6" t="n">
-        <v>45.24420671890913</v>
+        <v>45.84005168712762</v>
       </c>
       <c r="O6" t="n">
-        <v>6.726381398561126</v>
+        <v>6.770528168992993</v>
       </c>
       <c r="P6" t="n">
-        <v>384.6806268523333</v>
+        <v>384.6424411399969</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38289,28 +38391,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01249799197732874</v>
+        <v>-0.01753491467655548</v>
       </c>
       <c r="J7" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K7" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002125364944656205</v>
+        <v>0.000416386907134636</v>
       </c>
       <c r="M7" t="n">
-        <v>4.919371545989135</v>
+        <v>4.934537794497216</v>
       </c>
       <c r="N7" t="n">
-        <v>39.76390947609176</v>
+        <v>40.02536627907121</v>
       </c>
       <c r="O7" t="n">
-        <v>6.305863103183557</v>
+        <v>6.326560382946741</v>
       </c>
       <c r="P7" t="n">
-        <v>384.8968021801322</v>
+        <v>384.9487092282333</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38367,28 +38469,28 @@
         <v>0.068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01676578363834225</v>
+        <v>0.01050778091750134</v>
       </c>
       <c r="J8" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K8" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004231338922807693</v>
+        <v>0.0001644579957487124</v>
       </c>
       <c r="M8" t="n">
-        <v>4.697618800359418</v>
+        <v>4.720496318382995</v>
       </c>
       <c r="N8" t="n">
-        <v>35.78799242003649</v>
+        <v>36.24930677963066</v>
       </c>
       <c r="O8" t="n">
-        <v>5.982306613676408</v>
+        <v>6.020739720302702</v>
       </c>
       <c r="P8" t="n">
-        <v>388.7107953875397</v>
+        <v>388.7755965268832</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38445,28 +38547,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01554219742264634</v>
+        <v>-0.01980134760766622</v>
       </c>
       <c r="J9" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K9" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003877380688506182</v>
+        <v>0.0006270896656102032</v>
       </c>
       <c r="M9" t="n">
-        <v>4.337826995148673</v>
+        <v>4.354889543135471</v>
       </c>
       <c r="N9" t="n">
-        <v>33.35962290182861</v>
+        <v>33.53801956420974</v>
       </c>
       <c r="O9" t="n">
-        <v>5.775778986580824</v>
+        <v>5.791201910157316</v>
       </c>
       <c r="P9" t="n">
-        <v>398.24949777188</v>
+        <v>398.2938731000091</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38523,28 +38625,28 @@
         <v>0.0813</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01592428513802006</v>
+        <v>-0.020653186067941</v>
       </c>
       <c r="J10" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K10" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003650895952439503</v>
+        <v>0.0006115111582097876</v>
       </c>
       <c r="M10" t="n">
-        <v>4.558608401874645</v>
+        <v>4.575765213186985</v>
       </c>
       <c r="N10" t="n">
-        <v>37.80050944320199</v>
+        <v>38.0272682741442</v>
       </c>
       <c r="O10" t="n">
-        <v>6.148211889907666</v>
+        <v>6.166625355422867</v>
       </c>
       <c r="P10" t="n">
-        <v>398.5852214416674</v>
+        <v>398.6339202968816</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38601,28 +38703,28 @@
         <v>0.0746</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08446638677081054</v>
+        <v>-0.08962928409636306</v>
       </c>
       <c r="J11" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K11" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01120843856203291</v>
+        <v>0.01252367836736001</v>
       </c>
       <c r="M11" t="n">
-        <v>4.363800187894285</v>
+        <v>4.38652541183506</v>
       </c>
       <c r="N11" t="n">
-        <v>34.17084400971086</v>
+        <v>34.45837465451519</v>
       </c>
       <c r="O11" t="n">
-        <v>5.845583290802626</v>
+        <v>5.870125608069659</v>
       </c>
       <c r="P11" t="n">
-        <v>397.6588424458442</v>
+        <v>397.7120095523561</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38679,28 +38781,28 @@
         <v>0.0723</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1176761267903483</v>
+        <v>-0.1213770269691095</v>
       </c>
       <c r="J12" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K12" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02089611062592422</v>
+        <v>0.02217374560264962</v>
       </c>
       <c r="M12" t="n">
-        <v>4.436949159573381</v>
+        <v>4.450864881317373</v>
       </c>
       <c r="N12" t="n">
-        <v>35.27186424475992</v>
+        <v>35.38582402257472</v>
       </c>
       <c r="O12" t="n">
-        <v>5.939012059657727</v>
+        <v>5.948598492298393</v>
       </c>
       <c r="P12" t="n">
-        <v>392.6602016043914</v>
+        <v>392.6984387464334</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38757,28 +38859,28 @@
         <v>0.0674</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1144210428171574</v>
+        <v>-0.1186814022963989</v>
       </c>
       <c r="J13" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K13" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01565642120307409</v>
+        <v>0.01679648826780067</v>
       </c>
       <c r="M13" t="n">
-        <v>4.752914757382642</v>
+        <v>4.767370832377429</v>
       </c>
       <c r="N13" t="n">
-        <v>44.6563032077989</v>
+        <v>44.81529863275851</v>
       </c>
       <c r="O13" t="n">
-        <v>6.682537183420598</v>
+        <v>6.694422949945612</v>
       </c>
       <c r="P13" t="n">
-        <v>387.9211256210912</v>
+        <v>387.9653597284769</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38835,28 +38937,28 @@
         <v>0.0606</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1001084913680615</v>
+        <v>-0.0836153097648263</v>
       </c>
       <c r="J14" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K14" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0077121583822366</v>
+        <v>0.005142831705855277</v>
       </c>
       <c r="M14" t="n">
-        <v>6.156482663342162</v>
+        <v>6.232732381044501</v>
       </c>
       <c r="N14" t="n">
-        <v>70.54600947934289</v>
+        <v>74.13592819829147</v>
       </c>
       <c r="O14" t="n">
-        <v>8.399167189629154</v>
+        <v>8.610222308296777</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2118513625184</v>
+        <v>386.0424188717137</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38913,28 +39015,28 @@
         <v>0.0512</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04598992385777795</v>
+        <v>-0.05360477125685544</v>
       </c>
       <c r="J15" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K15" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001325576785346727</v>
+        <v>0.001795552800095468</v>
       </c>
       <c r="M15" t="n">
-        <v>6.59115569394048</v>
+        <v>6.612960298947232</v>
       </c>
       <c r="N15" t="n">
-        <v>87.88194017970633</v>
+        <v>88.4623818534002</v>
       </c>
       <c r="O15" t="n">
-        <v>9.374536798141353</v>
+        <v>9.40544426666812</v>
       </c>
       <c r="P15" t="n">
-        <v>385.0751350501665</v>
+        <v>385.1528314775662</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -38991,28 +39093,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01412893197136186</v>
+        <v>-0.02207915739661885</v>
       </c>
       <c r="J16" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K16" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001444198892706083</v>
+        <v>0.0003505831239386525</v>
       </c>
       <c r="M16" t="n">
-        <v>6.672108803983053</v>
+        <v>6.700532311842639</v>
       </c>
       <c r="N16" t="n">
-        <v>75.51342748111823</v>
+        <v>76.12304057903107</v>
       </c>
       <c r="O16" t="n">
-        <v>8.689846228853433</v>
+        <v>8.724851894389444</v>
       </c>
       <c r="P16" t="n">
-        <v>384.9963532328237</v>
+        <v>385.0769929897372</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -39050,7 +39152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q607"/>
+  <dimension ref="A1:Q609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84703,6 +84805,116 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-36.627479999824935,174.75709079273474</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr"/>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>-36.62612851328892,174.7634299426239</t>
+        </is>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>-36.62602839670419,174.76442146669262</t>
+        </is>
+      </c>
+      <c r="P608" t="inlineStr"/>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-36.627680967995936,174.7561886571099</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-36.62771465742271,174.75707784967435</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-36.62782400621601,174.75796981738685</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-36.627840594845736,174.75886545357307</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>-36.62773193898032,174.7597395799132</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>-36.62764338912512,174.76058361392356</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>-36.62750337369397,174.76142447264172</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>-36.62722865623126,174.76221878096098</t>
+        </is>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>-36.626910661934595,174.76301079975465</t>
+        </is>
+      </c>
+      <c r="N609" t="inlineStr"/>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>-36.626198035165345,174.76457348670363</t>
+        </is>
+      </c>
+      <c r="P609" t="inlineStr">
+        <is>
+          <t>-36.62575201901418,174.7652788197139</t>
+        </is>
+      </c>
+      <c r="Q609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -38536,13 +38536,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0299</v>
+        <v>0.0332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0352</v>
+        <v>0.0355</v>
       </c>
       <c r="I2" t="n">
         <v>-0.09156855193799715</v>
@@ -38617,10 +38617,10 @@
         <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0591</v>
+        <v>0.0563</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0653</v>
       </c>
       <c r="I3" t="n">
         <v>0.08175895761509099</v>
@@ -38692,13 +38692,13 @@
         <v>0.8569848505456086</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0644</v>
+        <v>0.059</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0738</v>
+        <v>0.0611</v>
       </c>
       <c r="I4" t="n">
         <v>0.05619092892134542</v>
@@ -38769,9 +38769,15 @@
       <c r="E5" t="n">
         <v>0.7857283522737449</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0598</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.067</v>
+      </c>
       <c r="I5" t="n">
         <v>0.09445009739610251</v>
       </c>
@@ -38845,10 +38851,10 @@
         <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0558</v>
+        <v>0.058</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0615</v>
+        <v>0.0679</v>
       </c>
       <c r="I6" t="n">
         <v>0.09388081168752903</v>
@@ -38923,10 +38929,10 @@
         <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0541</v>
+        <v>0.0537</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0603</v>
+        <v>0.0614</v>
       </c>
       <c r="I7" t="n">
         <v>-0.02289630888664367</v>
@@ -38998,13 +39004,13 @@
         <v>0.5712156646611564</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0584</v>
+        <v>0.0645</v>
       </c>
       <c r="H8" t="n">
-        <v>0.068</v>
+        <v>0.0756</v>
       </c>
       <c r="I8" t="n">
         <v>-0.002188451860121792</v>
@@ -39076,13 +39082,13 @@
         <v>0.4997080899362981</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0639</v>
+        <v>0.0649</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.0798</v>
       </c>
       <c r="I9" t="n">
         <v>-0.02823166154122807</v>
@@ -39154,13 +39160,13 @@
         <v>0.4286859828273287</v>
       </c>
       <c r="F10" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0813</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>-0.03613572143903463</v>
@@ -39232,13 +39238,13 @@
         <v>0.3573828495762056</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.0659</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0746</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1057339354220037</v>
@@ -39310,13 +39316,13 @@
         <v>0.2858752748501829</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0723</v>
+        <v>0.0891</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1389044027814407</v>
@@ -39388,13 +39394,13 @@
         <v>0.21450199262188</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0618</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0674</v>
+        <v>0.0823</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1334074011784485</v>
@@ -39466,13 +39472,13 @@
         <v>0.1429944178960494</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0549</v>
+        <v>0.0617</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0606</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1022188755323175</v>
@@ -39544,13 +39550,13 @@
         <v>0.07150757472721621</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0482</v>
+        <v>0.0487</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0512</v>
+        <v>0.0574</v>
       </c>
       <c r="I15" t="n">
         <v>-0.07601384719560386</v>
@@ -39622,13 +39628,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0444</v>
+        <v>0.048</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0477</v>
+        <v>0.0551</v>
       </c>
       <c r="I16" t="n">
         <v>-0.04837744708358362</v>

--- a/data/nzd0147/nzd0147.xlsx
+++ b/data/nzd0147/nzd0147.xlsx
@@ -569,7 +569,7 @@
         <v>383.43</v>
       </c>
       <c r="O2" t="n">
-        <v>378.03</v>
+        <v>377.98</v>
       </c>
       <c r="P2" t="n">
         <v>380.59</v>
@@ -626,7 +626,7 @@
         <v>376.46</v>
       </c>
       <c r="O3" t="n">
-        <v>372.44</v>
+        <v>371.09</v>
       </c>
       <c r="P3" t="n">
         <v>373.33</v>
@@ -683,7 +683,7 @@
         <v>386.38</v>
       </c>
       <c r="O4" t="n">
-        <v>385.07</v>
+        <v>387.12</v>
       </c>
       <c r="P4" t="n">
         <v>390.14</v>
@@ -740,7 +740,7 @@
         <v>386.12</v>
       </c>
       <c r="O5" t="n">
-        <v>382.98</v>
+        <v>383.98</v>
       </c>
       <c r="P5" t="n">
         <v>384.97</v>
@@ -793,7 +793,7 @@
         <v>373.82</v>
       </c>
       <c r="O6" t="n">
-        <v>371.06</v>
+        <v>369.75</v>
       </c>
       <c r="P6" t="n">
         <v>375.37</v>
@@ -850,7 +850,7 @@
         <v>376.99</v>
       </c>
       <c r="O7" t="n">
-        <v>375.28</v>
+        <v>374.12</v>
       </c>
       <c r="P7" t="n">
         <v>376.52</v>
@@ -907,7 +907,7 @@
         <v>389.65</v>
       </c>
       <c r="O8" t="n">
-        <v>382.71</v>
+        <v>383.33</v>
       </c>
       <c r="P8" t="n">
         <v>389.29</v>
@@ -1019,7 +1019,7 @@
         <v>372.46</v>
       </c>
       <c r="O10" t="n">
-        <v>362.92</v>
+        <v>361.77</v>
       </c>
       <c r="P10" t="n">
         <v>369.12</v>
@@ -1076,7 +1076,7 @@
         <v>376.2</v>
       </c>
       <c r="O11" t="n">
-        <v>375.01</v>
+        <v>374.32</v>
       </c>
       <c r="P11" t="n">
         <v>376.33</v>
@@ -1133,7 +1133,7 @@
         <v>380.34</v>
       </c>
       <c r="O12" t="n">
-        <v>376.62</v>
+        <v>376.84</v>
       </c>
       <c r="P12" t="n">
         <v>380.94</v>
@@ -1190,7 +1190,7 @@
         <v>376.75</v>
       </c>
       <c r="O13" t="n">
-        <v>371.86</v>
+        <v>372.64</v>
       </c>
       <c r="P13" t="n">
         <v>373.29</v>
@@ -1247,7 +1247,7 @@
         <v>380.75</v>
       </c>
       <c r="O14" t="n">
-        <v>375.91</v>
+        <v>375.35</v>
       </c>
       <c r="P14" t="n">
         <v>377.3</v>
@@ -1304,7 +1304,7 @@
         <v>388.78</v>
       </c>
       <c r="O15" t="n">
-        <v>381.79</v>
+        <v>382.37</v>
       </c>
       <c r="P15" t="n">
         <v>387.33</v>
@@ -1361,7 +1361,7 @@
         <v>383.41</v>
       </c>
       <c r="O16" t="n">
-        <v>376.61</v>
+        <v>376.99</v>
       </c>
       <c r="P16" t="n">
         <v>380.81</v>
@@ -1418,7 +1418,7 @@
         <v>380.36</v>
       </c>
       <c r="O17" t="n">
-        <v>378.05</v>
+        <v>377.3</v>
       </c>
       <c r="P17" t="n">
         <v>376.31</v>
@@ -1475,7 +1475,7 @@
         <v>388.32</v>
       </c>
       <c r="O18" t="n">
-        <v>387.08</v>
+        <v>388.5</v>
       </c>
       <c r="P18" t="n">
         <v>384.56</v>
@@ -1634,7 +1634,7 @@
         <v>387.56</v>
       </c>
       <c r="O21" t="n">
-        <v>381.41</v>
+        <v>382.1</v>
       </c>
       <c r="P21" t="n">
         <v>387.47</v>
@@ -1691,7 +1691,7 @@
         <v>378.13</v>
       </c>
       <c r="O22" t="n">
-        <v>375.76</v>
+        <v>374.52</v>
       </c>
       <c r="P22" t="n">
         <v>377.92</v>
@@ -1748,7 +1748,7 @@
         <v>382.33</v>
       </c>
       <c r="O23" t="n">
-        <v>381.4</v>
+        <v>383.38</v>
       </c>
       <c r="P23" t="n">
         <v>385.6</v>
@@ -1805,7 +1805,7 @@
         <v>378.69</v>
       </c>
       <c r="O24" t="n">
-        <v>377.81</v>
+        <v>377.46</v>
       </c>
       <c r="P24" t="n">
         <v>379.65</v>
@@ -1911,7 +1911,7 @@
         <v>390.23</v>
       </c>
       <c r="O26" t="n">
-        <v>391.61</v>
+        <v>393.39</v>
       </c>
       <c r="P26" t="n">
         <v>394.66</v>
@@ -1968,7 +1968,7 @@
         <v>381.57</v>
       </c>
       <c r="O27" t="n">
-        <v>382.79</v>
+        <v>384.59</v>
       </c>
       <c r="P27" t="n">
         <v>385.42</v>
@@ -2025,7 +2025,7 @@
         <v>381.62</v>
       </c>
       <c r="O28" t="n">
-        <v>380.13</v>
+        <v>380.18</v>
       </c>
       <c r="P28" t="n">
         <v>377.94</v>
@@ -2082,7 +2082,7 @@
         <v>382.28</v>
       </c>
       <c r="O29" t="n">
-        <v>377.39</v>
+        <v>377.59</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -2137,7 +2137,7 @@
         <v>382.39</v>
       </c>
       <c r="O30" t="n">
-        <v>377.73</v>
+        <v>377.13</v>
       </c>
       <c r="P30" t="n">
         <v>379.56</v>
@@ -2194,7 +2194,7 @@
         <v>388.91</v>
       </c>
       <c r="O31" t="n">
-        <v>387.8</v>
+        <v>389.25</v>
       </c>
       <c r="P31" t="n">
         <v>384.65</v>
@@ -2251,7 +2251,7 @@
         <v>377.57</v>
       </c>
       <c r="O32" t="n">
-        <v>375.11</v>
+        <v>374.35</v>
       </c>
       <c r="P32" t="n">
         <v>375.16</v>
@@ -2308,7 +2308,7 @@
         <v>378.06</v>
       </c>
       <c r="O33" t="n">
-        <v>384.98</v>
+        <v>383.93</v>
       </c>
       <c r="P33" t="n">
         <v>384.7</v>
@@ -2365,7 +2365,7 @@
         <v>389.01</v>
       </c>
       <c r="O34" t="n">
-        <v>390.95</v>
+        <v>392.86</v>
       </c>
       <c r="P34" t="n">
         <v>390.1</v>
@@ -2422,7 +2422,7 @@
         <v>382.91</v>
       </c>
       <c r="O35" t="n">
-        <v>383.25</v>
+        <v>384.36</v>
       </c>
       <c r="P35" t="n">
         <v>382.29</v>
@@ -2479,7 +2479,7 @@
         <v>379.43</v>
       </c>
       <c r="O36" t="n">
-        <v>377.26</v>
+        <v>377.13</v>
       </c>
       <c r="P36" t="n">
         <v>380.5</v>
@@ -2536,7 +2536,7 @@
         <v>389.86</v>
       </c>
       <c r="O37" t="n">
-        <v>383.86</v>
+        <v>385.02</v>
       </c>
       <c r="P37" t="n">
         <v>386.96</v>
@@ -2593,7 +2593,7 @@
         <v>374.03</v>
       </c>
       <c r="O38" t="n">
-        <v>373.65</v>
+        <v>373</v>
       </c>
       <c r="P38" t="n">
         <v>373.38</v>
@@ -2650,7 +2650,7 @@
         <v>381.69</v>
       </c>
       <c r="O39" t="n">
-        <v>380.52</v>
+        <v>379.41</v>
       </c>
       <c r="P39" t="n">
         <v>382.26</v>
@@ -2707,7 +2707,7 @@
         <v>388.6</v>
       </c>
       <c r="O40" t="n">
-        <v>382.82</v>
+        <v>382.06</v>
       </c>
       <c r="P40" t="n">
         <v>385.52</v>
@@ -2760,7 +2760,7 @@
         <v>386.75</v>
       </c>
       <c r="O41" t="n">
-        <v>383.52</v>
+        <v>383.17</v>
       </c>
       <c r="P41" t="n">
         <v>381.58</v>
@@ -2817,7 +2817,7 @@
         <v>397.43</v>
       </c>
       <c r="O42" t="n">
-        <v>393.16</v>
+        <v>391.71</v>
       </c>
       <c r="P42" t="n">
         <v>393.31</v>
@@ -2874,7 +2874,7 @@
         <v>389.85</v>
       </c>
       <c r="O43" t="n">
-        <v>386.54</v>
+        <v>387.89</v>
       </c>
       <c r="P43" t="n">
         <v>383.81</v>
@@ -2931,7 +2931,7 @@
         <v>388.48</v>
       </c>
       <c r="O44" t="n">
-        <v>382.01</v>
+        <v>384.03</v>
       </c>
       <c r="P44" t="n">
         <v>385.42</v>
@@ -2988,7 +2988,7 @@
         <v>384.19</v>
       </c>
       <c r="O45" t="n">
-        <v>381.39</v>
+        <v>382.12</v>
       </c>
       <c r="P45" t="n">
         <v>381.76</v>
@@ -3045,7 +3045,7 @@
         <v>380.88</v>
       </c>
       <c r="O46" t="n">
-        <v>381.04</v>
+        <v>380.71</v>
       </c>
       <c r="P46" t="n">
         <v>382.42</v>
@@ -3076,7 +3076,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>403.14</v>
+        <v>401.87</v>
       </c>
       <c r="P47" t="n">
         <v>390.37</v>
@@ -3133,7 +3133,7 @@
         <v>390.08</v>
       </c>
       <c r="O48" t="n">
-        <v>385.94</v>
+        <v>387.78</v>
       </c>
       <c r="P48" t="n">
         <v>386.77</v>
@@ -3190,7 +3190,7 @@
         <v>378.68</v>
       </c>
       <c r="O49" t="n">
-        <v>378.67</v>
+        <v>379.23</v>
       </c>
       <c r="P49" t="n">
         <v>379.48</v>
@@ -3266,7 +3266,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="n">
-        <v>376.96</v>
+        <v>377.03</v>
       </c>
       <c r="P51" t="n">
         <v>377.43</v>
@@ -3323,7 +3323,7 @@
         <v>381.2</v>
       </c>
       <c r="O52" t="n">
-        <v>380.91</v>
+        <v>379.95</v>
       </c>
       <c r="P52" t="n">
         <v>383.93</v>
@@ -3374,7 +3374,7 @@
         <v>394.9</v>
       </c>
       <c r="O53" t="n">
-        <v>393.44</v>
+        <v>395.73</v>
       </c>
       <c r="P53" t="n">
         <v>398.33</v>
@@ -3431,7 +3431,7 @@
         <v>387.95</v>
       </c>
       <c r="O54" t="n">
-        <v>387.08</v>
+        <v>386.08</v>
       </c>
       <c r="P54" t="n">
         <v>382.95</v>
@@ -3488,7 +3488,7 @@
         <v>381.02</v>
       </c>
       <c r="O55" t="n">
-        <v>377.19</v>
+        <v>377.32</v>
       </c>
       <c r="P55" t="n">
         <v>379.74</v>
@@ -3545,7 +3545,7 @@
         <v>390.05</v>
       </c>
       <c r="O56" t="n">
-        <v>386.93</v>
+        <v>387.22</v>
       </c>
       <c r="P56" t="n">
         <v>386.47</v>
@@ -3576,7 +3576,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="n">
-        <v>385.83</v>
+        <v>384.56</v>
       </c>
       <c r="P57" t="n">
         <v>385.75</v>
@@ -3633,7 +3633,7 @@
         <v>381.47</v>
       </c>
       <c r="O58" t="n">
-        <v>373.37</v>
+        <v>373.95</v>
       </c>
       <c r="P58" t="n">
         <v>373.97</v>
@@ -3690,7 +3690,7 @@
         <v>385.37</v>
       </c>
       <c r="O59" t="n">
-        <v>382.43</v>
+        <v>383.59</v>
       </c>
       <c r="P59" t="n">
         <v>388.78</v>
@@ -3747,7 +3747,7 @@
         <v>385.38</v>
       </c>
       <c r="O60" t="n">
-        <v>384.31</v>
+        <v>386.38</v>
       </c>
       <c r="P60" t="n">
         <v>382.61</v>
@@ -3908,7 +3908,7 @@
         <v>387.74</v>
       </c>
       <c r="O63" t="n">
-        <v>388.63</v>
+        <v>389.56</v>
       </c>
       <c r="P63" t="n">
         <v>388.02</v>
@@ -3965,7 +3965,7 @@
         <v>394.82</v>
       </c>
       <c r="O64" t="n">
-        <v>389.72</v>
+        <v>390.5</v>
       </c>
       <c r="P64" t="n">
         <v>392.63</v>
@@ -4022,7 +4022,7 @@
         <v>389.7</v>
       </c>
       <c r="O65" t="n">
-        <v>373.82</v>
+        <v>372.82</v>
       </c>
       <c r="P65" t="n">
         <v>376.93</v>
@@ -4079,7 +4079,7 @@
         <v>379.34</v>
       </c>
       <c r="O66" t="n">
-        <v>376.13</v>
+        <v>376.18</v>
       </c>
       <c r="P66" t="n">
         <v>379.28</v>
@@ -4136,7 +4136,7 @@
         <v>399.29</v>
       </c>
       <c r="O67" t="n">
-        <v>410.37</v>
+        <v>408.64</v>
       </c>
       <c r="P67" t="n">
         <v>394</v>
@@ -4193,7 +4193,7 @@
         <v>387.1</v>
       </c>
       <c r="O68" t="n">
-        <v>386.82</v>
+        <v>388.09</v>
       </c>
       <c r="P68" t="n">
         <v>386.76</v>
@@ -4250,7 +4250,7 @@
         <v>384.69</v>
       </c>
       <c r="O69" t="n">
-        <v>381.19</v>
+        <v>382.08</v>
       </c>
       <c r="P69" t="n">
         <v>385.81</v>
@@ -4283,7 +4283,7 @@
         <v>377.64</v>
       </c>
       <c r="O70" t="n">
-        <v>374.24</v>
+        <v>373.71</v>
       </c>
       <c r="P70" t="n">
         <v>375.81</v>
@@ -4393,7 +4393,7 @@
         <v>391.65</v>
       </c>
       <c r="O72" t="n">
-        <v>385.52</v>
+        <v>386.94</v>
       </c>
       <c r="P72" t="n">
         <v>386.11</v>
@@ -4450,7 +4450,7 @@
         <v>390.3</v>
       </c>
       <c r="O73" t="n">
-        <v>392.87</v>
+        <v>392.36</v>
       </c>
       <c r="P73" t="n">
         <v>390.24</v>
@@ -4556,7 +4556,7 @@
         <v>390.61</v>
       </c>
       <c r="O75" t="n">
-        <v>391.09</v>
+        <v>392.94</v>
       </c>
       <c r="P75" t="n">
         <v>396.13</v>
@@ -4605,7 +4605,7 @@
         <v>385.51</v>
       </c>
       <c r="O76" t="n">
-        <v>378.01</v>
+        <v>376.97</v>
       </c>
       <c r="P76" t="n">
         <v>373.36</v>
@@ -4662,7 +4662,7 @@
         <v>390.81</v>
       </c>
       <c r="O77" t="n">
-        <v>392.45</v>
+        <v>394.09</v>
       </c>
       <c r="P77" t="n">
         <v>397.2</v>
@@ -4711,7 +4711,7 @@
         <v>393.07</v>
       </c>
       <c r="O78" t="n">
-        <v>393.41</v>
+        <v>395.34</v>
       </c>
       <c r="P78" t="n">
         <v>390.89</v>
@@ -4768,7 +4768,7 @@
         <v>396.09</v>
       </c>
       <c r="O79" t="n">
-        <v>392.06</v>
+        <v>393.91</v>
       </c>
       <c r="P79" t="n">
         <v>398.79</v>
@@ -4868,7 +4868,7 @@
         <v>391.92</v>
       </c>
       <c r="O81" t="n">
-        <v>391.53</v>
+        <v>392.71</v>
       </c>
       <c r="P81" t="n">
         <v>393.84</v>
@@ -4925,7 +4925,7 @@
         <v>381.06</v>
       </c>
       <c r="O82" t="n">
-        <v>378.66</v>
+        <v>377.71</v>
       </c>
       <c r="P82" t="n">
         <v>376.6</v>
@@ -4982,7 +4982,7 @@
         <v>386.64</v>
       </c>
       <c r="O83" t="n">
-        <v>388.93</v>
+        <v>388.89</v>
       </c>
       <c r="P83" t="n">
         <v>385.75</v>
@@ -5039,7 +5039,7 @@
         <v>383.24</v>
       </c>
       <c r="O84" t="n">
-        <v>383.82</v>
+        <v>383.95</v>
       </c>
       <c r="P84" t="n">
         <v>384.17</v>
@@ -5096,7 +5096,7 @@
         <v>369.39</v>
       </c>
       <c r="O85" t="n">
-        <v>380.02</v>
+        <v>378.78</v>
       </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
@@ -5151,7 +5151,7 @@
         <v>394.3</v>
       </c>
       <c r="O86" t="n">
-        <v>389.74</v>
+        <v>390.92</v>
       </c>
       <c r="P86" t="n">
         <v>397.05</v>
@@ -5208,7 +5208,7 @@
         <v>371.18</v>
       </c>
       <c r="O87" t="n">
-        <v>379.36</v>
+        <v>378.71</v>
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
@@ -5249,7 +5249,7 @@
         <v>374.18</v>
       </c>
       <c r="O88" t="n">
-        <v>364.81</v>
+        <v>363.05</v>
       </c>
       <c r="P88" t="n">
         <v>360.3</v>
@@ -5306,7 +5306,7 @@
         <v>393.82</v>
       </c>
       <c r="O89" t="n">
-        <v>390.15</v>
+        <v>391.24</v>
       </c>
       <c r="P89" t="n">
         <v>391.3</v>
@@ -5363,7 +5363,7 @@
         <v>382.58</v>
       </c>
       <c r="O90" t="n">
-        <v>383.1</v>
+        <v>382.43</v>
       </c>
       <c r="P90" t="n">
         <v>378.28</v>
@@ -5400,7 +5400,7 @@
         <v>386.33</v>
       </c>
       <c r="O91" t="n">
-        <v>383.15</v>
+        <v>383.2</v>
       </c>
       <c r="P91" t="n">
         <v>384.13</v>
@@ -5457,7 +5457,7 @@
         <v>384.13</v>
       </c>
       <c r="O92" t="n">
-        <v>384.66</v>
+        <v>384.68</v>
       </c>
       <c r="P92" t="n">
         <v>383.5</v>
@@ -5555,7 +5555,7 @@
         <v>378.66</v>
       </c>
       <c r="O94" t="n">
-        <v>378.67</v>
+        <v>380.25</v>
       </c>
       <c r="P94" t="n">
         <v>377.07</v>
@@ -5604,7 +5604,7 @@
         <v>374.42</v>
       </c>
       <c r="O95" t="n">
-        <v>374.12</v>
+        <v>373.27</v>
       </c>
       <c r="P95" t="n">
         <v>385.83</v>
@@ -5661,7 +5661,7 @@
         <v>381.45</v>
       </c>
       <c r="O96" t="n">
-        <v>382.14</v>
+        <v>381.87</v>
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
@@ -5745,7 +5745,7 @@
         <v>389.18</v>
       </c>
       <c r="O98" t="n">
-        <v>391.54</v>
+        <v>393.21</v>
       </c>
       <c r="P98" t="n">
         <v>389.76</v>
@@ -5802,7 +5802,7 @@
         <v>382.14</v>
       </c>
       <c r="O99" t="n">
-        <v>380.5</v>
+        <v>380.52</v>
       </c>
       <c r="P99" t="n">
         <v>383.81</v>
@@ -5843,7 +5843,7 @@
         <v>382.83</v>
       </c>
       <c r="O100" t="n">
-        <v>385.87</v>
+        <v>385.38</v>
       </c>
       <c r="P100" t="n">
         <v>386.12</v>
@@ -5898,7 +5898,7 @@
         <v>388.35</v>
       </c>
       <c r="O101" t="n">
-        <v>384.33</v>
+        <v>385.48</v>
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
@@ -5941,7 +5941,7 @@
         <v>371.88</v>
       </c>
       <c r="O102" t="n">
-        <v>378.06</v>
+        <v>376.97</v>
       </c>
       <c r="P102" t="n">
         <v>377.94</v>
@@ -5998,7 +5998,7 @@
         <v>387.03</v>
       </c>
       <c r="O103" t="n">
-        <v>389.72</v>
+        <v>388.5</v>
       </c>
       <c r="P103" t="n">
         <v>392.82</v>
@@ -6084,7 +6084,7 @@
         <v>387.68</v>
       </c>
       <c r="O105" t="n">
-        <v>384.24</v>
+        <v>385.77</v>
       </c>
       <c r="P105" t="n">
         <v>387.63</v>
@@ -6141,7 +6141,7 @@
         <v>391.42</v>
       </c>
       <c r="O106" t="n">
-        <v>387.55</v>
+        <v>387.9</v>
       </c>
       <c r="P106" t="n">
         <v>392.16</v>
@@ -6184,7 +6184,7 @@
         <v>375.89</v>
       </c>
       <c r="O107" t="n">
-        <v>385.85</v>
+        <v>384.7</v>
       </c>
       <c r="P107" t="n">
         <v>389.29</v>
@@ -6270,7 +6270,7 @@
         <v>390.49</v>
       </c>
       <c r="O109" t="n">
-        <v>381.91</v>
+        <v>383.15</v>
       </c>
       <c r="P109" t="n">
         <v>388.1</v>
@@ -6327,7 +6327,7 @@
         <v>383.76</v>
       </c>
       <c r="O110" t="n">
-        <v>388.67</v>
+        <v>387.85</v>
       </c>
       <c r="P110" t="n">
         <v>391.58</v>
@@ -6480,7 +6480,7 @@
         <v>390.5</v>
       </c>
       <c r="O113" t="n">
-        <v>385.62</v>
+        <v>387.75</v>
       </c>
       <c r="P113" t="n">
         <v>387.79</v>
@@ -6537,7 +6537,7 @@
         <v>378.7</v>
       </c>
       <c r="O114" t="n">
-        <v>379.19</v>
+        <v>378.01</v>
       </c>
       <c r="P114" t="n">
         <v>380.76</v>
@@ -6594,7 +6594,7 @@
         <v>382.05</v>
       </c>
       <c r="O115" t="n">
-        <v>378.41</v>
+        <v>377.9</v>
       </c>
       <c r="P115" t="n">
         <v>379.61</v>
@@ -6643,7 +6643,7 @@
         <v>382.06</v>
       </c>
       <c r="O116" t="n">
-        <v>379.96</v>
+        <v>379.81</v>
       </c>
       <c r="P116" t="n">
         <v>382.9</v>
@@ -6678,7 +6678,7 @@
         <v>367.02</v>
       </c>
       <c r="O117" t="n">
-        <v>367.15</v>
+        <v>368.19</v>
       </c>
       <c r="P117" t="n">
         <v>361.9</v>
@@ -6735,7 +6735,7 @@
         <v>380.37</v>
       </c>
       <c r="O118" t="n">
-        <v>375.59</v>
+        <v>377.95</v>
       </c>
       <c r="P118" t="n">
         <v>381.97</v>
@@ -6770,7 +6770,7 @@
         <v>395.27</v>
       </c>
       <c r="O119" t="n">
-        <v>404.43</v>
+        <v>403.16</v>
       </c>
       <c r="P119" t="n">
         <v>410.61</v>
@@ -6874,7 +6874,7 @@
         <v>423.25</v>
       </c>
       <c r="O121" t="n">
-        <v>402.69</v>
+        <v>403.49</v>
       </c>
       <c r="P121" t="n">
         <v>404.39</v>
@@ -6931,7 +6931,7 @@
         <v>388.85</v>
       </c>
       <c r="O122" t="n">
-        <v>371.36</v>
+        <v>370.29</v>
       </c>
       <c r="P122" t="n">
         <v>376.25</v>
@@ -6962,7 +6962,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="n">
-        <v>380.51</v>
+        <v>380.53</v>
       </c>
       <c r="P123" t="n">
         <v>381.65</v>
@@ -7103,7 +7103,7 @@
         <v>381.47</v>
       </c>
       <c r="O126" t="n">
-        <v>376.99</v>
+        <v>379.1</v>
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
@@ -7187,7 +7187,7 @@
         <v>399.06</v>
       </c>
       <c r="O128" t="n">
-        <v>400.14</v>
+        <v>401.16</v>
       </c>
       <c r="P128" t="n">
         <v>394.7</v>
@@ -7273,7 +7273,7 @@
         <v>372.04</v>
       </c>
       <c r="O130" t="n">
-        <v>380.49</v>
+        <v>379.2</v>
       </c>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr">
@@ -7357,7 +7357,7 @@
         <v>382.7</v>
       </c>
       <c r="O132" t="n">
-        <v>387.67</v>
+        <v>388.29</v>
       </c>
       <c r="P132" t="n">
         <v>387.11</v>
@@ -7390,7 +7390,7 @@
         <v>381.53</v>
       </c>
       <c r="O133" t="n">
-        <v>377.53</v>
+        <v>378.77</v>
       </c>
       <c r="P133" t="n">
         <v>379.4</v>
@@ -7421,7 +7421,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="n">
-        <v>386.94</v>
+        <v>389.36</v>
       </c>
       <c r="P134" t="n">
         <v>386.41</v>
@@ -7454,7 +7454,7 @@
         <v>404.04</v>
       </c>
       <c r="O135" t="n">
-        <v>422.82</v>
+        <v>421.22</v>
       </c>
       <c r="P135" t="n">
         <v>408.87</v>
@@ -7511,7 +7511,7 @@
         <v>383.61</v>
       </c>
       <c r="O136" t="n">
-        <v>385.2</v>
+        <v>385.13</v>
       </c>
       <c r="P136" t="n">
         <v>386.11</v>
@@ -7568,7 +7568,7 @@
         <v>382.66</v>
       </c>
       <c r="O137" t="n">
-        <v>385.02</v>
+        <v>386.69</v>
       </c>
       <c r="P137" t="n">
         <v>384.45</v>
@@ -7599,7 +7599,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="n">
-        <v>388.06</v>
+        <v>387.22</v>
       </c>
       <c r="P138" t="n">
         <v>384.98</v>
@@ -7648,7 +7648,7 @@
         <v>380.97</v>
       </c>
       <c r="O139" t="n">
-        <v>385.41</v>
+        <v>387.54</v>
       </c>
       <c r="P139" t="n">
         <v>383.59</v>
@@ -7705,7 +7705,7 @@
         <v>387.53</v>
       </c>
       <c r="O140" t="n">
-        <v>374.45</v>
+        <v>375.52</v>
       </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr">
@@ -7742,7 +7742,7 @@
         <v>380.5</v>
       </c>
       <c r="O141" t="n">
-        <v>381.26</v>
+        <v>383.21</v>
       </c>
       <c r="P141" t="n">
         <v>379.92</v>
@@ -7791,7 +7791,7 @@
         <v>394.07</v>
       </c>
       <c r="O142" t="n">
-        <v>413.23</v>
+        <v>411.63</v>
       </c>
       <c r="P142" t="n">
         <v>408.84</v>
@@ -7826,7 +7826,7 @@
         <v>392.64</v>
       </c>
       <c r="O143" t="n">
-        <v>441.37</v>
+        <v>439.55</v>
       </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr">
@@ -8008,7 +8008,7 @@
         <v>374.48</v>
       </c>
       <c r="O147" t="n">
-        <v>372.11</v>
+        <v>372.96</v>
       </c>
       <c r="P147" t="n">
         <v>374.59</v>
@@ -8065,7 +8065,7 @@
         <v>379.32</v>
       </c>
       <c r="O148" t="n">
-        <v>381.74</v>
+        <v>381.52</v>
       </c>
       <c r="P148" t="n">
         <v>387.51</v>
@@ -8122,7 +8122,7 @@
         <v>387.48</v>
       </c>
       <c r="O149" t="n">
-        <v>385.04</v>
+        <v>385.51</v>
       </c>
       <c r="P149" t="n">
         <v>388.3</v>
@@ -8179,7 +8179,7 @@
         <v>387.14</v>
       </c>
       <c r="O150" t="n">
-        <v>390.57</v>
+        <v>391.12</v>
       </c>
       <c r="P150" t="n">
         <v>389.49</v>
@@ -8275,7 +8275,7 @@
         <v>384.98</v>
       </c>
       <c r="O152" t="n">
-        <v>388.82</v>
+        <v>391.26</v>
       </c>
       <c r="P152" t="n">
         <v>391.1</v>
@@ -8414,7 +8414,7 @@
         <v>378.64</v>
       </c>
       <c r="O155" t="n">
-        <v>367.62</v>
+        <v>367.29</v>
       </c>
       <c r="P155" t="n">
         <v>368.51</v>
@@ -8471,7 +8471,7 @@
         <v>380.38</v>
       </c>
       <c r="O156" t="n">
-        <v>383.78</v>
+        <v>383.29</v>
       </c>
       <c r="P156" t="n">
         <v>378.66</v>
@@ -8586,7 +8586,7 @@
         <v>384.01</v>
       </c>
       <c r="O159" t="n">
-        <v>388.91</v>
+        <v>387.35</v>
       </c>
       <c r="P159" t="n">
         <v>383.51</v>
@@ -8617,7 +8617,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="n">
-        <v>380.68</v>
+        <v>380.1</v>
       </c>
       <c r="P160" t="n">
         <v>375.78</v>
@@ -8725,7 +8725,7 @@
         <v>387.77</v>
       </c>
       <c r="O162" t="n">
-        <v>386.55</v>
+        <v>385.79</v>
       </c>
       <c r="P162" t="n">
         <v>387.41</v>
@@ -8764,7 +8764,7 @@
         <v>387.73</v>
       </c>
       <c r="O163" t="n">
-        <v>387.32</v>
+        <v>389.67</v>
       </c>
       <c r="P163" t="n">
         <v>388.79</v>
@@ -8862,7 +8862,7 @@
         <v>383.79</v>
       </c>
       <c r="O165" t="n">
-        <v>381.04</v>
+        <v>380.82</v>
       </c>
       <c r="P165" t="n">
         <v>381.2</v>
@@ -9001,7 +9001,7 @@
         <v>377.98</v>
       </c>
       <c r="O168" t="n">
-        <v>376.52</v>
+        <v>376.23</v>
       </c>
       <c r="P168" t="n">
         <v>374.26</v>
@@ -9058,7 +9058,7 @@
         <v>390.78</v>
       </c>
       <c r="O169" t="n">
-        <v>388.56</v>
+        <v>390.05</v>
       </c>
       <c r="P169" t="n">
         <v>394.29</v>
@@ -9144,7 +9144,7 @@
         <v>383.65</v>
       </c>
       <c r="O171" t="n">
-        <v>379.3</v>
+        <v>379.15</v>
       </c>
       <c r="P171" t="n">
         <v>378.72</v>
@@ -9201,7 +9201,7 @@
         <v>391.21</v>
       </c>
       <c r="O172" t="n">
-        <v>385.24</v>
+        <v>386.44</v>
       </c>
       <c r="P172" t="n">
         <v>388.58</v>
@@ -9277,7 +9277,7 @@
         <v>393.61</v>
       </c>
       <c r="O174" t="n">
-        <v>387.62</v>
+        <v>389.11</v>
       </c>
       <c r="P174" t="n">
         <v>391.72</v>
@@ -9334,7 +9334,7 @@
         <v>393.09</v>
       </c>
       <c r="O175" t="n">
-        <v>392.44</v>
+        <v>394.09</v>
       </c>
       <c r="P175" t="n">
         <v>391.32</v>
@@ -9387,7 +9387,7 @@
         <v>363.58</v>
       </c>
       <c r="O176" t="n">
-        <v>358.43</v>
+        <v>357.07</v>
       </c>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr">
@@ -9583,7 +9583,7 @@
         <v>389.93</v>
       </c>
       <c r="O180" t="n">
-        <v>401.57</v>
+        <v>400.13</v>
       </c>
       <c r="P180" t="n">
         <v>383.94</v>
@@ -9640,7 +9640,7 @@
         <v>393.71</v>
       </c>
       <c r="O181" t="n">
-        <v>386.52</v>
+        <v>388.68</v>
       </c>
       <c r="P181" t="n">
         <v>385.76</v>
@@ -9801,7 +9801,7 @@
         <v>381.44</v>
       </c>
       <c r="O184" t="n">
-        <v>378.42</v>
+        <v>378.33</v>
       </c>
       <c r="P184" t="n">
         <v>379.65</v>
@@ -9858,7 +9858,7 @@
         <v>383.64</v>
       </c>
       <c r="O185" t="n">
-        <v>390.59</v>
+        <v>389.37</v>
       </c>
       <c r="P185" t="n">
         <v>378.54</v>
@@ -10019,7 +10019,7 @@
         <v>383.06</v>
       </c>
       <c r="O188" t="n">
-        <v>378.95</v>
+        <v>380.48</v>
       </c>
       <c r="P188" t="n">
         <v>378.61</v>
@@ -10060,7 +10060,7 @@
         <v>387.87</v>
       </c>
       <c r="O189" t="n">
-        <v>386.91</v>
+        <v>387.49</v>
       </c>
       <c r="P189" t="n">
         <v>383.11</v>
@@ -10146,7 +10146,7 @@
         <v>375.93</v>
       </c>
       <c r="O191" t="n">
-        <v>381.21</v>
+        <v>379.41</v>
       </c>
       <c r="P191" t="n">
         <v>386.26</v>
@@ -10285,7 +10285,7 @@
         <v>387.8</v>
       </c>
       <c r="O194" t="n">
-        <v>386.68</v>
+        <v>387.03</v>
       </c>
       <c r="P194" t="n">
         <v>390.42</v>
@@ -10371,7 +10371,7 @@
         <v>381.04</v>
       </c>
       <c r="O196" t="n">
-        <v>382.01</v>
+        <v>381.56</v>
       </c>
       <c r="P196" t="n">
         <v>380.38</v>
@@ -10410,7 +10410,7 @@
         <v>380.38</v>
       </c>
       <c r="O197" t="n">
-        <v>373.94</v>
+        <v>374.39</v>
       </c>
       <c r="P197" t="n">
         <v>376.94</v>
@@ -10467,7 +10467,7 @@
         <v>377.37</v>
       </c>
       <c r="O198" t="n">
-        <v>375.56</v>
+        <v>375.01</v>
       </c>
       <c r="P198" t="n">
         <v>375.73</v>
@@ -10524,7 +10524,7 @@
         <v>381.43</v>
       </c>
       <c r="O199" t="n">
-        <v>377.26</v>
+        <v>378.28</v>
       </c>
       <c r="P199" t="n">
         <v>378.55</v>
@@ -10667,7 +10667,7 @@
         <v>378.49</v>
       </c>
       <c r="O202" t="n">
-        <v>379.06</v>
+        <v>377.99</v>
       </c>
       <c r="P202" t="n">
         <v>383.34</v>
@@ -10724,7 +10724,7 @@
         <v>381.77</v>
       </c>
       <c r="O203" t="n">
-        <v>379.25</v>
+        <v>378.3</v>
       </c>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr">
@@ -10755,7 +10755,7 @@
         <v>389.39</v>
       </c>
       <c r="O204" t="n">
-        <v>387.37</v>
+        <v>387.84</v>
       </c>
       <c r="P204" t="n">
         <v>388.29</v>
@@ -10835,7 +10835,7 @@
         <v>381.2</v>
       </c>
       <c r="O206" t="n">
-        <v>382.53</v>
+        <v>383.06</v>
       </c>
       <c r="P206" t="n">
         <v>382.46</v>
@@ -11007,7 +11007,7 @@
         <v>387.02</v>
       </c>
       <c r="O210" t="n">
-        <v>382.66</v>
+        <v>381.37</v>
       </c>
       <c r="P210" t="n">
         <v>388.67</v>
@@ -11052,7 +11052,7 @@
         <v>380.05</v>
       </c>
       <c r="O211" t="n">
-        <v>376.49</v>
+        <v>375.36</v>
       </c>
       <c r="P211" t="n">
         <v>377.28</v>
@@ -11162,7 +11162,7 @@
         <v>378.57</v>
       </c>
       <c r="O213" t="n">
-        <v>377.88</v>
+        <v>376.99</v>
       </c>
       <c r="P213" t="n">
         <v>374.81</v>
@@ -11197,7 +11197,7 @@
         <v>379.29</v>
       </c>
       <c r="O214" t="n">
-        <v>378.63</v>
+        <v>379.1</v>
       </c>
       <c r="P214" t="n">
         <v>375.14</v>
@@ -11254,7 +11254,7 @@
         <v>382.98</v>
       </c>
       <c r="O215" t="n">
-        <v>379.3</v>
+        <v>378.5</v>
       </c>
       <c r="P215" t="n">
         <v>380.7</v>
@@ -11413,7 +11413,7 @@
         <v>381.96</v>
       </c>
       <c r="O218" t="n">
-        <v>379.22</v>
+        <v>377.67</v>
       </c>
       <c r="P218" t="n">
         <v>378.63</v>
@@ -11470,7 +11470,7 @@
         <v>386.32</v>
       </c>
       <c r="O219" t="n">
-        <v>386.75</v>
+        <v>389</v>
       </c>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="inlineStr">
@@ -11525,7 +11525,7 @@
         <v>390.88</v>
       </c>
       <c r="O220" t="n">
-        <v>389.94</v>
+        <v>391.79</v>
       </c>
       <c r="P220" t="n">
         <v>391.1</v>
@@ -11582,7 +11582,7 @@
         <v>383.15</v>
       </c>
       <c r="O221" t="n">
-        <v>378.76</v>
+        <v>377.16</v>
       </c>
       <c r="P221" t="n">
         <v>376.51</v>
@@ -11670,7 +11670,7 @@
         <v>382.61</v>
       </c>
       <c r="O223" t="n">
-        <v>379.88</v>
+        <v>379.53</v>
       </c>
       <c r="P223" t="n">
         <v>378.16</v>
@@ -11727,7 +11727,7 @@
         <v>387.96</v>
       </c>
       <c r="O224" t="n">
-        <v>381.15</v>
+        <v>381.57</v>
       </c>
       <c r="P224" t="n">
         <v>381.19</v>
@@ -11862,7 +11862,7 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="n">
-        <v>385.27</v>
+        <v>386.38</v>
       </c>
       <c r="P227" t="n">
         <v>387.31</v>
@@ -11974,7 +11974,7 @@
         <v>396.04</v>
       </c>
       <c r="O229" t="n">
-        <v>400.09</v>
+        <v>398.6</v>
       </c>
       <c r="P229" t="n">
         <v>393.3</v>
@@ -12031,7 +12031,7 @@
         <v>386.17</v>
       </c>
       <c r="O230" t="n">
-        <v>382.54</v>
+        <v>381.19</v>
       </c>
       <c r="P230" t="n">
         <v>380.48</v>
@@ -12088,7 +12088,7 @@
         <v>392.79</v>
       </c>
       <c r="O231" t="n">
-        <v>391.72</v>
+        <v>390.05</v>
       </c>
       <c r="P231" t="n">
         <v>383</v>
@@ -12194,7 +12194,7 @@
         <v>378.22</v>
       </c>
       <c r="O233" t="n">
-        <v>381.26</v>
+        <v>382.02</v>
       </c>
       <c r="P233" t="n">
         <v>380.37</v>
@@ -12294,7 +12294,7 @@
         <v>387.15</v>
       </c>
       <c r="O235" t="n">
-        <v>384.57</v>
+        <v>386.59</v>
       </c>
       <c r="P235" t="n">
         <v>386.28</v>
@@ -12350,7 +12350,9 @@
       <c r="N236" t="n">
         <v>410.88</v>
       </c>
-      <c r="O236" t="inlineStr"/>
+      <c r="O236" t="n">
+        <v>432.78</v>
+      </c>
       <c r="P236" t="n">
         <v>423.16</v>
       </c>
@@ -12406,7 +12408,7 @@
         <v>390.72</v>
       </c>
       <c r="O237" t="n">
-        <v>392.12</v>
+        <v>394.14</v>
       </c>
       <c r="P237" t="n">
         <v>391.16</v>
@@ -12463,7 +12465,7 @@
         <v>382.14</v>
       </c>
       <c r="O238" t="n">
-        <v>381.48</v>
+        <v>380.33</v>
       </c>
       <c r="P238" t="n">
         <v>378.02</v>
@@ -12549,7 +12551,7 @@
         <v>380.47</v>
       </c>
       <c r="O240" t="n">
-        <v>373.86</v>
+        <v>374.73</v>
       </c>
       <c r="P240" t="n">
         <v>374.67</v>
@@ -12649,7 +12651,7 @@
         <v>384.02</v>
       </c>
       <c r="O242" t="n">
-        <v>381.73</v>
+        <v>383.02</v>
       </c>
       <c r="P242" t="n">
         <v>380.7</v>
@@ -12706,7 +12708,7 @@
         <v>387.41</v>
       </c>
       <c r="O243" t="n">
-        <v>385.14</v>
+        <v>387.52</v>
       </c>
       <c r="P243" t="n">
         <v>384.26</v>
@@ -12763,7 +12765,7 @@
         <v>384.44</v>
       </c>
       <c r="O244" t="n">
-        <v>385.6</v>
+        <v>384.44</v>
       </c>
       <c r="P244" t="n">
         <v>383.45</v>
@@ -12857,7 +12859,7 @@
         <v>385.58</v>
       </c>
       <c r="O246" t="n">
-        <v>387.51</v>
+        <v>390.02</v>
       </c>
       <c r="P246" t="inlineStr"/>
       <c r="Q246" t="inlineStr">
@@ -12888,7 +12890,7 @@
         <v>393.61</v>
       </c>
       <c r="O247" t="n">
-        <v>394.31</v>
+        <v>396.42</v>
       </c>
       <c r="P247" t="n">
         <v>392.57</v>
@@ -12945,7 +12947,7 @@
         <v>389.84</v>
       </c>
       <c r="O248" t="n">
-        <v>384.55</v>
+        <v>386.55</v>
       </c>
       <c r="P248" t="n">
         <v>390.32</v>
@@ -13035,7 +13037,7 @@
         <v>386.03</v>
       </c>
       <c r="O250" t="n">
-        <v>386.16</v>
+        <v>387.21</v>
       </c>
       <c r="P250" t="n">
         <v>384.94</v>
@@ -13092,7 +13094,7 @@
         <v>388.42</v>
       </c>
       <c r="O251" t="n">
-        <v>385.28</v>
+        <v>385.93</v>
       </c>
       <c r="P251" t="n">
         <v>383.28</v>
@@ -13241,7 +13243,7 @@
         <v>385.66</v>
       </c>
       <c r="O254" t="n">
-        <v>381.71</v>
+        <v>382.93</v>
       </c>
       <c r="P254" t="n">
         <v>381.37</v>
@@ -13272,7 +13274,7 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="n">
-        <v>380.24</v>
+        <v>380.99</v>
       </c>
       <c r="P255" t="n">
         <v>384.11</v>
@@ -13329,7 +13331,7 @@
         <v>393.64</v>
       </c>
       <c r="O256" t="n">
-        <v>392.27</v>
+        <v>393.85</v>
       </c>
       <c r="P256" t="n">
         <v>390.42</v>
@@ -13421,7 +13423,7 @@
         <v>381.86</v>
       </c>
       <c r="O258" t="n">
-        <v>379.52</v>
+        <v>380.37</v>
       </c>
       <c r="P258" t="n">
         <v>376.79</v>
@@ -13478,7 +13480,7 @@
         <v>378.2</v>
       </c>
       <c r="O259" t="n">
-        <v>381.68</v>
+        <v>381.53</v>
       </c>
       <c r="P259" t="n">
         <v>378.81</v>
@@ -13509,7 +13511,7 @@
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="n">
-        <v>381.76</v>
+        <v>382.41</v>
       </c>
       <c r="P260" t="n">
         <v>381.91</v>
@@ -13566,7 +13568,7 @@
         <v>382.92</v>
       </c>
       <c r="O261" t="n">
-        <v>389.5</v>
+        <v>389.85</v>
       </c>
       <c r="P261" t="n">
         <v>381.46</v>
@@ -13623,7 +13625,7 @@
         <v>384.58</v>
       </c>
       <c r="O262" t="n">
-        <v>381.27</v>
+        <v>380.96</v>
       </c>
       <c r="P262" t="n">
         <v>379.7</v>
@@ -13680,7 +13682,7 @@
         <v>399.99</v>
       </c>
       <c r="O263" t="n">
-        <v>410.2</v>
+        <v>408.6</v>
       </c>
       <c r="P263" t="n">
         <v>396.28</v>
@@ -13715,7 +13717,7 @@
         <v>384.94</v>
       </c>
       <c r="O264" t="n">
-        <v>382.01</v>
+        <v>383.68</v>
       </c>
       <c r="P264" t="n">
         <v>385.93</v>
@@ -13772,7 +13774,7 @@
         <v>392.61</v>
       </c>
       <c r="O265" t="n">
-        <v>412.41</v>
+        <v>410.65</v>
       </c>
       <c r="P265" t="n">
         <v>379.24</v>
@@ -13829,7 +13831,7 @@
         <v>381.46</v>
       </c>
       <c r="O266" t="n">
-        <v>380.66</v>
+        <v>380.71</v>
       </c>
       <c r="P266" t="n">
         <v>378.43</v>
@@ -13886,7 +13888,7 @@
         <v>381.66</v>
       </c>
       <c r="O267" t="n">
-        <v>380.97</v>
+        <v>381.82</v>
       </c>
       <c r="P267" t="n">
         <v>379.71</v>
@@ -13943,7 +13945,7 @@
         <v>385.6</v>
       </c>
       <c r="O268" t="n">
-        <v>382.69</v>
+        <v>384.34</v>
       </c>
       <c r="P268" t="n">
         <v>384.32</v>
@@ -14000,7 +14002,7 @@
         <v>400.91</v>
       </c>
       <c r="O269" t="n">
-        <v>411.67</v>
+        <v>410.2</v>
       </c>
       <c r="P269" t="n">
         <v>404.44</v>
@@ -14102,7 +14104,7 @@
         <v>376.07</v>
       </c>
       <c r="O271" t="n">
-        <v>379.53</v>
+        <v>382.22</v>
       </c>
       <c r="P271" t="n">
         <v>379.55</v>
@@ -14159,7 +14161,7 @@
         <v>383.42</v>
       </c>
       <c r="O272" t="n">
-        <v>387.27</v>
+        <v>389.62</v>
       </c>
       <c r="P272" t="n">
         <v>387.81</v>
@@ -14216,7 +14218,7 @@
         <v>381.42</v>
       </c>
       <c r="O273" t="n">
-        <v>393.42</v>
+        <v>392.24</v>
       </c>
       <c r="P273" t="n">
         <v>387.2</v>
@@ -14375,7 +14377,7 @@
         <v>383.37</v>
       </c>
       <c r="O276" t="n">
-        <v>397.09</v>
+        <v>395.76</v>
       </c>
       <c r="P276" t="n">
         <v>391.38</v>
@@ -14432,7 +14434,7 @@
         <v>398.86</v>
       </c>
       <c r="O277" t="n">
-        <v>385.72</v>
+        <v>383.99</v>
       </c>
       <c r="P277" t="n">
         <v>379.74</v>
@@ -14489,7 +14491,7 @@
         <v>384.26</v>
       </c>
       <c r="O278" t="n">
-        <v>386.98</v>
+        <v>389.53</v>
       </c>
       <c r="P278" t="n">
         <v>383.89</v>
@@ -14546,7 +14548,7 @@
         <v>386.39</v>
       </c>
       <c r="O279" t="n">
-        <v>387.75</v>
+        <v>389.86</v>
       </c>
       <c r="P279" t="n">
         <v>385.35</v>
@@ -14699,7 +14701,7 @@
         <v>382.55</v>
       </c>
       <c r="O282" t="n">
-        <v>382.62</v>
+        <v>383.27</v>
       </c>
       <c r="P282" t="n">
         <v>386.28</v>
@@ -14756,7 +14758,7 @@
         <v>375.44</v>
       </c>
       <c r="O283" t="n">
-        <v>378.05</v>
+        <v>378.54</v>
       </c>
       <c r="P283" t="n">
         <v>382.61</v>
@@ -14813,7 +14815,7 @@
         <v>385.72</v>
       </c>
       <c r="O284" t="n">
-        <v>381.09</v>
+        <v>382.42</v>
       </c>
       <c r="P284" t="n">
         <v>381.14</v>
@@ -14870,7 +14872,7 @@
         <v>384.24</v>
       </c>
       <c r="O285" t="n">
-        <v>384.76</v>
+        <v>386.47</v>
       </c>
       <c r="P285" t="n">
         <v>387.66</v>
@@ -14925,7 +14927,7 @@
         <v>383.72</v>
       </c>
       <c r="O286" t="n">
-        <v>384.3</v>
+        <v>382.61</v>
       </c>
       <c r="P286" t="n">
         <v>393.62</v>
@@ -14982,7 +14984,7 @@
         <v>386.51</v>
       </c>
       <c r="O287" t="n">
-        <v>388.07</v>
+        <v>390.22</v>
       </c>
       <c r="P287" t="n">
         <v>370.66</v>
@@ -15068,7 +15070,7 @@
         <v>393.05</v>
       </c>
       <c r="O289" t="n">
-        <v>385.23</v>
+        <v>386.47</v>
       </c>
       <c r="P289" t="inlineStr"/>
       <c r="Q289" t="inlineStr">
@@ -15123,7 +15125,7 @@
         <v>387.97</v>
       </c>
       <c r="O290" t="n">
-        <v>388.53</v>
+        <v>389.26</v>
       </c>
       <c r="P290" t="n">
         <v>387.21</v>
@@ -15180,7 +15182,7 @@
         <v>386.31</v>
       </c>
       <c r="O291" t="n">
-        <v>391.28</v>
+        <v>389.7</v>
       </c>
       <c r="P291" t="n">
         <v>388.46</v>
@@ -15229,7 +15231,7 @@
         <v>376.52</v>
       </c>
       <c r="O292" t="n">
-        <v>370.2</v>
+        <v>369.25</v>
       </c>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="inlineStr">
@@ -15333,7 +15335,7 @@
         <v>384.62</v>
       </c>
       <c r="O294" t="n">
-        <v>385.55</v>
+        <v>385.11</v>
       </c>
       <c r="P294" t="n">
         <v>386.01</v>
@@ -15376,7 +15378,7 @@
         <v>392.03</v>
       </c>
       <c r="O295" t="n">
-        <v>388.48</v>
+        <v>390.21</v>
       </c>
       <c r="P295" t="n">
         <v>389.07</v>
@@ -15417,7 +15419,7 @@
         <v>395.67</v>
       </c>
       <c r="O296" t="n">
-        <v>422.67</v>
+        <v>420.76</v>
       </c>
       <c r="P296" t="n">
         <v>417.93</v>
@@ -15474,7 +15476,7 @@
         <v>391.33</v>
       </c>
       <c r="O297" t="n">
-        <v>392.94</v>
+        <v>391.52</v>
       </c>
       <c r="P297" t="n">
         <v>402.19</v>
@@ -15621,7 +15623,7 @@
         <v>391.46</v>
       </c>
       <c r="O300" t="n">
-        <v>387.99</v>
+        <v>386.61</v>
       </c>
       <c r="P300" t="n">
         <v>391.46</v>
@@ -15715,7 +15717,7 @@
         <v>384.56</v>
       </c>
       <c r="O302" t="n">
-        <v>389.7</v>
+        <v>388.54</v>
       </c>
       <c r="P302" t="n">
         <v>388.63</v>
@@ -15772,7 +15774,7 @@
         <v>392.68</v>
       </c>
       <c r="O303" t="n">
-        <v>391.69</v>
+        <v>393.98</v>
       </c>
       <c r="P303" t="n">
         <v>394.35</v>
@@ -15829,7 +15831,7 @@
         <v>379.98</v>
       </c>
       <c r="O304" t="n">
-        <v>380.85</v>
+        <v>380.27</v>
       </c>
       <c r="P304" t="n">
         <v>378.98</v>
@@ -15886,7 +15888,7 @@
         <v>382.41</v>
       </c>
       <c r="O305" t="n">
-        <v>379</v>
+        <v>379.56</v>
       </c>
       <c r="P305" t="n">
         <v>381.15</v>
@@ -15943,7 +15945,7 @@
         <v>385.86</v>
       </c>
       <c r="O306" t="n">
-        <v>388.98</v>
+        <v>388.71</v>
       </c>
       <c r="P306" t="inlineStr"/>
       <c r="Q306" t="inlineStr">
@@ -16039,7 +16041,7 @@
         <v>391.54</v>
       </c>
       <c r="O308" t="n">
-        <v>391.17</v>
+        <v>392.7</v>
       </c>
       <c r="P308" t="n">
         <v>390.85</v>
@@ -16070,7 +16072,7 @@
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="n">
-        <v>383.82</v>
+        <v>383.69</v>
       </c>
       <c r="P309" t="n">
         <v>380.81</v>
@@ -16127,7 +16129,7 @@
         <v>381.7</v>
       </c>
       <c r="O310" t="n">
-        <v>379.62</v>
+        <v>379.73</v>
       </c>
       <c r="P310" t="n">
         <v>377.14</v>
@@ -16184,7 +16186,7 @@
         <v>384.48</v>
       </c>
       <c r="O311" t="n">
-        <v>382.27</v>
+        <v>383.71</v>
       </c>
       <c r="P311" t="n">
         <v>383.72</v>
@@ -16241,7 +16243,7 @@
         <v>387.66</v>
       </c>
       <c r="O312" t="n">
-        <v>393.23</v>
+        <v>392.19</v>
       </c>
       <c r="P312" t="n">
         <v>393.55</v>
@@ -16298,7 +16300,7 @@
         <v>399.51</v>
       </c>
       <c r="O313" t="n">
-        <v>411.37</v>
+        <v>409.93</v>
       </c>
       <c r="P313" t="n">
         <v>402.14</v>
@@ -16382,7 +16384,7 @@
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="n">
-        <v>392.63</v>
+        <v>391.03</v>
       </c>
       <c r="P315" t="n">
         <v>392.52</v>
@@ -16490,7 +16492,7 @@
         <v>385.68</v>
       </c>
       <c r="O317" t="n">
-        <v>386.98</v>
+        <v>388.83</v>
       </c>
       <c r="P317" t="n">
         <v>390.66</v>
@@ -16547,7 +16549,7 @@
         <v>385.39</v>
       </c>
       <c r="O318" t="n">
-        <v>387.08</v>
+        <v>385.81</v>
       </c>
       <c r="P318" t="n">
         <v>381.01</v>
@@ -16629,7 +16631,7 @@
         <v>380.82</v>
       </c>
       <c r="O320" t="n">
-        <v>382.1</v>
+        <v>382.05</v>
       </c>
       <c r="P320" t="n">
         <v>381.79</v>
@@ -16686,7 +16688,7 @@
         <v>380.13</v>
       </c>
       <c r="O321" t="n">
-        <v>383.17</v>
+        <v>382.57</v>
       </c>
       <c r="P321" t="n">
         <v>383.42</v>
@@ -16774,7 +16776,7 @@
         <v>364.64</v>
       </c>
       <c r="O323" t="n">
-        <v>371.34</v>
+        <v>370.38</v>
       </c>
       <c r="P323" t="n">
         <v>376.21</v>
@@ -16807,7 +16809,7 @@
         <v>386.33</v>
       </c>
       <c r="O324" t="n">
-        <v>386.39</v>
+        <v>387.81</v>
       </c>
       <c r="P324" t="n">
         <v>385.25</v>
@@ -16899,7 +16901,7 @@
         <v>383.26</v>
       </c>
       <c r="O326" t="n">
-        <v>383.36</v>
+        <v>385.91</v>
       </c>
       <c r="P326" t="n">
         <v>383.68</v>
@@ -16956,7 +16958,7 @@
         <v>389.59</v>
       </c>
       <c r="O327" t="n">
-        <v>391.84</v>
+        <v>394.17</v>
       </c>
       <c r="P327" t="n">
         <v>391.44</v>
@@ -17062,7 +17064,7 @@
         <v>368.45</v>
       </c>
       <c r="O329" t="n">
-        <v>379.74</v>
+        <v>379.78</v>
       </c>
       <c r="P329" t="n">
         <v>377.11</v>
@@ -17148,7 +17150,7 @@
         <v>391.73</v>
       </c>
       <c r="O331" t="n">
-        <v>418.39</v>
+        <v>416.72</v>
       </c>
       <c r="P331" t="inlineStr"/>
       <c r="Q331" t="inlineStr">
@@ -17203,7 +17205,7 @@
         <v>377.72</v>
       </c>
       <c r="O332" t="n">
-        <v>378.4</v>
+        <v>380.09</v>
       </c>
       <c r="P332" t="n">
         <v>368.06</v>
@@ -17260,7 +17262,7 @@
         <v>375.21</v>
       </c>
       <c r="O333" t="n">
-        <v>400.77</v>
+        <v>399.48</v>
       </c>
       <c r="P333" t="n">
         <v>399.97</v>
@@ -17317,7 +17319,7 @@
         <v>387.41</v>
       </c>
       <c r="O334" t="n">
-        <v>412.89</v>
+        <v>411.25</v>
       </c>
       <c r="P334" t="n">
         <v>416.36</v>
@@ -17354,7 +17356,7 @@
         <v>386.51</v>
       </c>
       <c r="O335" t="n">
-        <v>385.16</v>
+        <v>387.25</v>
       </c>
       <c r="P335" t="n">
         <v>381.58</v>
@@ -17411,7 +17413,7 @@
         <v>383.49</v>
       </c>
       <c r="O336" t="n">
-        <v>388.89</v>
+        <v>386.98</v>
       </c>
       <c r="P336" t="inlineStr"/>
       <c r="Q336" t="inlineStr">
@@ -17466,7 +17468,7 @@
         <v>376.22</v>
       </c>
       <c r="O337" t="n">
-        <v>375.19</v>
+        <v>373.94</v>
       </c>
       <c r="P337" t="n">
         <v>379.37</v>
@@ -17523,7 +17525,7 @@
         <v>377.37</v>
       </c>
       <c r="O338" t="n">
-        <v>374.36</v>
+        <v>373.98</v>
       </c>
       <c r="P338" t="inlineStr"/>
       <c r="Q338" t="inlineStr">
@@ -17631,7 +17633,7 @@
         <v>387.07</v>
       </c>
       <c r="O340" t="n">
-        <v>382.1</v>
+        <v>382.54</v>
       </c>
       <c r="P340" t="n">
         <v>382.3</v>
@@ -17688,7 +17690,7 @@
         <v>379.76</v>
       </c>
       <c r="O341" t="n">
-        <v>379.11</v>
+        <v>380.6</v>
       </c>
       <c r="P341" t="n">
         <v>367.95</v>
@@ -17827,7 +17829,7 @@
         <v>384.78</v>
       </c>
       <c r="O344" t="n">
-        <v>380.91</v>
+        <v>382.24</v>
       </c>
       <c r="P344" t="n">
         <v>377.69</v>
@@ -17884,7 +17886,7 @@
         <v>391.59</v>
       </c>
       <c r="O345" t="n">
-        <v>396.84</v>
+        <v>395.24</v>
       </c>
       <c r="P345" t="n">
         <v>410.36</v>
@@ -17935,7 +17937,7 @@
         <v>376.52</v>
       </c>
       <c r="O346" t="n">
-        <v>384.24</v>
+        <v>383.04</v>
       </c>
       <c r="P346" t="n">
         <v>389.91</v>
@@ -17992,7 +17994,7 @@
         <v>383.17</v>
       </c>
       <c r="O347" t="n">
-        <v>386.12</v>
+        <v>386.59</v>
       </c>
       <c r="P347" t="n">
         <v>382.89</v>
@@ -18031,7 +18033,7 @@
         <v>382.97</v>
       </c>
       <c r="O348" t="n">
-        <v>392.45</v>
+        <v>391.49</v>
       </c>
       <c r="P348" t="n">
         <v>396.52</v>
@@ -18080,7 +18082,7 @@
         <v>375.68</v>
       </c>
       <c r="O349" t="n">
-        <v>388.82</v>
+        <v>388.77</v>
       </c>
       <c r="P349" t="n">
         <v>387.08</v>
@@ -18137,7 +18139,7 @@
         <v>376.85</v>
       </c>
       <c r="O350" t="n">
-        <v>390.81</v>
+        <v>390.03</v>
       </c>
       <c r="P350" t="n">
         <v>389.72</v>
@@ -18194,7 +18196,7 @@
         <v>387.97</v>
       </c>
       <c r="O351" t="n">
-        <v>403.31</v>
+        <v>401.93</v>
       </c>
       <c r="P351" t="n">
         <v>403.05</v>
@@ -18251,7 +18253,7 @@
         <v>386.49</v>
       </c>
       <c r="O352" t="n">
-        <v>385.97</v>
+        <v>387.86</v>
       </c>
       <c r="P352" t="n">
         <v>389.23</v>
@@ -18355,7 +18357,7 @@
         <v>382.58</v>
       </c>
       <c r="O354" t="n">
-        <v>385.4</v>
+        <v>385.98</v>
       </c>
       <c r="P354" t="n">
         <v>379.89</v>
@@ -18388,7 +18390,7 @@
         <v>387.22</v>
       </c>
       <c r="O355" t="n">
-        <v>392.58</v>
+        <v>393.58</v>
       </c>
       <c r="P355" t="n">
         <v>380.12</v>
@@ -18488,7 +18490,7 @@
         <v>378.13</v>
       </c>
       <c r="O357" t="n">
-        <v>380.84</v>
+        <v>381.48</v>
       </c>
       <c r="P357" t="n">
         <v>378.48</v>
@@ -18531,7 +18533,7 @@
         <v>383.51</v>
       </c>
       <c r="O358" t="n">
-        <v>382.69</v>
+        <v>384.13</v>
       </c>
       <c r="P358" t="n">
         <v>377.63</v>
@@ -18686,7 +18688,7 @@
         <v>387.53</v>
       </c>
       <c r="O361" t="n">
-        <v>386.03</v>
+        <v>387.76</v>
       </c>
       <c r="P361" t="n">
         <v>382.3</v>
@@ -18743,7 +18745,7 @@
         <v>393.35</v>
       </c>
       <c r="O362" t="n">
-        <v>389.49</v>
+        <v>391.25</v>
       </c>
       <c r="P362" t="n">
         <v>388.44</v>
@@ -18792,7 +18794,7 @@
         <v>386.71</v>
       </c>
       <c r="O363" t="n">
-        <v>390.91</v>
+        <v>392.89</v>
       </c>
       <c r="P363" t="n">
         <v>393.59</v>
@@ -18849,7 +18851,7 @@
         <v>386.2</v>
       </c>
       <c r="O364" t="n">
-        <v>387.22</v>
+        <v>387.49</v>
       </c>
       <c r="P364" t="n">
         <v>386.9</v>
@@ -18925,7 +18927,7 @@
         <v>381.59</v>
       </c>
       <c r="O366" t="n">
-        <v>376.92</v>
+        <v>377.34</v>
       </c>
       <c r="P366" t="n">
         <v>379.03</v>
@@ -19011,7 +19013,7 @@
         <v>389.97</v>
       </c>
       <c r="O368" t="n">
-        <v>387.27</v>
+        <v>385.89</v>
       </c>
       <c r="P368" t="n">
         <v>387.3</v>
@@ -19066,7 +19068,7 @@
         <v>385.06</v>
       </c>
       <c r="O369" t="n">
-        <v>385.34</v>
+        <v>387.69</v>
       </c>
       <c r="P369" t="n">
         <v>381.75</v>
@@ -19123,7 +19125,7 @@
         <v>383.2</v>
       </c>
       <c r="O370" t="n">
-        <v>382.36</v>
+        <v>384.11</v>
       </c>
       <c r="P370" t="n">
         <v>385.38</v>
@@ -19180,7 +19182,7 @@
         <v>401.58</v>
       </c>
       <c r="O371" t="n">
-        <v>403.93</v>
+        <v>401.98</v>
       </c>
       <c r="P371" t="n">
         <v>396.22</v>
@@ -19237,7 +19239,7 @@
         <v>384.34</v>
       </c>
       <c r="O372" t="n">
-        <v>388.98</v>
+        <v>389.33</v>
       </c>
       <c r="P372" t="n">
         <v>387.19</v>
@@ -19329,7 +19331,7 @@
         <v>383.98</v>
       </c>
       <c r="O374" t="n">
-        <v>385.53</v>
+        <v>384.58</v>
       </c>
       <c r="P374" t="n">
         <v>383.29</v>
@@ -19386,7 +19388,7 @@
         <v>382.51</v>
       </c>
       <c r="O375" t="n">
-        <v>380.66</v>
+        <v>381.59</v>
       </c>
       <c r="P375" t="n">
         <v>377.53</v>
@@ -19496,7 +19498,7 @@
         <v>392.46</v>
       </c>
       <c r="O377" t="n">
-        <v>386.95</v>
+        <v>387.99</v>
       </c>
       <c r="P377" t="n">
         <v>391.34</v>
@@ -19541,7 +19543,7 @@
         <v>380.44</v>
       </c>
       <c r="O378" t="n">
-        <v>372.94</v>
+        <v>373.3</v>
       </c>
       <c r="P378" t="n">
         <v>368.62</v>
@@ -19645,7 +19647,7 @@
         <v>391.5</v>
       </c>
       <c r="O380" t="n">
-        <v>388.12</v>
+        <v>390.05</v>
       </c>
       <c r="P380" t="n">
         <v>389.76</v>
@@ -19702,7 +19704,7 @@
         <v>382.84</v>
       </c>
       <c r="O381" t="n">
-        <v>383.34</v>
+        <v>382.39</v>
       </c>
       <c r="P381" t="n">
         <v>382.54</v>
@@ -19759,7 +19761,7 @@
         <v>403.8</v>
       </c>
       <c r="O382" t="n">
-        <v>401.51</v>
+        <v>400.02</v>
       </c>
       <c r="P382" t="n">
         <v>400.32</v>
@@ -19816,7 +19818,7 @@
         <v>382.3</v>
       </c>
       <c r="O383" t="n">
-        <v>381.35</v>
+        <v>380.22</v>
       </c>
       <c r="P383" t="n">
         <v>380.97</v>
@@ -19873,7 +19875,7 @@
         <v>393.65</v>
       </c>
       <c r="O384" t="n">
-        <v>392.01</v>
+        <v>393.7</v>
       </c>
       <c r="P384" t="n">
         <v>394.24</v>
@@ -19930,7 +19932,7 @@
         <v>382.46</v>
       </c>
       <c r="O385" t="n">
-        <v>379.45</v>
+        <v>379.07</v>
       </c>
       <c r="P385" t="n">
         <v>379.16</v>
@@ -20012,7 +20014,7 @@
         <v>390.58</v>
       </c>
       <c r="O387" t="n">
-        <v>385.39</v>
+        <v>386.19</v>
       </c>
       <c r="P387" t="n">
         <v>387.14</v>
@@ -20069,7 +20071,7 @@
         <v>387.72</v>
       </c>
       <c r="O388" t="n">
-        <v>388.06</v>
+        <v>388.19</v>
       </c>
       <c r="P388" t="n">
         <v>386.38</v>
@@ -20126,7 +20128,7 @@
         <v>388.93</v>
       </c>
       <c r="O389" t="n">
-        <v>383.57</v>
+        <v>385.17</v>
       </c>
       <c r="P389" t="n">
         <v>393.34</v>
@@ -20183,7 +20185,7 @@
         <v>381.34</v>
       </c>
       <c r="O390" t="n">
-        <v>380.09</v>
+        <v>379.04</v>
       </c>
       <c r="P390" t="n">
         <v>379.69</v>
@@ -20240,7 +20242,7 @@
         <v>397.06</v>
       </c>
       <c r="O391" t="n">
-        <v>382.91</v>
+        <v>381.42</v>
       </c>
       <c r="P391" t="n">
         <v>387.15</v>
@@ -20371,7 +20373,7 @@
         <v>384.47</v>
       </c>
       <c r="O394" t="n">
-        <v>385.5</v>
+        <v>384.23</v>
       </c>
       <c r="P394" t="n">
         <v>381.39</v>
@@ -20428,7 +20430,7 @@
         <v>389.74</v>
       </c>
       <c r="O395" t="n">
-        <v>386.16</v>
+        <v>387.32</v>
       </c>
       <c r="P395" t="n">
         <v>384.06</v>
@@ -20514,7 +20516,7 @@
         <v>396.28</v>
       </c>
       <c r="O397" t="n">
-        <v>383.53</v>
+        <v>382.04</v>
       </c>
       <c r="P397" t="n">
         <v>384.72</v>
@@ -20600,7 +20602,7 @@
         <v>385.5</v>
       </c>
       <c r="O399" t="n">
-        <v>384.15</v>
+        <v>384.68</v>
       </c>
       <c r="P399" t="n">
         <v>383.28</v>
@@ -20696,7 +20698,7 @@
         <v>387.84</v>
       </c>
       <c r="O401" t="n">
-        <v>389.7</v>
+        <v>391.14</v>
       </c>
       <c r="P401" t="n">
         <v>388.86</v>
@@ -20786,7 +20788,7 @@
         <v>385.68</v>
       </c>
       <c r="O403" t="n">
-        <v>372.81</v>
+        <v>371.01</v>
       </c>
       <c r="P403" t="n">
         <v>379.21</v>
@@ -20843,7 +20845,7 @@
         <v>387.72</v>
       </c>
       <c r="O404" t="n">
-        <v>386.94</v>
+        <v>388.49</v>
       </c>
       <c r="P404" t="n">
         <v>384.44</v>
@@ -20894,7 +20896,7 @@
         <v>365.6</v>
       </c>
       <c r="O405" t="n">
-        <v>378.33</v>
+        <v>376.48</v>
       </c>
       <c r="P405" t="inlineStr"/>
       <c r="Q405" t="inlineStr">
@@ -20949,7 +20951,7 @@
         <v>390.32</v>
       </c>
       <c r="O406" t="n">
-        <v>393.2</v>
+        <v>392.11</v>
       </c>
       <c r="P406" t="n">
         <v>390.45</v>
@@ -21155,7 +21157,7 @@
         <v>378.2</v>
       </c>
       <c r="O410" t="n">
-        <v>381.8</v>
+        <v>380.56</v>
       </c>
       <c r="P410" t="n">
         <v>381.24</v>
@@ -21212,7 +21214,7 @@
         <v>384.56</v>
       </c>
       <c r="O411" t="n">
-        <v>383.67</v>
+        <v>384.85</v>
       </c>
       <c r="P411" t="n">
         <v>384.35</v>
@@ -21269,7 +21271,7 @@
         <v>391.45</v>
       </c>
       <c r="O412" t="n">
-        <v>385.58</v>
+        <v>386.42</v>
       </c>
       <c r="P412" t="n">
         <v>385.72</v>
@@ -21326,7 +21328,7 @@
         <v>388.39</v>
       </c>
       <c r="O413" t="n">
-        <v>386.34</v>
+        <v>387.58</v>
       </c>
       <c r="P413" t="n">
         <v>388.32</v>
@@ -21383,7 +21385,7 @@
         <v>387.42</v>
       </c>
       <c r="O414" t="n">
-        <v>386.08</v>
+        <v>386.43</v>
       </c>
       <c r="P414" t="n">
         <v>386.69</v>
@@ -21440,7 +21442,7 @@
         <v>387.28</v>
       </c>
       <c r="O415" t="n">
-        <v>387.98</v>
+        <v>389.93</v>
       </c>
       <c r="P415" t="n">
         <v>388.18</v>
@@ -21506,7 +21508,7 @@
         <v>390.85</v>
       </c>
       <c r="O417" t="n">
-        <v>390.03</v>
+        <v>391.96</v>
       </c>
       <c r="P417" t="n">
         <v>391.34</v>
@@ -21563,7 +21565,7 @@
         <v>394.16</v>
       </c>
       <c r="O418" t="n">
-        <v>393.95</v>
+        <v>395.91</v>
       </c>
       <c r="P418" t="n">
         <v>395.04</v>
@@ -21604,7 +21606,7 @@
         <v>391.52</v>
       </c>
       <c r="O419" t="n">
-        <v>401.3</v>
+        <v>399.95</v>
       </c>
       <c r="P419" t="n">
         <v>394.34</v>
@@ -21710,7 +21712,7 @@
         <v>392.12</v>
       </c>
       <c r="O421" t="n">
-        <v>393.45</v>
+        <v>395.89</v>
       </c>
       <c r="P421" t="n">
         <v>394.18</v>
@@ -21796,7 +21798,7 @@
         <v>386.24</v>
       </c>
       <c r="O423" t="n">
-        <v>385.35</v>
+        <v>385.02</v>
       </c>
       <c r="P423" t="n">
         <v>386.93</v>
@@ -21835,7 +21837,7 @@
         <v>392.04</v>
       </c>
       <c r="O424" t="n">
-        <v>394.11</v>
+        <v>395.93</v>
       </c>
       <c r="P424" t="n">
         <v>400.52</v>
@@ -21935,7 +21937,7 @@
         <v>392.05</v>
       </c>
       <c r="O426" t="n">
-        <v>395.42</v>
+        <v>394.13</v>
       </c>
       <c r="P426" t="n">
         <v>377.92</v>
@@ -21992,7 +21994,7 @@
         <v>416.3</v>
       </c>
       <c r="O427" t="n">
-        <v>436.03</v>
+        <v>434.03</v>
       </c>
       <c r="P427" t="n">
         <v>410.34</v>
@@ -22049,7 +22051,7 @@
         <v>400.82</v>
       </c>
       <c r="O428" t="n">
-        <v>399.52</v>
+        <v>401.17</v>
       </c>
       <c r="P428" t="inlineStr"/>
       <c r="Q428" t="inlineStr">
@@ -22080,7 +22082,7 @@
         <v>394.08</v>
       </c>
       <c r="O429" t="n">
-        <v>393.48</v>
+        <v>391.95</v>
       </c>
       <c r="P429" t="inlineStr"/>
       <c r="Q429" t="inlineStr">
@@ -22168,7 +22170,7 @@
       <c r="M431" t="inlineStr"/>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="n">
-        <v>383.33</v>
+        <v>383.49</v>
       </c>
       <c r="P431" t="inlineStr"/>
       <c r="Q431" t="inlineStr">
@@ -22246,7 +22248,7 @@
         <v>387.83</v>
       </c>
       <c r="O433" t="n">
-        <v>387.75</v>
+        <v>388.19</v>
       </c>
       <c r="P433" t="n">
         <v>384.32</v>
@@ -22303,7 +22305,7 @@
         <v>385.2</v>
       </c>
       <c r="O434" t="n">
-        <v>383.54</v>
+        <v>382.54</v>
       </c>
       <c r="P434" t="inlineStr"/>
       <c r="Q434" t="inlineStr">
@@ -22401,7 +22403,7 @@
         <v>390.51</v>
       </c>
       <c r="O436" t="n">
-        <v>389.63</v>
+        <v>392.19</v>
       </c>
       <c r="P436" t="n">
         <v>395.34</v>
@@ -22458,7 +22460,7 @@
         <v>392.23</v>
       </c>
       <c r="O437" t="n">
-        <v>388.07</v>
+        <v>390.43</v>
       </c>
       <c r="P437" t="n">
         <v>387.23</v>
@@ -22511,7 +22513,7 @@
         <v>379.76</v>
       </c>
       <c r="O438" t="n">
-        <v>374.94</v>
+        <v>374.32</v>
       </c>
       <c r="P438" t="n">
         <v>374.1</v>
@@ -22611,7 +22613,7 @@
         <v>388.1</v>
       </c>
       <c r="O440" t="n">
-        <v>389.95</v>
+        <v>390.13</v>
       </c>
       <c r="P440" t="n">
         <v>387.65</v>
@@ -22668,7 +22670,7 @@
         <v>378.34</v>
       </c>
       <c r="O441" t="n">
-        <v>375.27</v>
+        <v>375.07</v>
       </c>
       <c r="P441" t="n">
         <v>373.94</v>
@@ -22725,7 +22727,7 @@
         <v>383.87</v>
       </c>
       <c r="O442" t="n">
-        <v>378.84</v>
+        <v>380.08</v>
       </c>
       <c r="P442" t="n">
         <v>377.66</v>
@@ -22782,7 +22784,7 @@
         <v>385.09</v>
       </c>
       <c r="O443" t="n">
-        <v>391.93</v>
+        <v>394.4</v>
       </c>
       <c r="P443" t="inlineStr"/>
       <c r="Q443" t="inlineStr">
@@ -22837,7 +22839,7 @@
         <v>377.74</v>
       </c>
       <c r="O444" t="n">
-        <v>378.19</v>
+        <v>377.14</v>
       </c>
       <c r="P444" t="n">
         <v>378.55</v>
@@ -22894,7 +22896,7 @@
         <v>373.74</v>
       </c>
       <c r="O445" t="n">
-        <v>376.72</v>
+        <v>376.92</v>
       </c>
       <c r="P445" t="n">
         <v>381.34</v>
@@ -22951,7 +22953,7 @@
         <v>386.6</v>
       </c>
       <c r="O446" t="n">
-        <v>386.07</v>
+        <v>387.36</v>
       </c>
       <c r="P446" t="n">
         <v>383.98</v>
@@ -23008,7 +23010,7 @@
         <v>388.44</v>
       </c>
       <c r="O447" t="n">
-        <v>389.82</v>
+        <v>391.2</v>
       </c>
       <c r="P447" t="n">
         <v>390.33</v>
@@ -23065,7 +23067,7 @@
         <v>386.76</v>
       </c>
       <c r="O448" t="n">
-        <v>385.82</v>
+        <v>385.97</v>
       </c>
       <c r="P448" t="n">
         <v>384.68</v>
@@ -23104,7 +23106,7 @@
         <v>378.24</v>
       </c>
       <c r="O449" t="n">
-        <v>383.54</v>
+        <v>382.78</v>
       </c>
       <c r="P449" t="n">
         <v>380.58</v>
@@ -23161,7 +23163,7 @@
         <v>381.16</v>
       </c>
       <c r="O450" t="n">
-        <v>379.53</v>
+        <v>378.58</v>
       </c>
       <c r="P450" t="n">
         <v>379.25</v>
@@ -23214,7 +23216,7 @@
         <v>375.58</v>
       </c>
       <c r="O451" t="n">
-        <v>373.46</v>
+        <v>372.3</v>
       </c>
       <c r="P451" t="inlineStr"/>
       <c r="Q451" t="inlineStr">
@@ -23269,7 +23271,7 @@
         <v>387.45</v>
       </c>
       <c r="O452" t="n">
-        <v>386.12</v>
+        <v>388.43</v>
       </c>
       <c r="P452" t="n">
         <v>381.81</v>
@@ -23326,7 +23328,7 @@
         <v>388.58</v>
       </c>
       <c r="O453" t="n">
-        <v>388.33</v>
+        <v>389.49</v>
       </c>
       <c r="P453" t="n">
         <v>390.51</v>
@@ -23383,7 +23385,7 @@
         <v>385.01</v>
       </c>
       <c r="O454" t="n">
-        <v>392.25</v>
+        <v>390.56</v>
       </c>
       <c r="P454" t="n">
         <v>386.49</v>
@@ -23473,7 +23475,7 @@
         <v>390.27</v>
       </c>
       <c r="O456" t="n">
-        <v>390.06</v>
+        <v>390.22</v>
       </c>
       <c r="P456" t="inlineStr"/>
       <c r="Q456" t="inlineStr">
@@ -23528,7 +23530,7 @@
         <v>389.24</v>
       </c>
       <c r="O457" t="n">
-        <v>390.15</v>
+        <v>390.08</v>
       </c>
       <c r="P457" t="n">
         <v>389.54</v>
@@ -23585,7 +23587,7 @@
         <v>379.77</v>
       </c>
       <c r="O458" t="n">
-        <v>380.37</v>
+        <v>380.53</v>
       </c>
       <c r="P458" t="n">
         <v>376.65</v>
@@ -23687,7 +23689,7 @@
         <v>372.47</v>
       </c>
       <c r="O460" t="n">
-        <v>374.38</v>
+        <v>372.63</v>
       </c>
       <c r="P460" t="inlineStr"/>
       <c r="Q460" t="inlineStr">
@@ -23742,7 +23744,7 @@
         <v>389.61</v>
       </c>
       <c r="O461" t="n">
-        <v>388.78</v>
+        <v>386.83</v>
       </c>
       <c r="P461" t="inlineStr"/>
       <c r="Q461" t="inlineStr">
@@ -23797,7 +23799,7 @@
         <v>391.38</v>
       </c>
       <c r="O462" t="n">
-        <v>386.58</v>
+        <v>388.14</v>
       </c>
       <c r="P462" t="n">
         <v>389.1</v>
@@ -23838,7 +23840,7 @@
         <v>387.73</v>
       </c>
       <c r="O463" t="n">
-        <v>387.36</v>
+        <v>385.94</v>
       </c>
       <c r="P463" t="n">
         <v>373.94</v>
@@ -23885,7 +23887,7 @@
         <v>377.71</v>
       </c>
       <c r="O464" t="n">
-        <v>379.45</v>
+        <v>379.09</v>
       </c>
       <c r="P464" t="inlineStr"/>
       <c r="Q464" t="inlineStr">
@@ -23977,7 +23979,7 @@
         <v>372.08</v>
       </c>
       <c r="O466" t="n">
-        <v>370.19</v>
+        <v>369.63</v>
       </c>
       <c r="P466" t="n">
         <v>370.49</v>
@@ -24087,7 +24089,7 @@
         <v>385.29</v>
       </c>
       <c r="O468" t="n">
-        <v>378.75</v>
+        <v>379.82</v>
       </c>
       <c r="P468" t="n">
         <v>390.13</v>
@@ -24183,7 +24185,7 @@
         <v>381.91</v>
       </c>
       <c r="O470" t="n">
-        <v>380.29</v>
+        <v>380.27</v>
       </c>
       <c r="P470" t="n">
         <v>382.22</v>
@@ -24240,7 +24242,7 @@
         <v>381.07</v>
       </c>
       <c r="O471" t="n">
-        <v>383.26</v>
+        <v>383.24</v>
       </c>
       <c r="P471" t="n">
         <v>379.5</v>
@@ -24287,7 +24289,7 @@
         <v>376.1</v>
       </c>
       <c r="O472" t="n">
-        <v>373.88</v>
+        <v>373.73</v>
       </c>
       <c r="P472" t="n">
         <v>378.74</v>
@@ -24324,7 +24326,7 @@
         <v>382.16</v>
       </c>
       <c r="O473" t="n">
-        <v>382.89</v>
+        <v>384.76</v>
       </c>
       <c r="P473" t="n">
         <v>382.96</v>
@@ -24430,7 +24432,7 @@
         <v>387.14</v>
       </c>
       <c r="O475" t="n">
-        <v>388.58</v>
+        <v>390.63</v>
       </c>
       <c r="P475" t="n">
         <v>386.46</v>
@@ -24487,7 +24489,7 @@
         <v>374.46</v>
       </c>
       <c r="O476" t="n">
-        <v>371.77</v>
+        <v>371.06</v>
       </c>
       <c r="P476" t="n">
         <v>372.7</v>
@@ -24544,7 +24546,7 @@
         <v>384.37</v>
       </c>
       <c r="O477" t="n">
-        <v>386.29</v>
+        <v>384.8</v>
       </c>
       <c r="P477" t="n">
         <v>389.76</v>
@@ -24601,7 +24603,7 @@
         <v>379.59</v>
       </c>
       <c r="O478" t="n">
-        <v>379.56</v>
+        <v>380.18</v>
       </c>
       <c r="P478" t="n">
         <v>389.08</v>
@@ -24658,7 +24660,7 @@
         <v>382.6</v>
       </c>
       <c r="O479" t="n">
-        <v>383.18</v>
+        <v>382.82</v>
       </c>
       <c r="P479" t="n">
         <v>383.84</v>
@@ -24715,7 +24717,7 @@
         <v>382.43</v>
       </c>
       <c r="O480" t="n">
-        <v>386.74</v>
+        <v>388.05</v>
       </c>
       <c r="P480" t="n">
         <v>388.63</v>
@@ -24772,7 +24774,7 @@
         <v>385.58</v>
       </c>
       <c r="O481" t="n">
-        <v>389.48</v>
+        <v>389.99</v>
       </c>
       <c r="P481" t="n">
         <v>392.38</v>
@@ -24813,7 +24815,7 @@
         <v>380.51</v>
       </c>
       <c r="O482" t="n">
-        <v>381.65</v>
+        <v>383.56</v>
       </c>
       <c r="P482" t="n">
         <v>371.96</v>
@@ -24870,7 +24872,7 @@
         <v>376.88</v>
       </c>
       <c r="O483" t="n">
-        <v>379.02</v>
+        <v>379.64</v>
       </c>
       <c r="P483" t="n">
         <v>379.59</v>
@@ -24985,7 +24987,7 @@
         <v>373.52</v>
       </c>
       <c r="O486" t="n">
-        <v>372.98</v>
+        <v>371.49</v>
       </c>
       <c r="P486" t="n">
         <v>376.69</v>
@@ -25016,7 +25018,7 @@
       <c r="M487" t="inlineStr"/>
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="n">
-        <v>392.27</v>
+        <v>394.34</v>
       </c>
       <c r="P487" t="inlineStr"/>
       <c r="Q487" t="inlineStr">
@@ -25124,7 +25126,7 @@
         <v>388.93</v>
       </c>
       <c r="O489" t="n">
-        <v>387.89</v>
+        <v>389.22</v>
       </c>
       <c r="P489" t="n">
         <v>391.77</v>
@@ -25181,7 +25183,7 @@
         <v>383.63</v>
       </c>
       <c r="O490" t="n">
-        <v>380.41</v>
+        <v>380.48</v>
       </c>
       <c r="P490" t="inlineStr"/>
       <c r="Q490" t="inlineStr">
@@ -25236,7 +25238,7 @@
         <v>385.74</v>
       </c>
       <c r="O491" t="n">
-        <v>385.75</v>
+        <v>386.68</v>
       </c>
       <c r="P491" t="n">
         <v>387.94</v>
@@ -25293,7 +25295,7 @@
         <v>382.73</v>
       </c>
       <c r="O492" t="n">
-        <v>383.63</v>
+        <v>383.39</v>
       </c>
       <c r="P492" t="n">
         <v>382.08</v>
@@ -25342,7 +25344,7 @@
         <v>386.03</v>
       </c>
       <c r="O493" t="n">
-        <v>370.7</v>
+        <v>370.68</v>
       </c>
       <c r="P493" t="n">
         <v>360.65</v>
@@ -25399,7 +25401,7 @@
         <v>384.66</v>
       </c>
       <c r="O494" t="n">
-        <v>383.09</v>
+        <v>384.13</v>
       </c>
       <c r="P494" t="n">
         <v>387.45</v>
@@ -25493,7 +25495,7 @@
         <v>386.68</v>
       </c>
       <c r="O496" t="n">
-        <v>382.25</v>
+        <v>381</v>
       </c>
       <c r="P496" t="n">
         <v>394.74</v>
@@ -25581,7 +25583,7 @@
         <v>368.76</v>
       </c>
       <c r="O498" t="n">
-        <v>367.99</v>
+        <v>368.84</v>
       </c>
       <c r="P498" t="n">
         <v>370.83</v>
@@ -25612,7 +25614,7 @@
       <c r="M499" t="inlineStr"/>
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="n">
-        <v>386.54</v>
+        <v>384.74</v>
       </c>
       <c r="P499" t="inlineStr"/>
       <c r="Q499" t="inlineStr">
@@ -25667,7 +25669,7 @@
         <v>382.22</v>
       </c>
       <c r="O500" t="n">
-        <v>385.32</v>
+        <v>384.14</v>
       </c>
       <c r="P500" t="n">
         <v>383.27</v>
@@ -25724,7 +25726,7 @@
         <v>388.31</v>
       </c>
       <c r="O501" t="n">
-        <v>385.49</v>
+        <v>387.58</v>
       </c>
       <c r="P501" t="n">
         <v>383.96</v>
@@ -25822,7 +25824,7 @@
         <v>386.89</v>
       </c>
       <c r="O503" t="n">
-        <v>384.36</v>
+        <v>385.81</v>
       </c>
       <c r="P503" t="n">
         <v>388.81</v>
@@ -25879,7 +25881,7 @@
         <v>373.19</v>
       </c>
       <c r="O504" t="n">
-        <v>369.25</v>
+        <v>367.7</v>
       </c>
       <c r="P504" t="n">
         <v>374.98</v>
@@ -26108,7 +26110,7 @@
         <v>405.32</v>
       </c>
       <c r="O509" t="n">
-        <v>399.08</v>
+        <v>397.35</v>
       </c>
       <c r="P509" t="n">
         <v>391.82</v>
@@ -26165,7 +26167,7 @@
         <v>375.39</v>
       </c>
       <c r="O510" t="n">
-        <v>371.89</v>
+        <v>370.8</v>
       </c>
       <c r="P510" t="n">
         <v>379.04</v>
@@ -26222,7 +26224,7 @@
         <v>376.6</v>
       </c>
       <c r="O511" t="n">
-        <v>376.8</v>
+        <v>375.44</v>
       </c>
       <c r="P511" t="n">
         <v>380.49</v>
@@ -26275,7 +26277,7 @@
         <v>365.92</v>
       </c>
       <c r="O512" t="n">
-        <v>363.28</v>
+        <v>361.68</v>
       </c>
       <c r="P512" t="inlineStr"/>
       <c r="Q512" t="inlineStr">
@@ -26377,7 +26379,7 @@
         <v>374.16</v>
       </c>
       <c r="O514" t="n">
-        <v>377.94</v>
+        <v>379.61</v>
       </c>
       <c r="P514" t="n">
         <v>378.05</v>
@@ -26434,7 +26436,7 @@
         <v>374.51</v>
       </c>
       <c r="O515" t="n">
-        <v>373.13</v>
+        <v>372.44</v>
       </c>
       <c r="P515" t="n">
         <v>375.92</v>
@@ -26491,7 +26493,7 @@
         <v>373.85</v>
       </c>
       <c r="O516" t="n">
-        <v>372.07</v>
+        <v>370.83</v>
       </c>
       <c r="P516" t="n">
         <v>374.86</v>
@@ -26548,7 +26550,7 @@
         <v>380.05</v>
       </c>
       <c r="O517" t="n">
-        <v>382</v>
+        <v>384.13</v>
       </c>
       <c r="P517" t="n">
         <v>404.97</v>
@@ -26648,7 +26650,7 @@
         <v>378.18</v>
       </c>
       <c r="O519" t="n">
-        <v>377.79</v>
+        <v>379.72</v>
       </c>
       <c r="P519" t="n">
         <v>383.85</v>
@@ -26705,7 +26707,7 @@
         <v>371.94</v>
       </c>
       <c r="O520" t="n">
-        <v>368.69</v>
+        <v>367.22</v>
       </c>
       <c r="P520" t="n">
         <v>375.14</v>
@@ -26754,7 +26756,7 @@
         <v>373.42</v>
       </c>
       <c r="O521" t="n">
-        <v>369.34</v>
+        <v>368.38</v>
       </c>
       <c r="P521" t="n">
         <v>371.2</v>
@@ -26811,7 +26813,7 @@
         <v>376.78</v>
       </c>
       <c r="O522" t="n">
-        <v>379.44</v>
+        <v>380.89</v>
       </c>
       <c r="P522" t="n">
         <v>375.84</v>
@@ -26868,7 +26870,7 @@
         <v>375.33</v>
       </c>
       <c r="O523" t="n">
-        <v>373.59</v>
+        <v>373.34</v>
       </c>
       <c r="P523" t="n">
         <v>376.9</v>
@@ -26972,7 +26974,7 @@
         <v>385.67</v>
       </c>
       <c r="O525" t="n">
-        <v>384.5</v>
+        <v>385.72</v>
       </c>
       <c r="P525" t="n">
         <v>382.73</v>
@@ -27029,7 +27031,7 @@
         <v>382.85</v>
       </c>
       <c r="O526" t="n">
-        <v>383.38</v>
+        <v>383.93</v>
       </c>
       <c r="P526" t="n">
         <v>382.09</v>
@@ -27115,7 +27117,7 @@
         <v>377.12</v>
       </c>
       <c r="O528" t="n">
-        <v>378.69</v>
+        <v>379.16</v>
       </c>
       <c r="P528" t="n">
         <v>379.93</v>
@@ -27172,7 +27174,7 @@
         <v>377.16</v>
       </c>
       <c r="O529" t="n">
-        <v>379.47</v>
+        <v>379.14</v>
       </c>
       <c r="P529" t="n">
         <v>384.43</v>
@@ -27272,7 +27274,7 @@
         <v>374.88</v>
       </c>
       <c r="O531" t="n">
-        <v>375.31</v>
+        <v>376.6</v>
       </c>
       <c r="P531" t="n">
         <v>373.39</v>
@@ -27321,7 +27323,7 @@
         <v>361.05</v>
       </c>
       <c r="O532" t="n">
-        <v>367.54</v>
+        <v>368.78</v>
       </c>
       <c r="P532" t="inlineStr"/>
       <c r="Q532" t="inlineStr">
@@ -27376,7 +27378,7 @@
         <v>380.87</v>
       </c>
       <c r="O533" t="n">
-        <v>387</v>
+        <v>388.85</v>
       </c>
       <c r="P533" t="n">
         <v>386.42</v>
@@ -27433,7 +27435,7 @@
         <v>384.7</v>
       </c>
       <c r="O534" t="n">
-        <v>379.9</v>
+        <v>378.08</v>
       </c>
       <c r="P534" t="n">
         <v>383.05</v>
@@ -27490,7 +27492,7 @@
         <v>382.83</v>
       </c>
       <c r="O535" t="n">
-        <v>383.35</v>
+        <v>384.55</v>
       </c>
       <c r="P535" t="n">
         <v>385.69</v>
@@ -27547,7 +27549,7 @@
         <v>384.91</v>
       </c>
       <c r="O536" t="n">
-        <v>381.02</v>
+        <v>381.77</v>
       </c>
       <c r="P536" t="n">
         <v>386.77</v>
@@ -27604,7 +27606,7 @@
         <v>376.79</v>
       </c>
       <c r="O537" t="n">
-        <v>376.19</v>
+        <v>375.03</v>
       </c>
       <c r="P537" t="n">
         <v>376.83</v>
@@ -27661,7 +27663,7 @@
         <v>383.19</v>
       </c>
       <c r="O538" t="n">
-        <v>383.43</v>
+        <v>384.36</v>
       </c>
       <c r="P538" t="n">
         <v>386.99</v>
@@ -27718,7 +27720,7 @@
         <v>384.02</v>
       </c>
       <c r="O539" t="n">
-        <v>381.09</v>
+        <v>381.11</v>
       </c>
       <c r="P539" t="n">
         <v>387.08</v>
@@ -27775,7 +27777,7 @@
         <v>367.01</v>
       </c>
       <c r="O540" t="n">
-        <v>365.57</v>
+        <v>365.15</v>
       </c>
       <c r="P540" t="n">
         <v>369.68</v>
@@ -27832,7 +27834,7 @@
         <v>382.6</v>
       </c>
       <c r="O541" t="n">
-        <v>381.36</v>
+        <v>381.76</v>
       </c>
       <c r="P541" t="n">
         <v>381.61</v>
@@ -27889,7 +27891,7 @@
         <v>382.66</v>
       </c>
       <c r="O542" t="n">
-        <v>375.67</v>
+        <v>375.76</v>
       </c>
       <c r="P542" t="n">
         <v>382.09</v>
@@ -27946,7 +27948,7 @@
         <v>392.47</v>
       </c>
       <c r="O543" t="n">
-        <v>378.38</v>
+        <v>376.67</v>
       </c>
       <c r="P543" t="n">
         <v>392.56</v>
@@ -28003,7 +28005,7 @@
         <v>390.63</v>
       </c>
       <c r="O544" t="n">
-        <v>381.55</v>
+        <v>379.91</v>
       </c>
       <c r="P544" t="n">
         <v>390.58</v>
@@ -28060,7 +28062,7 @@
         <v>386.07</v>
       </c>
       <c r="O545" t="n">
-        <v>387.5</v>
+        <v>389.7</v>
       </c>
       <c r="P545" t="n">
         <v>385.99</v>
@@ -28117,7 +28119,7 @@
         <v>363.02</v>
       </c>
       <c r="O546" t="n">
-        <v>367.58</v>
+        <v>366.23</v>
       </c>
       <c r="P546" t="n">
         <v>363.25</v>
@@ -28174,7 +28176,7 @@
         <v>383.99</v>
       </c>
       <c r="O547" t="n">
-        <v>384.56</v>
+        <v>385.96</v>
       </c>
       <c r="P547" t="n">
         <v>384.67</v>
@@ -28260,7 +28262,7 @@
         <v>394.96</v>
       </c>
       <c r="O549" t="n">
-        <v>390.78</v>
+        <v>388.8</v>
       </c>
       <c r="P549" t="n">
         <v>396.74</v>
@@ -28317,7 +28319,7 @@
         <v>375.79</v>
       </c>
       <c r="O550" t="n">
-        <v>373.64</v>
+        <v>372.09</v>
       </c>
       <c r="P550" t="n">
         <v>374.06</v>
@@ -28374,7 +28376,7 @@
         <v>378.03</v>
       </c>
       <c r="O551" t="n">
-        <v>370.87</v>
+        <v>370.27</v>
       </c>
       <c r="P551" t="inlineStr"/>
       <c r="Q551" t="inlineStr">
@@ -28425,7 +28427,7 @@
         <v>383.69</v>
       </c>
       <c r="O552" t="n">
-        <v>381.77</v>
+        <v>383.39</v>
       </c>
       <c r="P552" t="inlineStr"/>
       <c r="Q552" t="inlineStr">
@@ -28480,7 +28482,7 @@
         <v>379.15</v>
       </c>
       <c r="O553" t="n">
-        <v>381.56</v>
+        <v>380.32</v>
       </c>
       <c r="P553" t="n">
         <v>387.35</v>
@@ -28537,7 +28539,7 @@
         <v>372.83</v>
       </c>
       <c r="O554" t="n">
-        <v>374.23</v>
+        <v>373.08</v>
       </c>
       <c r="P554" t="n">
         <v>378.3</v>
@@ -28588,7 +28590,7 @@
         <v>373.55</v>
       </c>
       <c r="O555" t="n">
-        <v>381.22</v>
+        <v>379.95</v>
       </c>
       <c r="P555" t="inlineStr"/>
       <c r="Q555" t="inlineStr">
@@ -28686,7 +28688,7 @@
         <v>384.07</v>
       </c>
       <c r="O557" t="n">
-        <v>384.32</v>
+        <v>384.79</v>
       </c>
       <c r="P557" t="n">
         <v>386.86</v>
@@ -28784,7 +28786,7 @@
         <v>373.58</v>
       </c>
       <c r="O559" t="n">
-        <v>378.65</v>
+        <v>381</v>
       </c>
       <c r="P559" t="n">
         <v>372.02</v>
@@ -28841,7 +28843,7 @@
         <v>385.83</v>
       </c>
       <c r="O560" t="n">
-        <v>386.22</v>
+        <v>387.84</v>
       </c>
       <c r="P560" t="n">
         <v>393.34</v>
@@ -28951,7 +28953,7 @@
         <v>380.91</v>
       </c>
       <c r="O562" t="n">
-        <v>381.58</v>
+        <v>380.96</v>
       </c>
       <c r="P562" t="n">
         <v>388.23</v>
@@ -29008,7 +29010,7 @@
         <v>380.2</v>
       </c>
       <c r="O563" t="n">
-        <v>381.47</v>
+        <v>380.42</v>
       </c>
       <c r="P563" t="n">
         <v>388.05</v>
@@ -29065,7 +29067,7 @@
         <v>388.19</v>
       </c>
       <c r="O564" t="n">
-        <v>389.85</v>
+        <v>392.54</v>
       </c>
       <c r="P564" t="n">
         <v>391.1</v>
@@ -29122,7 +29124,7 @@
         <v>378.38</v>
       </c>
       <c r="O565" t="n">
-        <v>372.83</v>
+        <v>371.76</v>
       </c>
       <c r="P565" t="n">
         <v>381.49</v>
@@ -29179,7 +29181,7 @@
         <v>390.87</v>
       </c>
       <c r="O566" t="n">
-        <v>390.41</v>
+        <v>392.21</v>
       </c>
       <c r="P566" t="n">
         <v>393.22</v>
@@ -29236,7 +29238,7 @@
         <v>388.41</v>
       </c>
       <c r="O567" t="n">
-        <v>389.13</v>
+        <v>390.71</v>
       </c>
       <c r="P567" t="n">
         <v>393.31</v>
@@ -29293,7 +29295,7 @@
         <v>381.6</v>
       </c>
       <c r="O568" t="n">
-        <v>383.98</v>
+        <v>385.38</v>
       </c>
       <c r="P568" t="n">
         <v>385.73</v>
@@ -29350,7 +29352,7 @@
         <v>379.86</v>
       </c>
       <c r="O569" t="n">
-        <v>378.56</v>
+        <v>378.31</v>
       </c>
       <c r="P569" t="n">
         <v>381.2</v>
@@ -29399,7 +29401,7 @@
         <v>380.16</v>
       </c>
       <c r="O570" t="n">
-        <v>379.17</v>
+        <v>379.46</v>
       </c>
       <c r="P570" t="n">
         <v>388.18</v>
@@ -29452,7 +29454,7 @@
         <v>386.76</v>
       </c>
       <c r="O571" t="n">
-        <v>377.3</v>
+        <v>377.48</v>
       </c>
       <c r="P571" t="n">
         <v>376.94</v>
@@ -29509,7 +29511,7 @@
         <v>381.83</v>
       </c>
       <c r="O572" t="n">
-        <v>382.76</v>
+        <v>382.14</v>
       </c>
       <c r="P572" t="n">
         <v>385.52</v>
@@ -29566,7 +29568,7 @@
         <v>392.81</v>
       </c>
       <c r="O573" t="n">
-        <v>382</v>
+        <v>380.33</v>
       </c>
       <c r="P573" t="n">
         <v>391.11</v>
@@ -29623,7 +29625,7 @@
         <v>388.66</v>
       </c>
       <c r="O574" t="n">
-        <v>382.46</v>
+        <v>384.24</v>
       </c>
       <c r="P574" t="n">
         <v>384.52</v>
@@ -29680,7 +29682,7 @@
         <v>386.88</v>
       </c>
       <c r="O575" t="n">
-        <v>387.07</v>
+        <v>388.91</v>
       </c>
       <c r="P575" t="n">
         <v>384.97</v>
@@ -29737,7 +29739,7 @@
         <v>380.72</v>
       </c>
       <c r="O576" t="n">
-        <v>378.1</v>
+        <v>376.65</v>
       </c>
       <c r="P576" t="n">
         <v>382.59</v>
@@ -29794,7 +29796,7 @@
         <v>390.23</v>
       </c>
       <c r="O577" t="n">
-        <v>387.53</v>
+        <v>389.08</v>
       </c>
       <c r="P577" t="n">
         <v>388.31</v>
@@ -29851,7 +29853,7 @@
         <v>383.52</v>
       </c>
       <c r="O578" t="n">
-        <v>385.8</v>
+        <v>383.75</v>
       </c>
       <c r="P578" t="n">
         <v>394.99</v>
@@ -29953,7 +29955,7 @@
         <v>377.38</v>
       </c>
       <c r="O580" t="n">
-        <v>372.21</v>
+        <v>371.34</v>
       </c>
       <c r="P580" t="n">
         <v>374.36</v>
@@ -30010,7 +30012,7 @@
         <v>386.43</v>
       </c>
       <c r="O581" t="n">
-        <v>384.34</v>
+        <v>385.38</v>
       </c>
       <c r="P581" t="n">
         <v>386.82</v>
@@ -30067,7 +30069,7 @@
         <v>383.37</v>
       </c>
       <c r="O582" t="n">
-        <v>379.88</v>
+        <v>380.08</v>
       </c>
       <c r="P582" t="n">
         <v>380.17</v>
@@ -30124,7 +30126,7 @@
         <v>382.83</v>
       </c>
       <c r="O583" t="n">
-        <v>377.82</v>
+        <v>378.2</v>
       </c>
       <c r="P583" t="n">
         <v>376.17</v>
@@ -30181,7 +30183,7 @@
         <v>384.66</v>
       </c>
       <c r="O584" t="n">
-        <v>377.3</v>
+        <v>378.21</v>
       </c>
       <c r="P584" t="n">
         <v>379.34</v>
@@ -30238,7 +30240,7 @@
         <v>386.34</v>
       </c>
       <c r="O585" t="n">
-        <v>385.46</v>
+        <v>386.73</v>
       </c>
       <c r="P585" t="n">
         <v>390.56</v>
@@ -30295,7 +30297,7 @@
         <v>387.93</v>
       </c>
       <c r="O586" t="n">
-        <v>387.13</v>
+        <v>388.49</v>
       </c>
       <c r="P586" t="n">
         <v>387.04</v>
@@ -30352,7 +30354,7 @@
         <v>404.2</v>
       </c>
       <c r="O587" t="n">
-        <v>395.18</v>
+        <v>393.65</v>
       </c>
       <c r="P587" t="n">
         <v>394.46</v>
@@ -30409,7 +30411,7 @@
         <v>381.11</v>
       </c>
       <c r="O588" t="n">
-        <v>381.13</v>
+        <v>383.48</v>
       </c>
       <c r="P588" t="n">
         <v>381.94</v>
@@ -30466,7 +30468,7 @@
         <v>375.44</v>
       </c>
       <c r="O589" t="n">
-        <v>374.21</v>
+        <v>373.01</v>
       </c>
       <c r="P589" t="n">
         <v>374.42</v>
@@ -30523,7 +30525,7 @@
         <v>387.07</v>
       </c>
       <c r="O590" t="n">
-        <v>383.85</v>
+        <v>384.87</v>
       </c>
       <c r="P590" t="n">
         <v>384.04</v>
@@ -30580,7 +30582,7 @@
         <v>373.94</v>
       </c>
       <c r="O591" t="n">
-        <v>372.6</v>
+        <v>371.91</v>
       </c>
       <c r="P591" t="n">
         <v>370.99</v>
@@ -30637,7 +30639,7 @@
         <v>386.33</v>
       </c>
       <c r="O592" t="n">
-        <v>381.7</v>
+        <v>382.41</v>
       </c>
       <c r="P592" t="n">
         <v>384.98</v>
@@ -30694,7 +30696,7 @@
         <v>380.7</v>
       </c>
       <c r="O593" t="n">
-        <v>379.28</v>
+        <v>379.57</v>
       </c>
       <c r="P593" t="n">
         <v>380.05</v>
@@ -30749,7 +30751,7 @@
         <v>388.12</v>
       </c>
       <c r="O594" t="n">
-        <v>383.94</v>
+        <v>385.47</v>
       </c>
       <c r="P594" t="n">
         <v>386.39</v>
@@ -30806,7 +30808,7 @@
         <v>377.67</v>
       </c>
       <c r="O595" t="n">
-        <v>376.28</v>
+        <v>375.57</v>
       </c>
       <c r="P595" t="n">
         <v>377.75</v>
@@ -30863,7 +30865,7 @@
         <v>381.21</v>
       </c>
       <c r="O596" t="n">
-        <v>378.01</v>
+        <v>377.01</v>
       </c>
       <c r="P596" t="n">
         <v>378.11</v>
@@ -30920,7 +30922,7 @@
         <v>388.06</v>
       </c>
       <c r="O597" t="n">
-        <v>388.78</v>
+        <v>390.16</v>
       </c>
       <c r="P597" t="n">
         <v>387.85</v>
@@ -30977,7 +30979,7 @@
         <v>387.16</v>
       </c>
       <c r="O598" t="n">
-        <v>379.79</v>
+        <v>378.3</v>
       </c>
       <c r="P598" t="n">
         <v>378.8</v>
@@ -31034,7 +31036,7 @@
         <v>382.25</v>
       </c>
       <c r="O599" t="n">
-        <v>378.68</v>
+        <v>378.33</v>
       </c>
       <c r="P599" t="n">
         <v>381.1</v>
@@ -31091,7 +31093,7 @@
         <v>379.27</v>
       </c>
       <c r="O600" t="n">
-        <v>381.61</v>
+        <v>381.83</v>
       </c>
       <c r="P600" t="n">
         <v>380.99</v>
@@ -31148,7 +31150,7 @@
         <v>381.76</v>
       </c>
       <c r="O601" t="n">
-        <v>379.97</v>
+        <v>379.1</v>
       </c>
       <c r="P601" t="n">
         <v>382.26</v>
@@ -31205,7 +31207,7 @@
         <v>378.1</v>
       </c>
       <c r="O602" t="n">
-        <v>380.17</v>
+        <v>380.82</v>
       </c>
       <c r="P602" t="n">
         <v>383.01</v>
@@ -31262,7 +31264,7 @@
         <v>381.5</v>
       </c>
       <c r="O603" t="n">
-        <v>379.85</v>
+        <v>378.89</v>
       </c>
       <c r="P603" t="n">
         <v>379.91</v>
@@ -31358,7 +31360,7 @@
         <v>382.02</v>
       </c>
       <c r="O605" t="n">
-        <v>380.87</v>
+        <v>382.69</v>
       </c>
       <c r="P605" t="n">
         <v>382.84</v>
@@ -31415,7 +31417,7 @@
         <v>377.95</v>
       </c>
       <c r="O606" t="n">
-        <v>373.32</v>
+        <v>371.77</v>
       </c>
       <c r="P606" t="n">
         <v>374.29</v>
@@ -31472,7 +31474,7 @@
         <v>387.77</v>
       </c>
       <c r="O607" t="n">
-        <v>383.13</v>
+        <v>384.55</v>
       </c>
       <c r="P607" t="n">
         <v>386.02</v>
@@ -31507,7 +31509,7 @@
         <v>426.77</v>
       </c>
       <c r="O608" t="n">
-        <v>386.81</v>
+        <v>386.05</v>
       </c>
       <c r="P608" t="inlineStr"/>
       <c r="Q608" t="inlineStr">
@@ -31556,7 +31558,7 @@
         <v>371.11</v>
       </c>
       <c r="O609" t="n">
-        <v>362.27</v>
+        <v>362.83</v>
       </c>
       <c r="P609" t="n">
         <v>364.98</v>
@@ -31613,7 +31615,7 @@
         <v>380.75</v>
       </c>
       <c r="O610" t="n">
-        <v>375.99</v>
+        <v>375.84</v>
       </c>
       <c r="P610" t="n">
         <v>381.12</v>
@@ -31670,7 +31672,7 @@
         <v>379.06</v>
       </c>
       <c r="O611" t="n">
-        <v>377.44</v>
+        <v>376.75</v>
       </c>
       <c r="P611" t="n">
         <v>376.54</v>
@@ -31727,7 +31729,7 @@
         <v>380.64</v>
       </c>
       <c r="O612" t="n">
-        <v>376.59</v>
+        <v>376.74</v>
       </c>
       <c r="P612" t="n">
         <v>377.11</v>
@@ -31784,7 +31786,7 @@
         <v>373.81</v>
       </c>
       <c r="O613" t="n">
-        <v>371.05</v>
+        <v>371.98</v>
       </c>
       <c r="P613" t="n">
         <v>371.36</v>
@@ -31841,7 +31843,7 @@
         <v>380.7</v>
       </c>
       <c r="O614" t="n">
-        <v>376.57</v>
+        <v>374.93</v>
       </c>
       <c r="P614" t="n">
         <v>373.92</v>
@@ -31898,7 +31900,7 @@
         <v>382.57</v>
       </c>
       <c r="O615" t="n">
-        <v>382.5</v>
+        <v>384.06</v>
       </c>
       <c r="P615" t="n">
         <v>381.46</v>
@@ -31955,7 +31957,7 @@
         <v>376.94</v>
       </c>
       <c r="O616" t="n">
-        <v>376.04</v>
+        <v>374.95</v>
       </c>
       <c r="P616" t="n">
         <v>375.36</v>
@@ -32012,7 +32014,7 @@
         <v>380.43</v>
       </c>
       <c r="O617" t="n">
-        <v>378.38</v>
+        <v>376.73</v>
       </c>
       <c r="P617" t="n">
         <v>376.67</v>
@@ -32069,7 +32071,7 @@
         <v>375.03</v>
       </c>
       <c r="O618" t="n">
-        <v>373.83</v>
+        <v>373.94</v>
       </c>
       <c r="P618" t="n">
         <v>372.57</v>
@@ -32126,7 +32128,7 @@
         <v>376.24</v>
       </c>
       <c r="O619" t="n">
-        <v>375.68</v>
+        <v>376.92</v>
       </c>
       <c r="P619" t="n">
         <v>379.66</v>
@@ -39745,28 +39747,28 @@
         <v>0.0574</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07455177343139276</v>
+        <v>-0.08220896571763178</v>
       </c>
       <c r="J15" t="n">
         <v>618</v>
       </c>
       <c r="K15" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003844916743215521</v>
+        <v>0.004323930343779203</v>
       </c>
       <c r="M15" t="n">
-        <v>6.208467442863189</v>
+        <v>6.631500229580018</v>
       </c>
       <c r="N15" t="n">
-        <v>81.49092568413317</v>
+        <v>87.89302526845064</v>
       </c>
       <c r="O15" t="n">
-        <v>9.027232448770397</v>
+        <v>9.375128013443371</v>
       </c>
       <c r="P15" t="n">
-        <v>385.0247490398763</v>
+        <v>385.4462463365629</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -40058,7 +40060,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-36.6260869884797,174.76447397309738</t>
+          <t>-36.62608735376498,174.7644743004443</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -40145,7 +40147,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-36.626127827370276,174.7645105705019</t>
+          <t>-36.62613769007005,174.76451940887912</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -40232,7 +40234,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-36.626035556299094,174.76442788268292</t>
+          <t>-36.62602057959503,174.76441446148013</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -40319,7 +40321,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-36.62605082522979,174.76444156576827</t>
+          <t>-36.626043519521545,174.7644350188368</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -40398,7 +40400,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-36.626137909241145,174.76451960528755</t>
+          <t>-36.62614747971207,174.7645281817892</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -40485,7 +40487,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-36.62610707916981,174.7644919771824</t>
+          <t>-36.626115553787294,174.7644995716356</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -40572,7 +40574,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-36.62605279777095,174.76444333343997</t>
+          <t>-36.626048268231955,174.7644392743421</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -40742,7 +40744,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-36.62619737765233,174.76457289747748</t>
+          <t>-36.62620577920707,174.76458042647903</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -40829,7 +40831,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-36.626109051710145,174.7644937448567</t>
+          <t>-36.62611409264639,174.764498262247</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -40916,7 +40918,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-36.626097289524836,174.76448320428162</t>
+          <t>-36.626095682269614,174.76448176395485</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -41003,7 +41005,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-36.62613206467841,174.76451436773036</t>
+          <t>-36.6261263662295,174.76450926111286</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -41090,7 +41092,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-36.626102476575625,174.76448785260936</t>
+          <t>-36.62610656777048,174.76449151889648</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -41177,7 +41179,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-36.62605951902208,174.76444935661831</t>
+          <t>-36.62605528171162,174.76444555939707</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -41264,7 +41266,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-36.62609736258189,174.76448326975103</t>
+          <t>-36.62609458641377,174.76448078191387</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -41351,7 +41353,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-36.62608684236557,174.76447384215865</t>
+          <t>-36.626092321645,174.76447875236266</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -41438,7 +41440,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-36.62602087182343,174.76441472335722</t>
+          <t>-36.62601049771525,174.7644054267222</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -41675,7 +41677,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-36.62606229519091,174.7644518444532</t>
+          <t>-36.626057254252714,174.76444732706898</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -41762,7 +41764,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-36.6261035724314,174.7644888346505</t>
+          <t>-36.62611263150547,174.76449695285845</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -41849,7 +41851,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-36.62606236824799,174.7644519099225</t>
+          <t>-36.62604790294654,174.7644389469955</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -41936,7 +41938,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-36.626088595735006,174.76447541342384</t>
+          <t>-36.62609115273208,174.76447770485242</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -42094,7 +42096,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-36.62598777695439,174.7643850657909</t>
+          <t>-36.62597477278726,174.76437341227296</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -42181,7 +42183,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-36.6260522133143,174.76444280968536</t>
+          <t>-36.62603906303931,174.7644310252092</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -42268,7 +42270,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-36.62607164649609,174.76446022452978</t>
+          <t>-36.626071281210734,174.764459897183</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -42355,7 +42357,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-36.626091664131486,174.76447816313814</t>
+          <t>-36.62609020299031,174.76447685375038</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -42438,7 +42440,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-36.62608918019148,174.76447593717893</t>
+          <t>-36.62609356361498,174.76447986534237</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -42525,7 +42527,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-36.62601561171235,174.7644100095701</t>
+          <t>-36.62600501843243,174.76440051652864</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -42612,7 +42614,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-36.62610832113966,174.7644930901625</t>
+          <t>-36.62611387347527,174.76449806583872</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -42699,7 +42701,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-36.626036213812895,174.76442847190657</t>
+          <t>-36.62604388480696,174.76443534618332</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -42786,7 +42788,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>-36.6259925987239,174.7643893867592</t>
+          <t>-36.62597864481469,174.76437688214025</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -42873,7 +42875,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>-36.6260488526886,174.76443979809662</t>
+          <t>-36.6260407433523,174.76443253100317</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -42960,7 +42962,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-36.62609261387322,174.76447901424027</t>
+          <t>-36.62609356361498,174.76447986534237</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -43047,7 +43049,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-36.62604439620655,174.76443580446852</t>
+          <t>-36.62603592158453,174.7644282100294</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -43134,7 +43136,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>-36.62611898746836,174.76450264869905</t>
+          <t>-36.62612373617606,174.76450690421274</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -43221,7 +43223,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>-36.62606879727035,174.76445767122496</t>
+          <t>-36.62607690660495,174.76446493832375</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -43308,7 +43310,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>-36.62605199414307,174.7644426132774</t>
+          <t>-36.626057546481015,174.7644475889463</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -43387,7 +43389,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-36.62604688014738,174.76443803042508</t>
+          <t>-36.62604943714524,174.7644403218512</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -43474,7 +43476,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-36.62597645310107,174.76437491806436</t>
+          <t>-36.62598704638323,174.76438441109875</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -43561,7 +43563,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-36.62602481690659,174.76441825869793</t>
+          <t>-36.62601495419844,174.76440942034677</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -43648,7 +43650,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-36.6260579117664,174.76444791629297</t>
+          <t>-36.626043154236115,174.76443469149024</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -43735,7 +43737,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-36.626062441305066,174.76445197539186</t>
+          <t>-36.62605710813855,174.7644471961303</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -43822,7 +43824,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-36.62606499830264,174.76445426681883</t>
+          <t>-36.62606740918601,174.7644564273073</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -43857,7 +43859,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-36.62590354207394,174.76430957987142</t>
+          <t>-36.62591282033311,174.76431789444416</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -43944,7 +43946,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-36.626029200332205,174.76442218685474</t>
+          <t>-36.626015757826536,174.76441014050863</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -44031,7 +44033,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-36.62608231282773,174.76446978305714</t>
+          <t>-36.62607822163213,174.76446611677238</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -44129,7 +44131,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-36.62609480558494,174.76448097832207</t>
+          <t>-36.62609429418555,174.7644805200363</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -44216,7 +44218,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-36.62606594804457,174.76445511792033</t>
+          <t>-36.62607296152333,174.7644614029782</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -44291,7 +44293,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-36.62597440750165,174.764373084927</t>
+          <t>-36.62595767741955,174.76435809248574</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -44378,7 +44380,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-36.62602087182343,174.76441472335722</t>
+          <t>-36.62602817753291,174.76442127028477</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -44465,7 +44467,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-36.62609312527264,174.764479472526</t>
+          <t>-36.62609217553089,174.76447862142388</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -44552,7 +44554,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>-36.62602196767987,174.76441570539626</t>
+          <t>-36.626019849024054,174.76441380678742</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -44587,7 +44589,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-36.626030003960224,174.76442290701686</t>
+          <t>-36.62603928221056,174.76443122161712</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -44674,7 +44676,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>-36.62612103306555,174.76450448184335</t>
+          <t>-36.626116795757056,174.76450068461597</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -44761,7 +44763,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>-36.62605484336914,174.76444516658108</t>
+          <t>-36.6260463687478,174.7644375721399</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -44848,7 +44850,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>-36.62604110863772,174.7644328583497</t>
+          <t>-36.62602598582012,174.76441930620638</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -45089,7 +45091,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>-36.626009547972906,174.7644045756219</t>
+          <t>-36.62600275366215,174.7643984869822</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -45176,7 +45178,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>-36.62600158474843,174.76439743947438</t>
+          <t>-36.625995886293914,174.76439233287428</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -45263,7 +45265,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>-36.626117745498625,174.7645015357186</t>
+          <t>-36.6261250512028,174.7645080826628</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -45350,7 +45352,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>-36.62610086932046,174.76448641228237</t>
+          <t>-36.62610050403521,174.76448608493536</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -45437,7 +45439,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>-36.6258507217357,174.76426224576733</t>
+          <t>-36.625863360629076,174.76427357190246</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -45524,7 +45526,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>-36.62602277130792,174.76441642555824</t>
+          <t>-36.626013493056426,174.7644081109616</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -45611,7 +45613,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>-36.62606390244655,174.76445328477868</t>
+          <t>-36.62605740036686,174.76444745800762</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -45650,7 +45652,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>-36.62611467710275,174.76449878600246</t>
+          <t>-36.6261185491261,174.76450225588243</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -45816,7 +45818,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>-36.62603226873006,174.76442493656478</t>
+          <t>-36.626021894622774,174.764415639927</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -45903,7 +45905,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>-36.62597857175758,174.76437681667105</t>
+          <t>-36.62598229767064,174.76438015560026</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -46061,7 +46063,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>-36.62599157592432,174.76438847019014</t>
+          <t>-36.625978060357724,174.76437635838664</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -46132,7 +46134,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>-36.62608713459381,174.76447410403617</t>
+          <t>-36.62609473252788,174.7644809128527</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -46219,7 +46221,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>-36.62598164015658,174.76437956637744</t>
+          <t>-36.62596965878861,174.7643688294299</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -46290,7 +46292,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>-36.62597462667302,174.76437328133457</t>
+          <t>-36.625960526647646,174.76436064578314</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -46377,7 +46379,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>-36.62598448938417,174.76438211967644</t>
+          <t>-36.62597097381684,174.76437000787521</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -46523,7 +46525,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>-36.6259883614113,174.7643855895446</t>
+          <t>-36.625979740671475,174.76437786417821</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -46610,7 +46612,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>-36.62608238588478,174.76446984852652</t>
+          <t>-36.6260893263056,174.76447606811772</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -46697,7 +46699,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>-36.62600735625979,174.76440261154445</t>
+          <t>-36.626007648488226,174.76440287342146</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -46784,7 +46786,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>-36.62604468843489,174.76443606634572</t>
+          <t>-36.62604373869278,174.76443521524473</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -46871,7 +46873,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>-36.626072450123836,174.7644609446927</t>
+          <t>-36.62608150920002,174.76446906289405</t>
         </is>
       </c>
       <c r="P85" t="inlineStr"/>
@@ -46954,7 +46956,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>-36.62600143863421,174.7643973085359</t>
+          <t>-36.62599281789523,174.7643895831669</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -47041,7 +47043,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>-36.62607727189028,174.7644652656706</t>
+          <t>-36.62608202059948,174.76446952117968</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
@@ -47096,7 +47098,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>-36.626183569878656,174.76456052373067</t>
+          <t>-36.626196427911346,174.76457204637305</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -47183,7 +47185,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>-36.625998443292765,174.76439462429732</t>
+          <t>-36.62599048006763,174.76438748815184</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -47270,7 +47272,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>-36.62604994854482,174.76444078013643</t>
+          <t>-36.62605484336914,174.76444516658108</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -47317,7 +47319,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>-36.62604958325941,174.7644404527898</t>
+          <t>-36.626049217974,174.76444012544323</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -47404,7 +47406,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>-36.6260385516397,174.76443056692412</t>
+          <t>-36.626038405525534,174.7644304359855</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -47546,7 +47548,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>-36.62608231282773,174.76446978305714</t>
+          <t>-36.62607076981124,174.76445943889752</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -47617,7 +47619,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>-36.626115553787294,174.7644995716356</t>
+          <t>-36.62612176363598,174.76450513653774</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -47704,7 +47706,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>-36.6260569620244,174.76444706519166</t>
+          <t>-36.62605893456547,174.76444883286365</t>
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
@@ -47818,7 +47820,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>-36.625988288354186,174.76438552407538</t>
+          <t>-36.62597608781545,174.7643745907184</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -47905,7 +47907,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>-36.6260689433845,174.76445780216366</t>
+          <t>-36.62606879727035,174.76445767122496</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -47960,7 +47962,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>-36.62602971173187,174.76442264513975</t>
+          <t>-36.62603329152932,174.76442585313484</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -48043,7 +48045,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>-36.626040962523554,174.76443272741105</t>
+          <t>-36.62603256095842,174.76442519844196</t>
         </is>
       </c>
       <c r="P101" t="inlineStr"/>
@@ -48102,7 +48104,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>-36.6260867693085,174.76447377668927</t>
+          <t>-36.62609473252788,174.7644809128527</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -48189,7 +48191,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>-36.62600158474843,174.76439743947438</t>
+          <t>-36.62601049771525,174.7644054267222</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -48307,7 +48309,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>-36.62604162003732,174.7644333166348</t>
+          <t>-36.626030442302785,174.7644232998326</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -48394,7 +48396,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>-36.626017438139826,174.76441164630168</t>
+          <t>-36.62601488114134,174.7644093548775</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -48453,7 +48455,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>-36.62602985784605,174.7644227760783</t>
+          <t>-36.626038259411345,174.76443030504691</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -48571,7 +48573,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>-36.62605864233718,174.7644485709863</t>
+          <t>-36.62604958325941,174.7644404527898</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -48658,7 +48660,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>-36.6260092557445,174.7644043137449</t>
+          <t>-36.62601524642684,174.7644096822238</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -48883,7 +48885,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>-36.62603153815914,174.76442428187187</t>
+          <t>-36.62601597699783,174.76441033691643</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -48970,7 +48972,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>-36.626078513860385,174.76446637864984</t>
+          <t>-36.62608713459381,174.76447410403617</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -49057,7 +49059,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>-36.626084212311355,174.76447148526097</t>
+          <t>-36.62608793822147,174.76447482419937</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -49128,7 +49130,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>-36.62607288846626,174.76446133750886</t>
+          <t>-36.626073984322275,174.76446231954924</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -49171,7 +49173,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>-36.626166474537804,174.76454520385985</t>
+          <t>-36.62615887660784,174.76453839503057</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -49258,7 +49260,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>-36.626104814401266,174.76448994763052</t>
+          <t>-36.626087572936164,174.76447449685247</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -49301,7 +49303,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>-36.62589411769979,174.76430113436257</t>
+          <t>-36.62590339595961,174.76430944893326</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -49455,7 +49457,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>-36.62590682964617,174.76431252597965</t>
+          <t>-36.625900985073265,174.76430728845406</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -49542,7 +49544,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>-36.62613571753014,174.7645176412035</t>
+          <t>-36.62614353463253,174.7645246464371</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -49577,7 +49579,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>-36.62606887032743,174.76445773669434</t>
+          <t>-36.62606872421329,174.76445760575564</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -49778,7 +49780,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>-36.62609458641377,174.76448078191387</t>
+          <t>-36.626079171373966,174.76446696787417</t>
         </is>
       </c>
       <c r="P126" t="inlineStr"/>
@@ -49892,7 +49894,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>-36.62592545922057,174.7643292205977</t>
+          <t>-36.625918007391114,174.7643225427495</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -50010,7 +50012,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>-36.62606901644158,174.76445786763304</t>
+          <t>-36.626078440803326,174.76446631318046</t>
         </is>
       </c>
       <c r="P130" t="inlineStr"/>
@@ -50124,7 +50126,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>-36.62601656145464,174.76441086067052</t>
+          <t>-36.6260120319144,174.76440680157648</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -50163,7 +50165,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>-36.62609064133268,174.76447724656668</t>
+          <t>-36.62608158225709,174.76446912836343</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -50198,7 +50200,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>-36.626021894622774,174.764415639927</t>
+          <t>-36.62600421480427,174.76439979636697</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -50237,7 +50239,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>-36.6257597655024,174.76418073698602</t>
+          <t>-36.625771454660374,174.76419121199928</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -50324,7 +50326,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>-36.626034606556935,174.76442703158207</t>
+          <t>-36.62603511795656,174.76442748986713</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -50411,7 +50413,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>-36.62603592158453,174.7644282100294</t>
+          <t>-36.62602372105017,174.7644172766588</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -50446,7 +50448,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>-36.62601371222772,174.7644083073694</t>
+          <t>-36.626019849024054,174.76441380678742</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -50517,7 +50519,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>-36.62603307235804,174.76442565672698</t>
+          <t>-36.62601751119691,174.76441171177092</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -50604,7 +50606,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>-36.6261131429048,174.76449741114445</t>
+          <t>-36.62610532580062,174.76449040591643</t>
         </is>
       </c>
       <c r="P140" t="inlineStr"/>
@@ -50651,7 +50653,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>-36.62606339104703,174.76445282649328</t>
+          <t>-36.62604914491692,174.7644400599739</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -50722,7 +50724,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>-36.62582982737757,174.76424352164457</t>
+          <t>-36.62584151652939,174.76425399667704</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -50765,7 +50767,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>-36.62562424425212,174.76405929253482</t>
+          <t>-36.62563754068279,174.7640712078204</t>
         </is>
       </c>
       <c r="P143" t="inlineStr"/>
@@ -51021,7 +51023,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>-36.6261302382525,174.7645127309939</t>
+          <t>-36.626124028404234,174.76450716609054</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -51108,7 +51110,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>-36.62605988430745,174.764449683965</t>
+          <t>-36.62606149156309,174.76445112429045</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -51195,7 +51197,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>-36.62603577547036,174.7644280790908</t>
+          <t>-36.62603234178714,174.76442500203407</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -51282,7 +51284,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>-36.62599537489414,174.7643918745897</t>
+          <t>-36.62599135675299,174.76438827378246</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -51420,7 +51422,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>-36.62600815988795,174.76440333170618</t>
+          <t>-36.625990333953396,174.76438735721342</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -51617,7 +51619,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>-36.62616304085797,174.7645421267926</t>
+          <t>-36.62616545173957,174.7645442872866</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -51704,7 +51706,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>-36.62604498066322,174.76443632822298</t>
+          <t>-36.626048560460276,174.76443953621938</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -51853,7 +51855,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>-36.626007502374016,174.76440274248296</t>
+          <t>-36.62601889928179,174.76441295568696</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -51888,7 +51890,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>-36.62606762835723,174.76445662371535</t>
+          <t>-36.62607186566729,174.76446042093787</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -52050,7 +52052,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>-36.626024743849506,174.76441819322866</t>
+          <t>-36.626030296188574,174.764423168894</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -52101,7 +52103,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>-36.62601911845308,174.76441315209476</t>
+          <t>-36.626001950033974,174.76439776682057</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -52243,7 +52245,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>-36.62606499830264,174.76445426681883</t>
+          <t>-36.62606660555823,174.7644557071445</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -52440,7 +52442,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>-36.62609802009538,174.7644838589756</t>
+          <t>-36.626100138749926,174.76448575758832</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -52527,7 +52529,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>-36.62601005937264,174.76440503390666</t>
+          <t>-36.62599917386385,174.76439527898964</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -52645,7 +52647,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>-36.62607771023267,174.76446565848678</t>
+          <t>-36.62607880608866,174.76446664052733</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
@@ -52732,7 +52734,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>-36.62603431432858,174.76442676970493</t>
+          <t>-36.626025547477546,174.7644189133907</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
@@ -52830,7 +52832,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>-36.62601692674013,174.76441118801682</t>
+          <t>-36.62600604123192,174.76440143309804</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -52917,7 +52919,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>-36.6259817132137,174.76437963184662</t>
+          <t>-36.62596965878861,174.7643688294299</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -52996,7 +52998,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>-36.62623018024124,174.76460229332775</t>
+          <t>-36.626240115990385,174.7646111971983</t>
         </is>
       </c>
       <c r="P176" t="inlineStr"/>
@@ -53280,7 +53282,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>-36.62591501204779,174.76431985851676</t>
+          <t>-36.62592553227771,174.7643292860668</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -53367,7 +53369,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>-36.62602496302078,174.7644183896365</t>
+          <t>-36.6260091826874,174.76440424827567</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -53608,7 +53610,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>-36.6260841392543,174.7644714197916</t>
+          <t>-36.62608479676785,174.76447200901598</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -53695,7 +53697,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>-36.62599522877993,174.76439174365126</t>
+          <t>-36.62600414174717,174.76439973089774</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -53936,7 +53938,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>-36.626080267229945,174.76446794991472</t>
+          <t>-36.62606908949865,174.76445793310236</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -53991,7 +53993,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>-36.62602211379406,174.7644158363348</t>
+          <t>-36.62601787648242,174.76441203911725</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -54109,7 +54111,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>-36.62606375633239,174.76445315384</t>
+          <t>-36.62607690660495,174.76446493832375</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -54306,7 +54308,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>-36.62602379410727,174.76441734212807</t>
+          <t>-36.6260212371089,174.76441505070355</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -54424,7 +54426,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>-36.6260579117664,174.76444791629297</t>
+          <t>-36.626061199334806,174.76445086241307</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -54475,7 +54477,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>-36.626116868814094,174.7645007500854</t>
+          <t>-36.626113581247076,174.764497803961</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -54562,7 +54564,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>-36.62610503357243,174.76449014403875</t>
+          <t>-36.626109051710145,174.7644937448567</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -54649,7 +54651,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>-36.62609261387322,174.76447901424027</t>
+          <t>-36.626085162053165,174.76447233636287</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -54854,7 +54856,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>-36.62607946360223,174.76446722975163</t>
+          <t>-36.626087280707935,174.76447423497493</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -54941,7 +54943,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>-36.626078075518,174.76446598583362</t>
+          <t>-36.62608501593904,174.7644722054241</t>
         </is>
       </c>
       <c r="P203" t="inlineStr"/>
@@ -54976,7 +54978,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>-36.6260187531676,174.76441282474843</t>
+          <t>-36.62601531948394,174.76440974769307</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -55082,7 +55084,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>-36.626054112798364,174.76444451188783</t>
+          <t>-36.62605024077314,174.7644410420137</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -55318,7 +55320,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>-36.62605316305633,174.76444366078658</t>
+          <t>-36.62606258741922,174.76445210633054</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -55381,7 +55383,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>-36.62609823926653,174.76448405538383</t>
+          <t>-36.626106494713426,174.76449145342707</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -55547,7 +55549,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>-36.62608808433559,174.76447495513816</t>
+          <t>-36.62609458641377,174.76448078191387</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -55590,7 +55592,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>-36.626082605055984,174.76447004493465</t>
+          <t>-36.626079171373966,174.76446696787417</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -55677,7 +55679,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>-36.62607771023267,174.76446565848678</t>
+          <t>-36.626083554797795,174.76447089603656</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -55914,7 +55916,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>-36.6260782946892,174.76446618224173</t>
+          <t>-36.62608961853385,174.76447632999526</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -56001,7 +56003,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>-36.6260232827076,174.76441688384318</t>
+          <t>-36.62600684486007,174.76440215325974</t>
         </is>
       </c>
       <c r="P219" t="inlineStr"/>
@@ -56084,7 +56086,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>-36.62599997749205,174.7643959991512</t>
+          <t>-36.62598646192632,174.76438388734508</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -56171,7 +56173,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>-36.62608165531417,174.76446919383278</t>
+          <t>-36.6260933444438,174.76447966893417</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -56293,7 +56295,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>-36.62607347292279,174.76446186126373</t>
+          <t>-36.62607602992014,174.7644641526914</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -56380,7 +56382,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>-36.626064194674846,174.76445354665609</t>
+          <t>-36.62606112627773,174.76445079694372</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -56569,7 +56571,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>-36.62603409515731,174.76442657329704</t>
+          <t>-36.62602598582012,174.76441930620638</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -56739,7 +56741,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>-36.62592582450632,174.76432954794322</t>
+          <t>-36.625936710021094,174.76433930284156</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -56826,7 +56828,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>-36.626054039741284,174.76444444641848</t>
+          <t>-36.62606390244655,174.76445328477868</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -56913,7 +56915,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>-36.62598697332612,174.76438434562957</t>
+          <t>-36.62599917386385,174.76439527898964</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -57071,7 +57073,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>-36.62606339104703,174.76445282649328</t>
+          <t>-36.62605783870932,174.76444785082364</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
@@ -57217,7 +57219,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>-36.62603920915347,174.76443115614782</t>
+          <t>-36.62602445162112,174.76441793135155</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
@@ -57302,7 +57304,11 @@
           <t>-36.626242791071554,174.76352666519577</t>
         </is>
       </c>
-      <c r="O236" t="inlineStr"/>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>-36.625687000470926,174.7641155301005</t>
+        </is>
+      </c>
       <c r="P236" t="inlineStr">
         <is>
           <t>-36.625337954879114,174.76489241932862</t>
@@ -57387,7 +57393,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>-36.62598405104146,174.7643817268612</t>
+          <t>-36.625969293502976,174.764368502084</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
@@ -57474,7 +57480,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>-36.6260617837914,174.7644513861678</t>
+          <t>-36.626070185354685,174.76445891514265</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
@@ -57592,7 +57598,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>-36.62611745327045,174.7645012738409</t>
+          <t>-36.626111097307486,174.76449557800052</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
@@ -57738,7 +57744,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>-36.62605995736453,174.76444974943433</t>
+          <t>-36.62605053300147,174.76444130389098</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
@@ -57825,7 +57831,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>-36.626035044899474,174.76442742439787</t>
+          <t>-36.626017657311124,174.76441184270948</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
@@ -57912,7 +57918,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>-36.62603168427331,174.76442441281046</t>
+          <t>-36.626040158895606,174.76443200724873</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
@@ -58046,7 +58052,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>-36.62601773036821,174.76441190817872</t>
+          <t>-36.625999393035194,174.76439547539732</t>
         </is>
       </c>
       <c r="P246" t="inlineStr"/>
@@ -58081,7 +58087,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>-36.625968051531835,174.76436738910792</t>
+          <t>-36.625952636477365,174.76435357511392</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
@@ -58168,7 +58174,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>-36.626039355267665,174.7644312870864</t>
+          <t>-36.626024743849506,174.76441819322866</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -58294,7 +58300,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>-36.62602759307617,174.76442074653053</t>
+          <t>-36.626019922081156,174.7644138722567</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
@@ -58381,7 +58387,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>-36.62603402210022,174.76442650782775</t>
+          <t>-36.62602927338931,174.76442225232404</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
@@ -58598,7 +58604,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>-36.62606010347868,174.764449880373</t>
+          <t>-36.626051190515184,174.76444189311488</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
@@ -58633,7 +58639,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>-36.626070842868316,174.76445950436687</t>
+          <t>-36.626065363588005,174.76445459416558</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
@@ -58720,7 +58726,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>-36.6259829551847,174.7643807448231</t>
+          <t>-36.62597141215959,174.76437040069032</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
@@ -58850,7 +58856,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>-36.62607610297722,174.76446421816075</t>
+          <t>-36.62606989312642,174.76445865326525</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
@@ -58937,7 +58943,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>-36.626060322649906,174.764450076781</t>
+          <t>-36.626061418506026,174.7644510588211</t>
         </is>
       </c>
       <c r="P259" t="inlineStr">
@@ -58972,7 +58978,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>-36.6260597381933,174.76444955302634</t>
+          <t>-36.6260549894833,174.76444529751973</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
@@ -59059,7 +59065,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>-36.62600319200479,174.76439887979762</t>
+          <t>-36.62600063500602,174.76439658837432</t>
         </is>
       </c>
       <c r="P261" t="inlineStr">
@@ -59146,7 +59152,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>-36.62606331798996,174.76445276102396</t>
+          <t>-36.62606558275922,174.7644547905736</t>
         </is>
       </c>
       <c r="P262" t="inlineStr">
@@ -59233,7 +59239,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>-36.62585196370794,174.76426335873995</t>
+          <t>-36.6258636528578,174.76427383377845</t>
         </is>
       </c>
       <c r="P263" t="inlineStr">
@@ -59276,7 +59282,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>-36.6260579117664,174.76444791629297</t>
+          <t>-36.626045711234056,174.7644369829161</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
@@ -59363,7 +59369,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>-36.625835818068005,174.7642488900983</t>
+          <t>-36.62584867613436,174.76426041263596</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
@@ -59450,7 +59456,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>-36.62606777447137,174.76445675465405</t>
+          <t>-36.62606740918601,174.7644564273073</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
@@ -59537,7 +59543,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>-36.62606550970215,174.7644547251043</t>
+          <t>-36.626059299850844,174.76444916021032</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
@@ -59624,7 +59630,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>-36.6260529438851,174.7644434643786</t>
+          <t>-36.626040889466466,174.76443266194175</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
@@ -59711,7 +59717,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>-36.625841224300615,174.76425373480117</t>
+          <t>-36.62585196370794,174.76426335873995</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
@@ -59861,7 +59867,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>-36.62607602992014,174.7644641526914</t>
+          <t>-36.626056377567785,174.76444654143702</t>
         </is>
       </c>
       <c r="P271" t="inlineStr">
@@ -59948,7 +59954,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>-36.62601948373857,174.7644134794411</t>
+          <t>-36.62600231531951,174.76439809416675</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -60035,7 +60041,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>-36.6259745536159,174.76437321586536</t>
+          <t>-36.62598317435605,174.7643809412307</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
@@ -60272,7 +60278,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>-36.62594774164926,174.76434918868094</t>
+          <t>-36.62595745824814,174.76435789607825</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -60359,7 +60365,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>-36.62603080758823,174.764423627179</t>
+          <t>-36.62604344646445,174.76443495336747</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -60446,7 +60452,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>-36.62602160239439,174.7644153780499</t>
+          <t>-36.626002972833476,174.76439868338989</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
@@ -60533,7 +60539,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>-36.62601597699783,174.76441033691643</t>
+          <t>-36.626000561948906,174.76439652290506</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
@@ -60758,7 +60764,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>-36.626053455284655,174.76444392266387</t>
+          <t>-36.62604870657443,174.764439667158</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
@@ -60845,7 +60851,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>-36.62608684236557,174.76447384215865</t>
+          <t>-36.626083262569544,174.76447063415904</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
@@ -60932,7 +60938,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>-36.62606463301728,174.76445393947213</t>
+          <t>-36.62605491642621,174.7644452320504</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
@@ -61019,7 +61025,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>-36.62603782106883,174.76442991223112</t>
+          <t>-36.62602532830626,174.76441871698287</t>
         </is>
       </c>
       <c r="P285" t="inlineStr">
@@ -61102,7 +61108,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>-36.626041181694816,174.764432923819</t>
+          <t>-36.62605352834173,174.7644439881332</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
@@ -61189,7 +61195,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>-36.626013639170615,174.7644082419001</t>
+          <t>-36.62599793189301,174.7643941660127</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
@@ -61307,7 +61313,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>-36.626034387385666,174.76442683517422</t>
+          <t>-36.62602532830626,174.76441871698287</t>
         </is>
       </c>
       <c r="P289" t="inlineStr"/>
@@ -61390,7 +61396,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>-36.62601027854394,174.7644052303144</t>
+          <t>-36.626004945375335,174.76440045105937</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
@@ -61477,7 +61483,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>-36.625990187839164,174.76438722627498</t>
+          <t>-36.62600173086265,174.76439757041285</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
@@ -61548,7 +61554,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>-36.62614419214581,174.76452523566243</t>
+          <t>-36.626151132563386,174.76453145526366</t>
         </is>
       </c>
       <c r="P292" t="inlineStr"/>
@@ -61702,7 +61708,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>-36.62603204955879,174.7644247401569</t>
+          <t>-36.62603526407073,174.76442762080575</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
@@ -61761,7 +61767,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>-36.62601064382945,174.76440555766067</t>
+          <t>-36.62599800495011,174.76439423148193</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
@@ -61816,7 +61822,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>-36.62576086136101,174.76418171901838</t>
+          <t>-36.6257748152931,174.7641942235662</t>
         </is>
       </c>
       <c r="P296" t="inlineStr">
@@ -61903,7 +61909,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>-36.625978060357724,174.76437635838664</t>
+          <t>-36.62598843446842,174.76438565501383</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
@@ -62116,7 +62122,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>-36.62601422362744,174.7644087656542</t>
+          <t>-36.62602430550693,174.764417800413</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
@@ -62250,7 +62256,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>-36.62600173086265,174.76439757041285</t>
+          <t>-36.626010205486836,174.76440516484516</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
@@ -62337,7 +62343,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>-36.625987192497455,174.7643845420372</t>
+          <t>-36.62597046241697,174.76436954959092</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
@@ -62424,7 +62430,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>-36.626066386387016,174.7644555107364</t>
+          <t>-36.62607062369711,174.76445930795882</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -62511,7 +62517,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>-36.62607990194462,174.76446762256785</t>
+          <t>-36.62607581074895,174.76446395628332</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
@@ -62598,7 +62604,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>-36.626006990974275,174.76440228419824</t>
+          <t>-36.6260089635161,174.7644040518679</t>
         </is>
       </c>
       <c r="P306" t="inlineStr"/>
@@ -62736,7 +62742,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>-36.62599099146741,174.76438794643636</t>
+          <t>-36.6259798137286,174.7643779296474</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
@@ -62771,7 +62777,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>-36.62604468843489,174.76443606634572</t>
+          <t>-36.62604563817697,174.76443691744677</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
@@ -62858,7 +62864,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>-36.62607537240654,174.76446356346713</t>
+          <t>-36.6260745687788,174.76446284330413</t>
         </is>
       </c>
       <c r="P310" t="inlineStr">
@@ -62945,7 +62951,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>-36.6260560122824,174.76444621409036</t>
+          <t>-36.62604549206281,174.76443678650816</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
@@ -63032,7 +63038,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>-36.62597594170121,174.76437445978004</t>
+          <t>-36.62598353964164,174.76438126857673</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
@@ -63119,7 +63125,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>-36.625843416016465,174.7642556988701</t>
+          <t>-36.62585393625206,174.76426512640248</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
@@ -63233,7 +63239,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>-36.62598032512843,174.76437838793183</t>
+          <t>-36.625992014267,174.76438886300545</t>
         </is>
       </c>
       <c r="P315" t="inlineStr">
@@ -63395,7 +63401,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>-36.62602160239439,174.7644153780499</t>
+          <t>-36.626008086830836,174.76440326623694</t>
         </is>
       </c>
       <c r="P317" t="inlineStr">
@@ -63482,7 +63488,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>-36.62602087182343,174.76441472335722</t>
+          <t>-36.626030150074406,174.76442303795545</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
@@ -63592,7 +63598,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>-36.626057254252714,174.76444732706898</t>
+          <t>-36.62605761953809,174.76444765441565</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
@@ -63679,7 +63685,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>-36.62604943714524,174.7644403218512</t>
+          <t>-36.62605382057005,174.7644442500105</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
@@ -63801,7 +63807,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>-36.62613586364422,174.76451777214243</t>
+          <t>-36.62614287711927,174.7645240572118</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
@@ -63840,7 +63846,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>-36.62602591276301,174.7644192407371</t>
+          <t>-36.62601553865523,174.76440994410083</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
@@ -63970,7 +63976,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>-36.626048049060685,174.76443907793413</t>
+          <t>-36.62602941950348,174.7644223832626</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
@@ -64057,7 +64063,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>-36.62598609664074,174.764383559999</t>
+          <t>-36.6259690743316,174.76436830567647</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
@@ -64215,7 +64221,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>-36.62607449572175,174.76446277783478</t>
+          <t>-36.62607420349347,174.76446251595735</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -64333,7 +64339,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>-36.62579212985601,174.76420973968678</t>
+          <t>-36.62580433041164,174.7642206729912</t>
         </is>
       </c>
       <c r="P331" t="inlineStr"/>
@@ -64416,7 +64422,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>-36.62608428536841,174.76447155073032</t>
+          <t>-36.62607193872435,174.76446048640722</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
@@ -64503,7 +64509,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>-36.62592085662008,174.76432509604425</t>
+          <t>-36.62593028099235,174.76433354155898</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
@@ -64590,7 +64596,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>-36.62583231132244,174.7642457475887</t>
+          <t>-36.625844292702794,174.76425648449768</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
@@ -64637,7 +64643,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>-36.62603489878529,174.76442729345928</t>
+          <t>-36.62601962985277,174.76441361037962</t>
         </is>
       </c>
       <c r="P335" t="inlineStr">
@@ -64724,7 +64730,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>-36.626007648488226,174.76440287342146</t>
+          <t>-36.62602160239439,174.7644153780499</t>
         </is>
       </c>
       <c r="P336" t="inlineStr"/>
@@ -64807,7 +64813,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>-36.62610773668327,174.76449256640714</t>
+          <t>-36.626116868814094,174.7645007500854</t>
         </is>
       </c>
       <c r="P337" t="inlineStr">
@@ -64894,7 +64900,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>-36.626113800418224,174.7644980003693</t>
+          <t>-36.62611657658593,174.76450048820766</t>
         </is>
       </c>
       <c r="P338" t="inlineStr"/>
@@ -65056,7 +65062,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>-36.626057254252714,174.76444732706898</t>
+          <t>-36.626054039741284,174.76444444641848</t>
         </is>
       </c>
       <c r="P340" t="inlineStr">
@@ -65143,7 +65149,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>-36.6260790983169,174.7644669024048</t>
+          <t>-36.62606821281378,174.76445714747018</t>
         </is>
       </c>
       <c r="P341" t="inlineStr">
@@ -65340,7 +65346,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>-36.62606594804457,174.76445511792033</t>
+          <t>-36.626056231453624,174.76444641049832</t>
         </is>
       </c>
       <c r="P344" t="inlineStr">
@@ -65427,7 +65433,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>-36.62594956807769,174.7643508254096</t>
+          <t>-36.62596125721895,174.7643613004748</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
@@ -65502,7 +65508,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>-36.62604162003732,174.7644333166348</t>
+          <t>-36.6260503868873,174.76444117295233</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
@@ -65589,7 +65595,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>-36.62602788530454,174.76442100840765</t>
+          <t>-36.62602445162112,174.76441793135155</t>
         </is>
       </c>
       <c r="P347" t="inlineStr">
@@ -65640,7 +65646,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>-36.62598164015658,174.76437956637744</t>
+          <t>-36.62598865363977,174.76438585142145</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -65711,7 +65717,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>-36.62600815988795,174.76440333170618</t>
+          <t>-36.626008525173475,174.76440365905242</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
@@ -65798,7 +65804,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>-36.62599362152348,174.76439030332833</t>
+          <t>-36.62599931997807,174.7643954099281</t>
         </is>
       </c>
       <c r="P350" t="inlineStr">
@@ -65885,7 +65891,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>-36.6259023001022,174.76430846689726</t>
+          <t>-36.625912381990176,174.76431750162965</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
@@ -65972,7 +65978,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>-36.626028981160935,174.7644219904469</t>
+          <t>-36.62601517336974,174.76440961675453</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
@@ -66126,7 +66132,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>-36.626033145415136,174.76442572219625</t>
+          <t>-36.62602890810384,174.7644219249776</t>
         </is>
       </c>
       <c r="P354" t="inlineStr">
@@ -66165,7 +66171,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>-36.62598069041403,174.76437871527781</t>
+          <t>-36.625973384701936,174.76437216835836</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
@@ -66311,7 +66317,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>-36.62606645944408,174.76445557620576</t>
+          <t>-36.6260617837914,174.7644513861678</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
@@ -66370,7 +66376,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>-36.6260529438851,174.7644434643786</t>
+          <t>-36.62604242366527,174.76443403679718</t>
         </is>
       </c>
       <c r="P358" t="inlineStr">
@@ -66599,7 +66605,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>-36.62602854281838,174.7644215976312</t>
+          <t>-36.62601590394073,174.76441027144716</t>
         </is>
       </c>
       <c r="P361" t="inlineStr">
@@ -66686,7 +66692,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>-36.6260032650619,174.76439894526686</t>
+          <t>-36.625990407010505,174.76438742268263</t>
         </is>
       </c>
       <c r="P362" t="inlineStr">
@@ -66757,7 +66763,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>-36.62599289095235,174.7643896486361</t>
+          <t>-36.62597842564331,174.76437668573266</t>
         </is>
       </c>
       <c r="P363" t="inlineStr">
@@ -66844,7 +66850,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>-36.626019849024054,174.76441380678742</t>
+          <t>-36.62601787648242,174.76441203911725</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
@@ -66942,7 +66948,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>-36.62609509781316,174.76448124019967</t>
+          <t>-36.62609202941677,174.76447849048512</t>
         </is>
       </c>
       <c r="P366" t="inlineStr">
@@ -67060,7 +67066,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>-36.62601948373857,174.7644134794411</t>
+          <t>-36.626029565617664,174.76442251420116</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
@@ -67143,7 +67149,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>-36.62603358375768,174.76442611501201</t>
+          <t>-36.62601641534044,174.764410729732</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
@@ -67230,7 +67236,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>-36.62605535476869,174.7644456248664</t>
+          <t>-36.626042569779436,174.76443416773577</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
@@ -67317,7 +67323,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>-36.62589777055807,174.76430440781536</t>
+          <t>-36.6259120167044,174.76431717428423</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -67404,7 +67410,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>-36.626006990974275,174.76440228419824</t>
+          <t>-36.62600443397559,174.7643999927747</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -67534,7 +67540,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>-36.62603219567297,174.76442487109549</t>
+          <t>-36.62603913609639,174.7644310906785</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
@@ -67621,7 +67627,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>-36.62606777447137,174.76445675465405</t>
+          <t>-36.62606098016358,174.76445066600505</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
@@ -67787,7 +67793,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>-36.62602182156568,174.7644155744577</t>
+          <t>-36.62601422362744,174.7644087656542</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -67850,7 +67856,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>-36.62612417451831,174.76450729702944</t>
+          <t>-36.62612154446484,174.76450494012943</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -68004,7 +68010,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>-36.62601327388512,174.76440791455383</t>
+          <t>-36.62599917386385,174.76439527898964</t>
         </is>
       </c>
       <c r="P380" t="inlineStr">
@@ -68091,7 +68097,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>-36.62604819517486,174.76443920887277</t>
+          <t>-36.62605513559746,174.7644454284584</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -68178,7 +68184,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>-36.62591545039073,174.7643202513313</t>
+          <t>-36.62592633590636,174.76433000622697</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -68265,7 +68271,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>-36.62606273353337,174.7644522372692</t>
+          <t>-36.62607098898246,174.7644596353056</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
@@ -68352,7 +68358,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>-36.62598485466975,174.76438244702248</t>
+          <t>-36.62597250801645,174.76437138272811</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
@@ -68439,7 +68445,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>-36.62607661437668,174.76446467644632</t>
+          <t>-36.626079390545165,174.76446716428225</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
@@ -68549,7 +68555,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>-36.62603321847222,174.76442578766554</t>
+          <t>-36.62602737390489,174.7644205501227</t>
         </is>
       </c>
       <c r="P387" t="inlineStr">
@@ -68636,7 +68642,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>-36.62601371222772,174.7644083073694</t>
+          <t>-36.62601276248541,174.76440745626903</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
@@ -68723,7 +68729,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>-36.62604651486196,174.76443770307853</t>
+          <t>-36.62603482572818,174.76442722798996</t>
         </is>
       </c>
       <c r="P389" t="inlineStr">
@@ -68810,7 +68816,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>-36.62607193872435,174.76446048640722</t>
+          <t>-36.62607960971636,174.76446736069036</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -68897,7 +68903,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>-36.626051336629345,174.7644420240535</t>
+          <t>-36.62606222213384,174.76445177898384</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
@@ -69078,7 +69084,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>-36.626032414844225,174.76442506750337</t>
+          <t>-36.62604169309441,174.76443338210413</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -69165,7 +69171,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>-36.62602759307617,174.76442074653053</t>
+          <t>-36.62601911845308,174.76441315209476</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -69283,7 +69289,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>-36.626046807090304,174.7644379649558</t>
+          <t>-36.62605769259516,174.76444771988497</t>
         </is>
       </c>
       <c r="P397" t="inlineStr">
@@ -69401,7 +69407,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>-36.626042277551086,174.76443390585857</t>
+          <t>-36.626038405525534,174.7644304359855</t>
         </is>
       </c>
       <c r="P399" t="inlineStr">
@@ -69539,7 +69545,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>-36.62600173086265,174.76439757041285</t>
+          <t>-36.62599121063876,174.76438814284404</t>
         </is>
       </c>
       <c r="P401" t="inlineStr">
@@ -69665,7 +69671,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>-36.62612512425983,174.76450814813222</t>
+          <t>-36.62613827452632,174.76451993263493</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
@@ -69752,7 +69758,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>-36.626021894622774,174.764415639927</t>
+          <t>-36.62601057077235,174.76440549219143</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
@@ -69827,7 +69833,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>-36.62608479676785,174.76447200901598</t>
+          <t>-36.62609831232359,174.76448412085324</t>
         </is>
       </c>
       <c r="P405" t="inlineStr"/>
@@ -69910,7 +69916,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>-36.625976160872575,174.7643746561876</t>
+          <t>-36.62598412409858,174.76438179233037</t>
         </is>
       </c>
       <c r="P406" t="inlineStr">
@@ -70214,7 +70220,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>-36.626059445965,174.764449291149</t>
+          <t>-36.626068505042085,174.76445740934759</t>
         </is>
       </c>
       <c r="P410" t="inlineStr">
@@ -70301,7 +70307,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>-36.626045784291136,174.76443704838542</t>
+          <t>-36.62603716355504,174.76442932300745</t>
         </is>
       </c>
       <c r="P411" t="inlineStr">
@@ -70388,7 +70394,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>-36.62603183038752,174.76442454374904</t>
+          <t>-36.626025693591735,174.76441904432926</t>
         </is>
       </c>
       <c r="P412" t="inlineStr">
@@ -70475,7 +70481,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>-36.626026278048485,174.7644195680835</t>
+          <t>-36.62601721896853,174.76441144989386</t>
         </is>
       </c>
       <c r="P413" t="inlineStr">
@@ -70562,7 +70568,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>-36.62602817753291,174.76442127028477</t>
+          <t>-36.626025620534634,174.76441897886</t>
         </is>
       </c>
       <c r="P414" t="inlineStr">
@@ -70649,7 +70655,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>-36.62601429668453,174.76440883112343</t>
+          <t>-36.626000050549166,174.76439606462043</t>
         </is>
       </c>
       <c r="P415" t="inlineStr">
@@ -70727,7 +70733,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>-36.62599931997807,174.7643954099281</t>
+          <t>-36.625985219955346,174.7643827743685</t>
         </is>
       </c>
       <c r="P417" t="inlineStr">
@@ -70814,7 +70820,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>-36.62597068158835,174.7643697459985</t>
+          <t>-36.62595636239118,174.76435691404086</t>
         </is>
       </c>
       <c r="P418" t="inlineStr">
@@ -70869,7 +70875,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>-36.625916984590965,174.76432162618218</t>
+          <t>-36.6259268473064,174.76433046451075</t>
         </is>
       </c>
       <c r="P419" t="inlineStr">
@@ -71027,7 +71033,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>-36.62597433444452,174.7643730194578</t>
+          <t>-36.62595650850543,174.76435704497916</t>
         </is>
       </c>
       <c r="P421" t="inlineStr">
@@ -71145,7 +71151,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>-36.62603351070059,174.7644260495427</t>
+          <t>-36.62603592158453,174.7644282100294</t>
         </is>
       </c>
       <c r="P423" t="inlineStr">
@@ -71196,7 +71202,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>-36.625969512674345,174.76436869849155</t>
+          <t>-36.62595621627691,174.76435678310256</t>
         </is>
       </c>
       <c r="P424" t="inlineStr">
@@ -71342,7 +71348,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>-36.62595994219062,174.7643601220298</t>
+          <t>-36.62596936656009,174.7643685675532</t>
         </is>
       </c>
       <c r="P426" t="inlineStr">
@@ -71429,7 +71435,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>-36.62566325685262,174.76409425278018</t>
+          <t>-36.62567786831054,174.7641073465142</t>
         </is>
       </c>
       <c r="P427" t="inlineStr">
@@ -71516,7 +71522,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>-36.62592998876375,174.76433327968255</t>
+          <t>-36.62591793433396,174.76432247728042</t>
         </is>
       </c>
       <c r="P428" t="inlineStr"/>
@@ -71551,7 +71557,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>-36.625974115273166,174.76437282305025</t>
+          <t>-36.625985293012455,174.7643828398377</t>
         </is>
       </c>
       <c r="P429" t="inlineStr"/>
@@ -71673,7 +71679,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>-36.626048268231955,174.7644392743421</t>
+          <t>-36.626047099318626,174.76443822683305</t>
         </is>
       </c>
       <c r="P431" t="inlineStr"/>
@@ -71775,7 +71781,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>-36.62601597699783,174.76441033691643</t>
+          <t>-36.62601276248541,174.76440745626903</t>
         </is>
       </c>
       <c r="P433" t="inlineStr">
@@ -71862,7 +71868,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>-36.62604673403321,174.76443789948647</t>
+          <t>-36.626054039741284,174.76444444641848</t>
         </is>
       </c>
       <c r="P434" t="inlineStr"/>
@@ -72004,7 +72010,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>-36.6260022422624,174.7643980286975</t>
+          <t>-36.62598353964164,174.76438126857673</t>
         </is>
       </c>
       <c r="P436" t="inlineStr">
@@ -72091,7 +72097,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>-36.626013639170615,174.7644082419001</t>
+          <t>-36.6259963976937,174.76439279115888</t>
         </is>
       </c>
       <c r="P437" t="inlineStr">
@@ -72170,7 +72176,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>-36.62610956310949,174.76449420314265</t>
+          <t>-36.62611409264639,174.764498262247</t>
         </is>
       </c>
       <c r="P438" t="inlineStr">
@@ -72316,7 +72322,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>-36.62599990443495,174.76439593368198</t>
+          <t>-36.625998589407,174.76439475523577</t>
         </is>
       </c>
       <c r="P440" t="inlineStr">
@@ -72403,7 +72409,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>-36.62610715222688,174.7644920426518</t>
+          <t>-36.62610861336786,174.76449335204018</t>
         </is>
       </c>
       <c r="P441" t="inlineStr">
@@ -72490,7 +72496,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>-36.62608107085765,174.7644686700778</t>
+          <t>-36.626072011781424,174.76446055187657</t>
         </is>
       </c>
       <c r="P442" t="inlineStr">
@@ -72577,7 +72583,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>-36.625985439126694,174.76438297077615</t>
+          <t>-36.625967394017714,174.76436679988532</t>
         </is>
       </c>
       <c r="P443" t="inlineStr"/>
@@ -72660,7 +72666,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>-36.626085819566704,174.76447292558728</t>
+          <t>-36.62609349055791,174.76447979987296</t>
         </is>
       </c>
       <c r="P444" t="inlineStr">
@@ -72747,7 +72753,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>-36.62609655895429,174.76448254958763</t>
+          <t>-36.62609509781316,174.76448124019967</t>
         </is>
       </c>
       <c r="P445" t="inlineStr">
@@ -72834,7 +72840,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>-36.62602825059001,174.76442133575407</t>
+          <t>-36.626018826224694,174.7644128902177</t>
         </is>
       </c>
       <c r="P446" t="inlineStr">
@@ -72921,7 +72927,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>-36.626000854177356,174.764396784782</t>
+          <t>-36.62599077229608,174.76438775002873</t>
         </is>
       </c>
       <c r="P447" t="inlineStr">
@@ -73008,7 +73014,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>-36.62603007701732,174.76442297248616</t>
+          <t>-36.626028981160935,174.7644219904469</t>
         </is>
       </c>
       <c r="P448" t="inlineStr">
@@ -73059,7 +73065,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>-36.62604673403321,174.76443789948647</t>
+          <t>-36.62605228637138,174.76444287515469</t>
         </is>
       </c>
       <c r="P449" t="inlineStr">
@@ -73146,7 +73152,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>-36.62607602992014,174.7644641526914</t>
+          <t>-36.62608297034129,174.76447037228155</t>
         </is>
       </c>
       <c r="P450" t="inlineStr">
@@ -73225,7 +73231,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>-36.62612037555217,174.7645038926184</t>
+          <t>-36.62612885016879,174.76451148707423</t>
         </is>
       </c>
       <c r="P451" t="inlineStr"/>
@@ -73308,7 +73314,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>-36.62602788530454,174.76442100840765</t>
+          <t>-36.62601100911497,174.76440588500694</t>
         </is>
       </c>
       <c r="P452" t="inlineStr">
@@ -73395,7 +73401,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>-36.626011739685985,174.76440653969948</t>
+          <t>-36.6260032650619,174.76439894526686</t>
         </is>
       </c>
       <c r="P453" t="inlineStr">
@@ -73482,7 +73488,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>-36.62598310129894,174.76438087576153</t>
+          <t>-36.625995447951254,174.76439194005894</t>
         </is>
       </c>
       <c r="P454" t="inlineStr">
@@ -73608,7 +73614,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>-36.62599910080675,174.7643952135204</t>
+          <t>-36.62599793189301,174.7643941660127</t>
         </is>
       </c>
       <c r="P456" t="inlineStr"/>
@@ -73691,7 +73697,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>-36.625998443292765,174.76439462429732</t>
+          <t>-36.62599895469254,174.76439508258193</t>
         </is>
       </c>
       <c r="P457" t="inlineStr">
@@ -73778,7 +73784,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>-36.62606989312642,174.76445865326525</t>
+          <t>-36.62606872421329,174.76445760575564</t>
         </is>
       </c>
       <c r="P458" t="inlineStr">
@@ -73928,7 +73934,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>-36.62611365430413,174.76449786943044</t>
+          <t>-36.62612643928654,174.76450932658233</t>
         </is>
       </c>
       <c r="P460" t="inlineStr"/>
@@ -74011,7 +74017,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>-36.626008452116366,174.76440359358318</t>
+          <t>-36.62602269825082,174.76441636008897</t>
         </is>
       </c>
       <c r="P461" t="inlineStr"/>
@@ -74094,7 +74100,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>-36.62602452467822,174.76441799682084</t>
+          <t>-36.62601312777092,174.76440778361533</t>
         </is>
       </c>
       <c r="P462" t="inlineStr">
@@ -74149,7 +74155,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>-36.626018826224694,174.7644128902177</t>
+          <t>-36.626029200332205,174.76442218685474</t>
         </is>
       </c>
       <c r="P463" t="inlineStr">
@@ -74216,7 +74222,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>-36.62607661437668,174.76446467644632</t>
+          <t>-36.62607924443103,174.76446703334352</t>
         </is>
       </c>
       <c r="P464" t="inlineStr"/>
@@ -74346,7 +74352,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>-36.62614426520284,174.76452530113193</t>
+          <t>-36.626148356396385,174.76452896742302</t>
         </is>
       </c>
       <c r="P466" t="inlineStr">
@@ -74512,7 +74518,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>-36.626081728371226,174.76446925930216</t>
+          <t>-36.6260739112652,174.7644622540799</t>
         </is>
       </c>
       <c r="P468" t="inlineStr">
@@ -74650,7 +74656,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>-36.626070477582964,174.7644591770201</t>
+          <t>-36.62607062369711,174.76445930795882</t>
         </is>
       </c>
       <c r="P470" t="inlineStr">
@@ -74737,7 +74743,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>-36.62604877963151,174.76443973262732</t>
+          <t>-36.62604892574568,174.76443986356594</t>
         </is>
       </c>
       <c r="P471" t="inlineStr">
@@ -74804,7 +74810,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>-36.62611730715638,174.76450114290202</t>
+          <t>-36.62611840301202,174.76450212494353</t>
         </is>
       </c>
       <c r="P472" t="inlineStr">
@@ -74851,7 +74857,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>-36.626051482743506,174.76444215499214</t>
+          <t>-36.62603782106883,174.76442991223112</t>
         </is>
       </c>
       <c r="P473" t="inlineStr">
@@ -75009,7 +75015,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>-36.626009913258436,174.76440490296815</t>
+          <t>-36.625994936551486,174.76439148177437</t>
         </is>
       </c>
       <c r="P475" t="inlineStr">
@@ -75096,7 +75102,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>-36.62613272219173,174.7645149569555</t>
+          <t>-36.626137909241145,174.76451960528755</t>
         </is>
       </c>
       <c r="P476" t="inlineStr">
@@ -75183,7 +75189,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>-36.62602664333395,174.76441989542988</t>
+          <t>-36.62603752884047,174.76442965035392</t>
         </is>
       </c>
       <c r="P477" t="inlineStr">
@@ -75270,7 +75276,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>-36.62607581074895,174.76446395628332</t>
+          <t>-36.626071281210734,174.764459897183</t>
         </is>
       </c>
       <c r="P478" t="inlineStr">
@@ -75357,7 +75363,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>-36.62604936408816,174.76444025638185</t>
+          <t>-36.62605199414307,174.7644426132774</t>
         </is>
       </c>
       <c r="P479" t="inlineStr">
@@ -75444,7 +75450,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>-36.626023355764694,174.76441694931245</t>
+          <t>-36.62601378528483,174.76440837283863</t>
         </is>
       </c>
       <c r="P480" t="inlineStr">
@@ -75531,7 +75537,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>-36.626003338119,174.7643990107361</t>
+          <t>-36.62599961220652,174.76439567180503</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
@@ -75586,7 +75592,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>-36.626060541821126,174.76445027318906</t>
+          <t>-36.62604658791904,174.76443776854785</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
@@ -75673,7 +75679,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>-36.626079755830496,174.76446749162912</t>
+          <t>-36.626075226292414,174.7644634325284</t>
         </is>
       </c>
       <c r="P483" t="inlineStr">
@@ -75822,7 +75828,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>-36.62612388229015,174.76450703515164</t>
+          <t>-36.626134767788706,174.76451679010046</t>
         </is>
       </c>
       <c r="P486" t="inlineStr">
@@ -75857,7 +75863,7 @@
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr">
         <is>
-          <t>-36.6259829551847,174.7643807448231</t>
+          <t>-36.625967832360466,174.7643671927004</t>
         </is>
       </c>
       <c r="P487" t="inlineStr"/>
@@ -76019,7 +76025,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>-36.62601495419844,174.76440942034677</t>
+          <t>-36.62600523760376,174.76440071293635</t>
         </is>
       </c>
       <c r="P489" t="inlineStr">
@@ -76106,7 +76112,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>-36.626069600898134,174.76445839138785</t>
+          <t>-36.62606908949865,174.76445793310236</t>
         </is>
       </c>
       <c r="P490" t="inlineStr"/>
@@ -76189,7 +76195,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>-36.62603058841696,174.76442343077116</t>
+          <t>-36.62602379410727,174.76441734212807</t>
         </is>
       </c>
       <c r="P491" t="inlineStr">
@@ -76276,7 +76282,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>-36.62604607651947,174.76443731026265</t>
+          <t>-36.62604782988945,174.76443888152622</t>
         </is>
       </c>
       <c r="P492" t="inlineStr">
@@ -76347,7 +76353,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>-36.6261405392943,174.76452196218855</t>
+          <t>-36.626140685408345,174.76452209312748</t>
         </is>
       </c>
       <c r="P493" t="inlineStr">
@@ -76434,7 +76440,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>-36.6260500216019,174.76444084560572</t>
+          <t>-36.62604242366527,174.76443403679718</t>
         </is>
       </c>
       <c r="P494" t="inlineStr">
@@ -76568,7 +76574,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>-36.62605615839655,174.764446345029</t>
+          <t>-36.626065290530924,174.76445452869623</t>
         </is>
       </c>
       <c r="P496" t="inlineStr">
@@ -76690,7 +76696,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>-36.626160337748246,174.7645397044207</t>
+          <t>-36.62615412790138,174.76453413951296</t>
         </is>
       </c>
       <c r="P498" t="inlineStr">
@@ -76725,7 +76731,7 @@
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr">
         <is>
-          <t>-36.62602481690659,174.76441825869793</t>
+          <t>-36.626037967183,174.7644300431697</t>
         </is>
       </c>
       <c r="P499" t="inlineStr"/>
@@ -76808,7 +76814,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>-36.62603372987186,174.76442624595057</t>
+          <t>-36.626042350608174,174.7644339713279</t>
         </is>
       </c>
       <c r="P500" t="inlineStr">
@@ -76895,7 +76901,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>-36.62603248790131,174.76442513297263</t>
+          <t>-36.62601721896853,174.76441144989386</t>
         </is>
       </c>
       <c r="P501" t="inlineStr">
@@ -77037,7 +77043,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>-36.6260407433523,174.76443253100317</t>
+          <t>-36.626030150074406,174.76442303795545</t>
         </is>
       </c>
       <c r="P503" t="inlineStr">
@@ -77124,7 +77130,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>-36.626151132563386,174.76453145526366</t>
+          <t>-36.626162456401815,174.7645416030365</t>
         </is>
       </c>
       <c r="P504" t="inlineStr">
@@ -77447,7 +77453,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>-36.62593320327818,174.76433616032367</t>
+          <t>-36.62594584216369,174.76434748648322</t>
         </is>
       </c>
       <c r="P509" t="inlineStr">
@@ -77534,7 +77540,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>-36.6261318455073,174.764514171322</t>
+          <t>-36.62613980872398,174.76452130749382</t>
         </is>
       </c>
       <c r="P510" t="inlineStr">
@@ -77621,7 +77627,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>-36.62609597449784,174.76448202583242</t>
+          <t>-36.62610591025702,174.76449092967172</t>
         </is>
       </c>
       <c r="P511" t="inlineStr">
@@ -77700,7 +77706,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>-36.62619474760032,174.76457054057298</t>
+          <t>-36.62620643672001,174.76458101570532</t>
         </is>
       </c>
       <c r="P512" t="inlineStr"/>
@@ -77850,7 +77856,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>-36.62608764599324,174.76447456232185</t>
+          <t>-36.62607544546362,174.76446362893648</t>
         </is>
       </c>
       <c r="P514" t="inlineStr">
@@ -77937,7 +77943,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>-36.62612278643454,174.76450605310998</t>
+          <t>-36.626127827370276,174.7645105705019</t>
         </is>
       </c>
       <c r="P515" t="inlineStr">
@@ -78024,7 +78030,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>-36.626130530480644,174.76451299287174</t>
+          <t>-36.626139589552885,174.76452111108537</t>
         </is>
       </c>
       <c r="P516" t="inlineStr">
@@ -78111,7 +78117,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>-36.626057984823476,174.7644479817623</t>
+          <t>-36.62604242366527,174.76443403679718</t>
         </is>
       </c>
       <c r="P517" t="inlineStr">
@@ -78257,7 +78263,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>-36.626088741849124,174.76447554436263</t>
+          <t>-36.62607464183587,174.7644629087735</t>
         </is>
       </c>
       <c r="P519" t="inlineStr">
@@ -78344,7 +78350,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>-36.62615522375673,174.76453512155544</t>
+          <t>-36.626165963138696,174.7645447455732</t>
         </is>
       </c>
       <c r="P520" t="inlineStr">
@@ -78415,7 +78421,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>-36.626150475050146,174.76453086603823</t>
+          <t>-36.626157488524434,174.76453715110998</t>
         </is>
       </c>
       <c r="P521" t="inlineStr">
@@ -78502,7 +78508,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>-36.626076687433745,174.76446474191567</t>
+          <t>-36.62606609415874,174.76445524885904</t>
         </is>
       </c>
       <c r="P522" t="inlineStr">
@@ -78589,7 +78595,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>-36.62611942581062,174.76450304151567</t>
+          <t>-36.62612125223668,174.76450467825168</t>
         </is>
       </c>
       <c r="P523" t="inlineStr">
@@ -78743,7 +78749,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>-36.62603972055309,174.7644316144329</t>
+          <t>-36.62603080758823,174.764423627179</t>
         </is>
       </c>
       <c r="P525" t="inlineStr">
@@ -78830,7 +78836,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>-36.62604790294654,174.7644389469955</t>
+          <t>-36.62604388480696,174.76443534618332</t>
         </is>
       </c>
       <c r="P526" t="inlineStr">
@@ -78948,7 +78954,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>-36.6260821667136,174.7644696521184</t>
+          <t>-36.62607873303159,174.76446657505795</t>
         </is>
       </c>
       <c r="P528" t="inlineStr">
@@ -79035,7 +79041,7 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>-36.62607646826255,174.7644645455076</t>
+          <t>-36.626078879145716,174.76446670599668</t>
         </is>
       </c>
       <c r="P529" t="inlineStr">
@@ -79181,7 +79187,7 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>-36.62610685999867,174.76449178077414</t>
+          <t>-36.62609743563893,174.76448333522043</t>
         </is>
       </c>
       <c r="P531" t="inlineStr">
@@ -79252,7 +79258,7 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>-36.62616362531411,174.76454265054872</t>
+          <t>-36.62615456624352,174.76453453232992</t>
         </is>
       </c>
       <c r="P532" t="inlineStr"/>
@@ -79335,7 +79341,7 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>-36.62602145628019,174.76441524711137</t>
+          <t>-36.62600794071664,174.76440313529844</t>
         </is>
       </c>
       <c r="P533" t="inlineStr">
@@ -79422,7 +79428,7 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>-36.62607332680866,174.76446173032502</t>
+          <t>-36.62608662319438,174.76447364575048</t>
         </is>
       </c>
       <c r="P534" t="inlineStr">
@@ -79509,7 +79515,7 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>-36.626048122117766,174.76443914340348</t>
+          <t>-36.626039355267665,174.7644312870864</t>
         </is>
       </c>
       <c r="P535" t="inlineStr">
@@ -79596,7 +79602,7 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>-36.626065144416785,174.76445439775753</t>
+          <t>-36.626059665136225,174.764449487557</t>
         </is>
       </c>
       <c r="P536" t="inlineStr">
@@ -79683,7 +79689,7 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>-36.626100430978155,174.76448601946592</t>
+          <t>-36.62610890559605,174.76449361391786</t>
         </is>
       </c>
       <c r="P537" t="inlineStr">
@@ -79770,7 +79776,7 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>-36.62604753766113,174.76443861964893</t>
+          <t>-36.6260407433523,174.76443253100317</t>
         </is>
       </c>
       <c r="P538" t="inlineStr">
@@ -79857,7 +79863,7 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>-36.62606463301728,174.76445393947213</t>
+          <t>-36.626064486903125,174.76445380853343</t>
         </is>
       </c>
       <c r="P539" t="inlineStr">
@@ -79944,7 +79950,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>-36.62617801754596,174.76455554804537</t>
+          <t>-36.626181085940374,174.76455829776611</t>
         </is>
       </c>
       <c r="P540" t="inlineStr">
@@ -80031,7 +80037,7 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>-36.626062660476286,174.76445217179986</t>
+          <t>-36.6260597381933,174.76444955302634</t>
         </is>
       </c>
       <c r="P541" t="inlineStr">
@@ -80118,7 +80124,7 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>-36.626104229944865,174.7644894238752</t>
+          <t>-36.6261035724314,174.7644888346505</t>
         </is>
       </c>
       <c r="P542" t="inlineStr">
@@ -80205,7 +80211,7 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>-36.626084431482546,174.76447168166908</t>
+          <t>-36.62609692423955,174.7644828769346</t>
         </is>
       </c>
       <c r="P543" t="inlineStr">
@@ -80292,7 +80298,7 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>-36.62606127239188,174.76445092788242</t>
+          <t>-36.626073253751585,174.76446166485565</t>
         </is>
       </c>
       <c r="P544" t="inlineStr">
@@ -80379,7 +80385,7 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>-36.62601780342531,174.76441197364798</t>
+          <t>-36.62600173086265,174.76439757041285</t>
         </is>
       </c>
       <c r="P545" t="inlineStr">
@@ -80466,7 +80472,7 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>-36.62616333308604,174.76454238867063</t>
+          <t>-36.626173195783196,174.7645512270561</t>
         </is>
       </c>
       <c r="P546" t="inlineStr">
@@ -80553,7 +80559,7 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>-36.62603928221056,174.76443122161712</t>
+          <t>-36.62602905421803,174.76442205591619</t>
         </is>
       </c>
       <c r="P547" t="inlineStr">
@@ -80671,7 +80677,7 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>-36.625993840694804,174.764390499736</t>
+          <t>-36.626008306002156,174.76440346264468</t>
         </is>
       </c>
       <c r="P549" t="inlineStr">
@@ -80758,7 +80764,7 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>-36.6261190605254,174.7645027141685</t>
+          <t>-36.62613038436658,174.76451286193281</t>
         </is>
       </c>
       <c r="P550" t="inlineStr">
@@ -80845,7 +80851,7 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>-36.626139297324755,174.76452084920749</t>
+          <t>-36.626143680746594,174.76452477737607</t>
         </is>
       </c>
       <c r="P551" t="inlineStr"/>
@@ -80920,7 +80926,7 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>-36.626059665136225,174.764449487557</t>
+          <t>-36.62604782988945,174.76443888152622</t>
         </is>
       </c>
       <c r="P552" t="inlineStr"/>
@@ -81003,7 +81009,7 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>-36.626061199334806,174.76445086241307</t>
+          <t>-36.62607025841175,174.764458980612</t>
         </is>
       </c>
       <c r="P553" t="inlineStr">
@@ -81090,7 +81096,7 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>-36.62611475015979,174.7644988514719</t>
+          <t>-36.62612315171974,174.7645063804572</t>
         </is>
       </c>
       <c r="P554" t="inlineStr">
@@ -81165,7 +81171,7 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>-36.62606368327531,174.76445308837066</t>
+          <t>-36.62607296152333,174.7644614029782</t>
         </is>
       </c>
       <c r="P555" t="inlineStr"/>
@@ -81307,7 +81313,7 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>-36.62604103558065,174.7644327928804</t>
+          <t>-36.62603760189757,174.7644297158232</t>
         </is>
       </c>
       <c r="P557" t="inlineStr">
@@ -81449,7 +81455,7 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>-36.62608245894186,174.7644699139959</t>
+          <t>-36.626065290530924,174.76445452869623</t>
         </is>
       </c>
       <c r="P559" t="inlineStr">
@@ -81536,7 +81542,7 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>-36.626027154733606,174.76442035371485</t>
+          <t>-36.62601531948394,174.76440974769307</t>
         </is>
       </c>
       <c r="P560" t="inlineStr">
@@ -81702,7 +81708,7 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>-36.62606105322066,174.7644507314744</t>
+          <t>-36.62606558275922,174.7644547905736</t>
         </is>
       </c>
       <c r="P562" t="inlineStr">
@@ -81789,7 +81795,7 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>-36.62606185684848,174.76445145163711</t>
+          <t>-36.626069527841075,174.7644583259185</t>
         </is>
       </c>
       <c r="P563" t="inlineStr">
@@ -81876,7 +81882,7 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>-36.62600063500602,174.76439658837432</t>
+          <t>-36.62598098264252,174.76437897715462</t>
         </is>
       </c>
       <c r="P564" t="inlineStr">
@@ -81963,7 +81969,7 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>-36.626124978145754,174.76450801719335</t>
+          <t>-36.626132795248765,174.76451502242494</t>
         </is>
       </c>
       <c r="P565" t="inlineStr">
@@ -82050,7 +82056,7 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>-36.625996543807915,174.76439292209733</t>
+          <t>-36.625983393527406,174.76438113763834</t>
         </is>
       </c>
       <c r="P566" t="inlineStr">
@@ -82137,7 +82143,7 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>-36.6260058951177,174.76440130215957</t>
+          <t>-36.62599435209459,174.76439095802058</t>
         </is>
       </c>
       <c r="P567" t="inlineStr">
@@ -82224,7 +82230,7 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>-36.626043519521545,174.7644350188368</t>
+          <t>-36.62603329152932,174.76442585313484</t>
         </is>
       </c>
       <c r="P568" t="inlineStr">
@@ -82311,7 +82317,7 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>-36.62608311645541,174.7644705032203</t>
+          <t>-36.62608494288198,174.76447213995473</t>
         </is>
       </c>
       <c r="P569" t="inlineStr">
@@ -82382,7 +82388,7 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>-36.626078659974524,174.76446650958857</t>
+          <t>-36.62607654131962,174.76446461097694</t>
         </is>
       </c>
       <c r="P570" t="inlineStr">
@@ -82461,7 +82467,7 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>-36.626092321645,174.76447875236266</t>
+          <t>-36.62609100661796,174.76447757391364</t>
         </is>
       </c>
       <c r="P571" t="inlineStr">
@@ -82548,7 +82554,7 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>-36.62605243248554,174.76444300609333</t>
+          <t>-36.6260569620244,174.76444706519166</t>
         </is>
       </c>
       <c r="P572" t="inlineStr">
@@ -82635,7 +82641,7 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>-36.626057984823476,174.7644479817623</t>
+          <t>-36.626070185354685,174.76445891514265</t>
         </is>
       </c>
       <c r="P573" t="inlineStr">
@@ -82722,7 +82728,7 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>-36.62605462419791,174.76444497017312</t>
+          <t>-36.62604162003732,174.7644333166348</t>
         </is>
       </c>
       <c r="P574" t="inlineStr">
@@ -82809,7 +82815,7 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>-36.62602094488052,174.76441478882646</t>
+          <t>-36.626007502374016,174.76440274248296</t>
         </is>
       </c>
       <c r="P575" t="inlineStr">
@@ -82896,7 +82902,7 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>-36.62608647708027,174.76447351481173</t>
+          <t>-36.62609707035365,174.76448300787342</t>
         </is>
       </c>
       <c r="P576" t="inlineStr">
@@ -82983,7 +82989,7 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>-36.62601758425402,174.76441177724018</t>
+          <t>-36.62600626040324,174.76440162950578</t>
         </is>
       </c>
       <c r="P577" t="inlineStr">
@@ -83070,7 +83076,7 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>-36.626030223131494,174.76442310342475</t>
+          <t>-36.62604519983447,174.76443652463092</t>
         </is>
       </c>
       <c r="P578" t="inlineStr">
@@ -83220,7 +83226,7 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>-36.62612950768214,174.76451207629935</t>
+          <t>-36.62613586364422,174.76451777214243</t>
         </is>
       </c>
       <c r="P580" t="inlineStr">
@@ -83307,7 +83313,7 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>-36.626040889466466,174.76443266194175</t>
+          <t>-36.62603329152932,174.76442585313484</t>
         </is>
       </c>
       <c r="P581" t="inlineStr">
@@ -83394,7 +83400,7 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>-36.62607347292279,174.76446186126373</t>
+          <t>-36.626072011781424,174.76446055187657</t>
         </is>
       </c>
       <c r="P582" t="inlineStr">
@@ -83481,7 +83487,7 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>-36.62608852267795,174.76447534795446</t>
+          <t>-36.62608574650965,174.7644728601179</t>
         </is>
       </c>
       <c r="P583" t="inlineStr">
@@ -83568,7 +83574,7 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>-36.626092321645,174.76447875236266</t>
+          <t>-36.62608567345259,174.76447279464853</t>
         </is>
       </c>
       <c r="P584" t="inlineStr">
@@ -83655,7 +83661,7 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>-36.626032707072596,174.76442532938051</t>
+          <t>-36.62602342882179,174.7644170147817</t>
         </is>
       </c>
       <c r="P585" t="inlineStr">
@@ -83742,7 +83748,7 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>-36.626020506537934,174.76441439601086</t>
+          <t>-36.62601057077235,174.76440549219143</t>
         </is>
       </c>
       <c r="P586" t="inlineStr">
@@ -83829,7 +83835,7 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>-36.62596169556173,174.76436169328983</t>
+          <t>-36.62597287330207,174.76437171007404</t>
         </is>
       </c>
       <c r="P587" t="inlineStr">
@@ -83916,7 +83922,7 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>-36.62606434078898,174.76445367759476</t>
+          <t>-36.62604717237571,174.76443829230237</t>
         </is>
       </c>
       <c r="P588" t="inlineStr">
@@ -84003,7 +84009,7 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>-36.6261148962739,174.76449898241074</t>
+          <t>-36.62612366311904,174.7645068387433</t>
         </is>
       </c>
       <c r="P589" t="inlineStr">
@@ -84090,7 +84096,7 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>-36.62604446926363,174.7644358699378</t>
+          <t>-36.62603701744086,174.76442919206883</t>
         </is>
       </c>
       <c r="P590" t="inlineStr">
@@ -84177,7 +84183,7 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>-36.62612665845765,174.7645095229907</t>
+          <t>-36.62613169939323,174.76451404038306</t>
         </is>
       </c>
       <c r="P591" t="inlineStr">
@@ -84264,7 +84270,7 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>-36.62606017653575,174.76444994584233</t>
+          <t>-36.6260549894833,174.76444529751973</t>
         </is>
       </c>
       <c r="P592" t="inlineStr">
@@ -84351,7 +84357,7 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>-36.6260778563468,174.76446578942551</t>
+          <t>-36.626075737691885,174.76446389081394</t>
         </is>
       </c>
       <c r="P593" t="inlineStr">
@@ -84434,7 +84440,7 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>-36.626043811749874,174.76443528071403</t>
+          <t>-36.62603263401551,174.76442526391122</t>
         </is>
       </c>
       <c r="P594" t="inlineStr">
@@ -84521,7 +84527,7 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>-36.62609977346468,174.7644854302413</t>
+          <t>-36.626104960515384,174.76449007856934</t>
         </is>
       </c>
       <c r="P595" t="inlineStr">
@@ -84608,7 +84614,7 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>-36.62608713459381,174.76447410403617</t>
+          <t>-36.62609444029966,174.7644806509751</t>
         </is>
       </c>
       <c r="P596" t="inlineStr">
@@ -84695,7 +84701,7 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>-36.626008452116366,174.76440359358318</t>
+          <t>-36.625998370235656,174.7643945588281</t>
         </is>
       </c>
       <c r="P597" t="inlineStr">
@@ -84782,7 +84788,7 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>-36.62607413043639,174.76446245048797</t>
+          <t>-36.62608501593904,174.7644722054241</t>
         </is>
       </c>
       <c r="P598" t="inlineStr">
@@ -84869,7 +84875,7 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>-36.62608223977067,174.7644697175878</t>
+          <t>-36.62608479676785,174.76447200901598</t>
         </is>
       </c>
       <c r="P599" t="inlineStr">
@@ -84956,7 +84962,7 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>-36.62606083404942,174.76445053506637</t>
+          <t>-36.62605922679377,174.76444909474097</t>
         </is>
       </c>
       <c r="P600" t="inlineStr">
@@ -85043,7 +85049,7 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>-36.62607281540918,174.7644612720395</t>
+          <t>-36.626079171373966,174.76446696787417</t>
         </is>
       </c>
       <c r="P601" t="inlineStr">
@@ -85130,7 +85136,7 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>-36.62607135426781,174.76445996265235</t>
+          <t>-36.62606660555823,174.7644557071445</t>
         </is>
       </c>
       <c r="P602" t="inlineStr">
@@ -85217,7 +85223,7 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>-36.626073692093996,174.7644620576718</t>
+          <t>-36.62608070557233,174.76446834273096</t>
         </is>
       </c>
       <c r="P603" t="inlineStr">
@@ -85355,7 +85361,7 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>-36.62606624027287,174.76445537979774</t>
+          <t>-36.6260529438851,174.7644434643786</t>
         </is>
       </c>
       <c r="P605" t="inlineStr">
@@ -85442,7 +85448,7 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>-36.62612139835076,174.76450480919056</t>
+          <t>-36.62613272219173,174.7645149569555</t>
         </is>
       </c>
       <c r="P606" t="inlineStr">
@@ -85529,7 +85535,7 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>-36.62604972937358,174.76444058372843</t>
+          <t>-36.626039355267665,174.7644312870864</t>
         </is>
       </c>
       <c r="P607" t="inlineStr">
@@ -85572,7 +85578,7 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>-36.62602284436501,174.7644164910275</t>
+          <t>-36.62602839670419,174.76442146669262</t>
         </is>
       </c>
       <c r="P608" t="inlineStr"/>
@@ -85643,7 +85649,7 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>-36.62620212635725,174.7645771529999</t>
+          <t>-36.626198035165345,174.76457348670363</t>
         </is>
       </c>
       <c r="P609" t="inlineStr">
@@ -85730,7 +85736,7 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>-36.62610189211921,174.7644873288541</t>
+          <t>-36.62610298797499,174.76448831089522</t>
         </is>
       </c>
       <c r="P610" t="inlineStr">
@@ -85817,7 +85823,7 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>-36.626091298846184,174.7644778357912</t>
+          <t>-36.62609633978311,174.7644823531794</t>
         </is>
       </c>
       <c r="P611" t="inlineStr">
@@ -85904,7 +85910,7 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>-36.62609750869599,174.7644834006898</t>
+          <t>-36.626096412840155,174.7644824186488</t>
         </is>
       </c>
       <c r="P612" t="inlineStr">
@@ -85991,7 +85997,7 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>-36.626137982298175,174.764519670757</t>
+          <t>-36.62613118799398,174.76451358209684</t>
         </is>
       </c>
       <c r="P613" t="inlineStr">
@@ -86078,7 +86084,7 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>-36.626097654810096,174.7644835316286</t>
+          <t>-36.62610963616653,174.76449426861208</t>
         </is>
       </c>
       <c r="P614" t="inlineStr">
@@ -86165,7 +86171,7 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>-36.6260543319696,174.7644447082958</t>
+          <t>-36.62604293506486,174.76443449508233</t>
         </is>
       </c>
       <c r="P615" t="inlineStr">
@@ -86252,7 +86258,7 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>-36.626101526833935,174.76448700150706</t>
+          <t>-36.62610949005243,174.7644941376732</t>
         </is>
       </c>
       <c r="P616" t="inlineStr">
@@ -86339,7 +86345,7 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>-36.626084431482546,174.76447168166908</t>
+          <t>-36.62609648589722,174.76448248411822</t>
         </is>
       </c>
       <c r="P617" t="inlineStr">
@@ -86426,7 +86432,7 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>-36.626117672441595,174.7645014702492</t>
+          <t>-36.626116868814094,174.7645007500854</t>
         </is>
       </c>
       <c r="P618" t="inlineStr">
@@ -86513,7 +86519,7 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>-36.62610415688781,174.7644893584058</t>
+          <t>-36.62609509781316,174.76448124019967</t>
         </is>
       </c>
       <c r="P619" t="inlineStr">
